--- a/RoleMenuCompare.xlsx
+++ b/RoleMenuCompare.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F236"/>
+  <dimension ref="A1:F237"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -407,7 +407,7 @@
     <col min="3" max="3" width="17.83203125" customWidth="1"/>
     <col min="4" max="4" width="34.83203125" customWidth="1"/>
     <col min="5" max="5" width="36.83203125" customWidth="1"/>
-    <col min="6" max="6" width="17.83203125" customWidth="1"/>
+    <col min="6" max="6" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -432,79 +432,79 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>About</v>
+        <v>Faculty</v>
       </c>
       <c r="B2" t="str">
-        <v>About</v>
+        <v>-</v>
       </c>
       <c r="C2" t="str">
-        <v>7</v>
+        <v>-</v>
       </c>
       <c r="D2" t="str">
-        <v>group-menu-about</v>
+        <v>— None —</v>
       </c>
       <c r="E2" t="str">
-        <v>about</v>
+        <v>-</v>
       </c>
       <c r="F2" t="str">
-        <v>Match</v>
+        <v>Not Found in Drupal</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Academic Program Finder</v>
+        <v>About</v>
       </c>
       <c r="B3" t="str">
-        <v>Academic Program Finder</v>
+        <v>About</v>
       </c>
       <c r="C3" t="str">
-        <v>359</v>
+        <v>7</v>
       </c>
       <c r="D3" t="str">
-        <v>— None —</v>
+        <v>group-menu-about</v>
       </c>
       <c r="E3" t="str">
-        <v>academic-program-finder</v>
+        <v>about</v>
       </c>
       <c r="F3" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Academics</v>
+        <v>Academic Program Finder</v>
       </c>
       <c r="B4" t="str">
-        <v>Academics</v>
+        <v>Academic Program Finder</v>
       </c>
       <c r="C4" t="str">
-        <v>4</v>
+        <v>359</v>
       </c>
       <c r="D4" t="str">
-        <v>group-menu-academics</v>
+        <v>— None —</v>
       </c>
       <c r="E4" t="str">
-        <v>academics</v>
+        <v>academic-program-finder</v>
       </c>
       <c r="F4" t="str">
-        <v>Match</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Access Opportunity Programs</v>
+        <v>Academics</v>
       </c>
       <c r="B5" t="str">
-        <v>Access Opportunity Programs</v>
+        <v>Academics</v>
       </c>
       <c r="C5" t="str">
-        <v>137</v>
+        <v>4</v>
       </c>
       <c r="D5" t="str">
-        <v>group-menu-aop</v>
+        <v>group-menu-academics</v>
       </c>
       <c r="E5" t="str">
-        <v>aop</v>
+        <v>academics</v>
       </c>
       <c r="F5" t="str">
         <v>Match</v>
@@ -512,79 +512,79 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Admissions</v>
+        <v>Access Opportunity Programs</v>
       </c>
       <c r="B6" t="str">
-        <v>Admissions</v>
+        <v>Access Opportunity Programs</v>
       </c>
       <c r="C6" t="str">
-        <v>6</v>
+        <v>137</v>
       </c>
       <c r="D6" t="str">
-        <v>group-menu-general-information</v>
+        <v>group-menu-aop</v>
       </c>
       <c r="E6" t="str">
-        <v>admissions</v>
+        <v>aop</v>
       </c>
       <c r="F6" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Alumni</v>
+        <v>Admissions</v>
       </c>
       <c r="B7" t="str">
-        <v>Alumni</v>
+        <v>Admissions</v>
       </c>
       <c r="C7" t="str">
-        <v>250</v>
+        <v>6</v>
       </c>
       <c r="D7" t="str">
-        <v>group-menu-alumni</v>
+        <v>group-menu-general-information</v>
       </c>
       <c r="E7" t="str">
-        <v>alumni</v>
+        <v>admissions</v>
       </c>
       <c r="F7" t="str">
-        <v>Match</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Campus Life</v>
+        <v>Alumni</v>
       </c>
       <c r="B8" t="str">
-        <v>Campus Life</v>
+        <v>Alumni</v>
       </c>
       <c r="C8" t="str">
-        <v>212</v>
+        <v>250</v>
       </c>
       <c r="D8" t="str">
-        <v>— None —</v>
+        <v>group-menu-alumni</v>
       </c>
       <c r="E8" t="str">
-        <v>campus_life</v>
+        <v>alumni</v>
       </c>
       <c r="F8" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Center for Integrative Learning</v>
+        <v>Campus Life</v>
       </c>
       <c r="B9" t="str">
-        <v>Center for Integrative Learning</v>
+        <v>Campus Life</v>
       </c>
       <c r="C9" t="str">
-        <v>9</v>
+        <v>212</v>
       </c>
       <c r="D9" t="str">
-        <v>group-menu-cidd</v>
+        <v>— None —</v>
       </c>
       <c r="E9" t="str">
-        <v>cil</v>
+        <v>campus_life</v>
       </c>
       <c r="F9" t="str">
         <v>Mismatch</v>
@@ -592,79 +592,79 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>CIT</v>
+        <v>Center for Integrative Learning</v>
       </c>
       <c r="B10" t="str">
-        <v>CIT</v>
+        <v>Center for Integrative Learning</v>
       </c>
       <c r="C10" t="str">
-        <v>253</v>
+        <v>9</v>
       </c>
       <c r="D10" t="str">
-        <v>group-menu-cit</v>
+        <v>group-menu-cidd</v>
       </c>
       <c r="E10" t="str">
-        <v>cit</v>
+        <v>cil</v>
       </c>
       <c r="F10" t="str">
-        <v>Match</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>College Communications &amp; Marketing</v>
+        <v>CIT</v>
       </c>
       <c r="B11" t="str">
-        <v>College Communications &amp; Marketing</v>
+        <v>CIT</v>
       </c>
       <c r="C11" t="str">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="D11" t="str">
-        <v>group-menu-communications-market</v>
+        <v>group-menu-cit</v>
       </c>
       <c r="E11" t="str">
-        <v>comm_mark</v>
+        <v>cit</v>
       </c>
       <c r="F11" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Department of English and Creative Writing</v>
+        <v>College Communications &amp; Marketing</v>
       </c>
       <c r="B12" t="str">
-        <v>Department of English and Creative Writing</v>
+        <v>College Communications &amp; Marketing</v>
       </c>
       <c r="C12" t="str">
-        <v>197</v>
+        <v>225</v>
       </c>
       <c r="D12" t="str">
-        <v>group-menu-english</v>
+        <v>group-menu-communications-market</v>
       </c>
       <c r="E12" t="str">
-        <v>english</v>
+        <v>comm_mark</v>
       </c>
       <c r="F12" t="str">
-        <v>Match</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Emergency</v>
+        <v>Department of English and Creative Writing</v>
       </c>
       <c r="B13" t="str">
-        <v>Emergency</v>
+        <v>Department of English and Creative Writing</v>
       </c>
       <c r="C13" t="str">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="D13" t="str">
-        <v>group-menu-emergencies</v>
+        <v>group-menu-english</v>
       </c>
       <c r="E13" t="str">
-        <v>emergencies</v>
+        <v>english</v>
       </c>
       <c r="F13" t="str">
         <v>Match</v>
@@ -672,39 +672,39 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Employee Resources</v>
+        <v>Emergency</v>
       </c>
       <c r="B14" t="str">
-        <v>Employee Resources</v>
+        <v>Emergency</v>
       </c>
       <c r="C14" t="str">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="D14" t="str">
-        <v>— None —</v>
+        <v>group-menu-emergencies</v>
       </c>
       <c r="E14" t="str">
-        <v>employee-resources</v>
+        <v>emergencies</v>
       </c>
       <c r="F14" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Fellowships and Scholarships</v>
+        <v>Employee Resources</v>
       </c>
       <c r="B15" t="str">
-        <v>Fellowships and Scholarships</v>
+        <v>Employee Resources</v>
       </c>
       <c r="C15" t="str">
-        <v>108</v>
+        <v>221</v>
       </c>
       <c r="D15" t="str">
-        <v>group-menu-fellowships-scholarsh</v>
+        <v>— None —</v>
       </c>
       <c r="E15" t="str">
-        <v>fellowships_and_scholarships</v>
+        <v>employee-resources</v>
       </c>
       <c r="F15" t="str">
         <v>Mismatch</v>
@@ -712,19 +712,19 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Finance &amp; Administration</v>
+        <v>Fellowships and Scholarships</v>
       </c>
       <c r="B16" t="str">
-        <v>Finance &amp; Administration</v>
+        <v>Fellowships and Scholarships</v>
       </c>
       <c r="C16" t="str">
-        <v>252</v>
+        <v>108</v>
       </c>
       <c r="D16" t="str">
-        <v>finance-administration</v>
+        <v>group-menu-fellowships-scholarsh</v>
       </c>
       <c r="E16" t="str">
-        <v>admin_finance</v>
+        <v>fellowships_and_scholarships</v>
       </c>
       <c r="F16" t="str">
         <v>Mismatch</v>
@@ -732,19 +732,19 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Geneseo Area Gaming Group</v>
+        <v>Finance &amp; Administration</v>
       </c>
       <c r="B17" t="str">
-        <v>Geneseo Area Gaming Group</v>
+        <v>Finance &amp; Administration</v>
       </c>
       <c r="C17" t="str">
-        <v>11</v>
+        <v>252</v>
       </c>
       <c r="D17" t="str">
-        <v>group-menu-geneseo-area-gaming-g</v>
+        <v>finance-administration</v>
       </c>
       <c r="E17" t="str">
-        <v>gagg</v>
+        <v>admin_finance</v>
       </c>
       <c r="F17" t="str">
         <v>Mismatch</v>
@@ -752,19 +752,19 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Geological, Environmental, and Planetary Sciences</v>
+        <v>Geneseo Area Gaming Group</v>
       </c>
       <c r="B18" t="str">
-        <v>Geological, Environmental, and Planetary Sciences</v>
+        <v>Geneseo Area Gaming Group</v>
       </c>
       <c r="C18" t="str">
-        <v>195</v>
+        <v>11</v>
       </c>
       <c r="D18" t="str">
-        <v>group-menu-geological-sciences</v>
+        <v>group-menu-geneseo-area-gaming-g</v>
       </c>
       <c r="E18" t="str">
-        <v>geology</v>
+        <v>gagg</v>
       </c>
       <c r="F18" t="str">
         <v>Mismatch</v>
@@ -772,39 +772,39 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Graduate Admissions</v>
+        <v>Geological, Environmental, and Planetary Sciences</v>
       </c>
       <c r="B19" t="str">
-        <v>Graduate Admissions</v>
+        <v>Geological, Environmental, and Planetary Sciences</v>
       </c>
       <c r="C19" t="str">
-        <v>246</v>
+        <v>195</v>
       </c>
       <c r="D19" t="str">
-        <v>group-menu-graduate-admissions</v>
+        <v>group-menu-geological-sciences</v>
       </c>
       <c r="E19" t="str">
-        <v>graduate_admissions</v>
+        <v>geology</v>
       </c>
       <c r="F19" t="str">
-        <v>Match</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>History</v>
+        <v>Graduate Admissions</v>
       </c>
       <c r="B20" t="str">
-        <v>History</v>
+        <v>Graduate Admissions</v>
       </c>
       <c r="C20" t="str">
-        <v>194</v>
+        <v>246</v>
       </c>
       <c r="D20" t="str">
-        <v>group-menu-history</v>
+        <v>group-menu-graduate-admissions</v>
       </c>
       <c r="E20" t="str">
-        <v>history</v>
+        <v>graduate_admissions</v>
       </c>
       <c r="F20" t="str">
         <v>Match</v>
@@ -812,39 +812,39 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Human Resources</v>
+        <v>History</v>
       </c>
       <c r="B21" t="str">
-        <v>Human Resources</v>
+        <v>History</v>
       </c>
       <c r="C21" t="str">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="D21" t="str">
-        <v>group-menu-human-resources</v>
+        <v>group-menu-history</v>
       </c>
       <c r="E21" t="str">
-        <v>hr</v>
+        <v>history</v>
       </c>
       <c r="F21" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Information Security Program</v>
+        <v>Human Resources</v>
       </c>
       <c r="B22" t="str">
-        <v>Information Security Program</v>
+        <v>Human Resources</v>
       </c>
       <c r="C22" t="str">
-        <v>148</v>
+        <v>219</v>
       </c>
       <c r="D22" t="str">
-        <v>— None —</v>
+        <v>group-menu-human-resources</v>
       </c>
       <c r="E22" t="str">
-        <v>info_security</v>
+        <v>hr</v>
       </c>
       <c r="F22" t="str">
         <v>Mismatch</v>
@@ -852,19 +852,19 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>International Student &amp; Scholar Services</v>
+        <v>Information Security Program</v>
       </c>
       <c r="B23" t="str">
-        <v>International Student &amp; Scholar Services</v>
+        <v>Information Security Program</v>
       </c>
       <c r="C23" t="str">
-        <v>223</v>
+        <v>148</v>
       </c>
       <c r="D23" t="str">
-        <v>group-menu-isss</v>
+        <v>— None —</v>
       </c>
       <c r="E23" t="str">
-        <v>international</v>
+        <v>info_security</v>
       </c>
       <c r="F23" t="str">
         <v>Mismatch</v>
@@ -872,19 +872,19 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Intersession</v>
+        <v>International Student &amp; Scholar Services</v>
       </c>
       <c r="B24" t="str">
-        <v>Intersession</v>
+        <v>International Student &amp; Scholar Services</v>
       </c>
       <c r="C24" t="str">
-        <v>312</v>
+        <v>223</v>
       </c>
       <c r="D24" t="str">
-        <v>— None —</v>
+        <v>group-menu-isss</v>
       </c>
       <c r="E24" t="str">
-        <v>intersession</v>
+        <v>international</v>
       </c>
       <c r="F24" t="str">
         <v>Mismatch</v>
@@ -892,19 +892,19 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Intramural Sports</v>
+        <v>Intersession</v>
       </c>
       <c r="B25" t="str">
-        <v>Intramural Sports</v>
+        <v>Intersession</v>
       </c>
       <c r="C25" t="str">
-        <v>86</v>
+        <v>312</v>
       </c>
       <c r="D25" t="str">
-        <v>group-menu-intramural-sports</v>
+        <v>— None —</v>
       </c>
       <c r="E25" t="str">
-        <v>intramurals</v>
+        <v>intersession</v>
       </c>
       <c r="F25" t="str">
         <v>Mismatch</v>
@@ -912,19 +912,19 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>News Center</v>
+        <v>Intramural Sports</v>
       </c>
       <c r="B26" t="str">
-        <v>News Center</v>
+        <v>Intramural Sports</v>
       </c>
       <c r="C26" t="str">
-        <v>290</v>
+        <v>86</v>
       </c>
       <c r="D26" t="str">
-        <v>— None —</v>
+        <v>group-menu-intramural-sports</v>
       </c>
       <c r="E26" t="str">
-        <v>news</v>
+        <v>intramurals</v>
       </c>
       <c r="F26" t="str">
         <v>Mismatch</v>
@@ -932,19 +932,19 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Office of Advising</v>
+        <v>News Center</v>
       </c>
       <c r="B27" t="str">
-        <v>Office of Advising</v>
+        <v>News Center</v>
       </c>
       <c r="C27" t="str">
-        <v>142</v>
+        <v>290</v>
       </c>
       <c r="D27" t="str">
-        <v>group-menu-office-of-the-dean</v>
+        <v>— None —</v>
       </c>
       <c r="E27" t="str">
-        <v>advising</v>
+        <v>news</v>
       </c>
       <c r="F27" t="str">
         <v>Mismatch</v>
@@ -952,59 +952,59 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Office of Diversity and Equity</v>
+        <v>Office of Advising</v>
       </c>
       <c r="B28" t="str">
-        <v>Office of Diversity and Equity</v>
+        <v>Office of Advising</v>
       </c>
       <c r="C28" t="str">
-        <v>310</v>
+        <v>142</v>
       </c>
       <c r="D28" t="str">
-        <v>diversity-equity</v>
+        <v>group-menu-office-of-the-dean</v>
       </c>
       <c r="E28" t="str">
-        <v>diversity-equity</v>
+        <v>advising</v>
       </c>
       <c r="F28" t="str">
-        <v>Match</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Offices</v>
+        <v>Office of Diversity and Equity</v>
       </c>
       <c r="B29" t="str">
-        <v>Offices</v>
+        <v>Office of Diversity and Equity</v>
       </c>
       <c r="C29" t="str">
-        <v>222</v>
+        <v>310</v>
       </c>
       <c r="D29" t="str">
-        <v>— None —</v>
+        <v>diversity-equity</v>
       </c>
       <c r="E29" t="str">
-        <v>offices</v>
+        <v>diversity-equity</v>
       </c>
       <c r="F29" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Orientation</v>
+        <v>Offices</v>
       </c>
       <c r="B30" t="str">
-        <v>Orientation</v>
+        <v>Offices</v>
       </c>
       <c r="C30" t="str">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="D30" t="str">
-        <v>group-menu-weeks-of-welcome</v>
+        <v>— None —</v>
       </c>
       <c r="E30" t="str">
-        <v>orientation</v>
+        <v>offices</v>
       </c>
       <c r="F30" t="str">
         <v>Mismatch</v>
@@ -1012,39 +1012,39 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Parent and Family Resources</v>
+        <v>Orientation</v>
       </c>
       <c r="B31" t="str">
-        <v>Parent and Family Resources</v>
+        <v>Orientation</v>
       </c>
       <c r="C31" t="str">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D31" t="str">
-        <v>group-menu-parents</v>
+        <v>group-menu-weeks-of-welcome</v>
       </c>
       <c r="E31" t="str">
-        <v>parents</v>
+        <v>orientation</v>
       </c>
       <c r="F31" t="str">
-        <v>Match</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Policy</v>
+        <v>Parent and Family Resources</v>
       </c>
       <c r="B32" t="str">
-        <v>Policy</v>
+        <v>Parent and Family Resources</v>
       </c>
       <c r="C32" t="str">
-        <v>326</v>
+        <v>215</v>
       </c>
       <c r="D32" t="str">
-        <v>policy</v>
+        <v>group-menu-parents</v>
       </c>
       <c r="E32" t="str">
-        <v>policy</v>
+        <v>parents</v>
       </c>
       <c r="F32" t="str">
         <v>Match</v>
@@ -1052,79 +1052,79 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Psychology and Neuroscience Department</v>
+        <v>Policy</v>
       </c>
       <c r="B33" t="str">
-        <v>Psychology and Neuroscience Department</v>
+        <v>Policy</v>
       </c>
       <c r="C33" t="str">
-        <v>186</v>
+        <v>326</v>
       </c>
       <c r="D33" t="str">
-        <v>group-menu-psychology-department</v>
+        <v>policy</v>
       </c>
       <c r="E33" t="str">
-        <v>psychology</v>
+        <v>policy</v>
       </c>
       <c r="F33" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Purchasing</v>
+        <v>Psychology and Neuroscience Department</v>
       </c>
       <c r="B34" t="str">
-        <v>Purchasing</v>
+        <v>Psychology and Neuroscience Department</v>
       </c>
       <c r="C34" t="str">
-        <v>130</v>
+        <v>186</v>
       </c>
       <c r="D34" t="str">
-        <v>group-menu-purchasing</v>
+        <v>group-menu-psychology-department</v>
       </c>
       <c r="E34" t="str">
-        <v>purchasing</v>
+        <v>psychology</v>
       </c>
       <c r="F34" t="str">
-        <v>Match</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Residence Life</v>
+        <v>Purchasing</v>
       </c>
       <c r="B35" t="str">
-        <v>Residence Life</v>
+        <v>Purchasing</v>
       </c>
       <c r="C35" t="str">
-        <v>241</v>
+        <v>130</v>
       </c>
       <c r="D35" t="str">
-        <v>group-menu-campus-living</v>
+        <v>group-menu-purchasing</v>
       </c>
       <c r="E35" t="str">
-        <v>residence-life</v>
+        <v>purchasing</v>
       </c>
       <c r="F35" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Scene</v>
+        <v>Residence Life</v>
       </c>
       <c r="B36" t="str">
-        <v>Scene</v>
+        <v>Residence Life</v>
       </c>
       <c r="C36" t="str">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="D36" t="str">
-        <v>group-menu-scene</v>
+        <v>group-menu-campus-living</v>
       </c>
       <c r="E36" t="str">
-        <v>geneseo_scene</v>
+        <v>residence-life</v>
       </c>
       <c r="F36" t="str">
         <v>Mismatch</v>
@@ -1132,19 +1132,19 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>School of Business</v>
+        <v>Scene</v>
       </c>
       <c r="B37" t="str">
-        <v>School of Business</v>
+        <v>Scene</v>
       </c>
       <c r="C37" t="str">
-        <v>202</v>
+        <v>258</v>
       </c>
       <c r="D37" t="str">
-        <v>group-menu-school-of-business</v>
+        <v>group-menu-scene</v>
       </c>
       <c r="E37" t="str">
-        <v>business</v>
+        <v>geneseo_scene</v>
       </c>
       <c r="F37" t="str">
         <v>Mismatch</v>
@@ -1152,59 +1152,59 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Sociology</v>
+        <v>School of Business</v>
       </c>
       <c r="B38" t="str">
-        <v>Sociology</v>
+        <v>School of Business</v>
       </c>
       <c r="C38" t="str">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="D38" t="str">
-        <v>group-menu-sociology</v>
+        <v>group-menu-school-of-business</v>
       </c>
       <c r="E38" t="str">
-        <v>sociology</v>
+        <v>business</v>
       </c>
       <c r="F38" t="str">
-        <v>Match</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Student Association</v>
+        <v>Sociology</v>
       </c>
       <c r="B39" t="str">
-        <v>Student Association</v>
+        <v>Sociology</v>
       </c>
       <c r="C39" t="str">
-        <v>216</v>
+        <v>185</v>
       </c>
       <c r="D39" t="str">
-        <v>group-menu-student-association</v>
+        <v>group-menu-sociology</v>
       </c>
       <c r="E39" t="str">
-        <v>sa</v>
+        <v>sociology</v>
       </c>
       <c r="F39" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Student Health and Counseling</v>
+        <v>Student Association</v>
       </c>
       <c r="B40" t="str">
-        <v>Student Health and Counseling</v>
+        <v>Student Association</v>
       </c>
       <c r="C40" t="str">
-        <v>144</v>
+        <v>216</v>
       </c>
       <c r="D40" t="str">
-        <v>group-menu-health-counseling</v>
+        <v>group-menu-student-association</v>
       </c>
       <c r="E40" t="str">
-        <v>health</v>
+        <v>sa</v>
       </c>
       <c r="F40" t="str">
         <v>Mismatch</v>
@@ -1212,39 +1212,39 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Student Life</v>
+        <v>Student Health and Counseling</v>
       </c>
       <c r="B41" t="str">
-        <v>Student Life</v>
+        <v>Student Health and Counseling</v>
       </c>
       <c r="C41" t="str">
-        <v>251</v>
+        <v>144</v>
       </c>
       <c r="D41" t="str">
-        <v>group-menu-student-life</v>
+        <v>group-menu-health-counseling</v>
       </c>
       <c r="E41" t="str">
-        <v>student_life</v>
+        <v>health</v>
       </c>
       <c r="F41" t="str">
-        <v>Match</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Study Abroad</v>
+        <v>Student Life</v>
       </c>
       <c r="B42" t="str">
-        <v>Study Abroad</v>
+        <v>Student Life</v>
       </c>
       <c r="C42" t="str">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D42" t="str">
-        <v>group-menu-study-abroad</v>
+        <v>group-menu-student-life</v>
       </c>
       <c r="E42" t="str">
-        <v>study_abroad</v>
+        <v>student_life</v>
       </c>
       <c r="F42" t="str">
         <v>Match</v>
@@ -1252,39 +1252,39 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Support Geneseo</v>
+        <v>Study Abroad</v>
       </c>
       <c r="B43" t="str">
-        <v>Support Geneseo</v>
+        <v>Study Abroad</v>
       </c>
       <c r="C43" t="str">
-        <v>5</v>
+        <v>249</v>
       </c>
       <c r="D43" t="str">
-        <v>group-menu-support-geneseo</v>
+        <v>group-menu-study-abroad</v>
       </c>
       <c r="E43" t="str">
-        <v>support</v>
+        <v>study_abroad</v>
       </c>
       <c r="F43" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Discovery Cafe</v>
+        <v>Support Geneseo</v>
       </c>
       <c r="B44" t="str">
-        <v>Discovery Cafe</v>
+        <v>Support Geneseo</v>
       </c>
       <c r="C44" t="str">
-        <v>287</v>
+        <v>5</v>
       </c>
       <c r="D44" t="str">
-        <v>— None —</v>
+        <v>group-menu-support-geneseo</v>
       </c>
       <c r="E44" t="str">
-        <v>discoverycafe</v>
+        <v>support</v>
       </c>
       <c r="F44" t="str">
         <v>Mismatch</v>
@@ -1292,19 +1292,19 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Global Languages and Cultures</v>
+        <v>Discovery Cafe</v>
       </c>
       <c r="B45" t="str">
-        <v>Global Languages and Cultures</v>
+        <v>Discovery Cafe</v>
       </c>
       <c r="C45" t="str">
-        <v>193</v>
+        <v>287</v>
       </c>
       <c r="D45" t="str">
-        <v>group-menu-languages-literatures</v>
+        <v>— None —</v>
       </c>
       <c r="E45" t="str">
-        <v>global-languages-cultures</v>
+        <v>discoverycafe</v>
       </c>
       <c r="F45" t="str">
         <v>Mismatch</v>
@@ -1312,19 +1312,19 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Dr. Kodjo Adabra</v>
+        <v>Global Languages and Cultures</v>
       </c>
       <c r="B46" t="str">
-        <v>Dr. Kodjo Adabra</v>
+        <v>Global Languages and Cultures</v>
       </c>
       <c r="C46" t="str">
-        <v>235</v>
+        <v>193</v>
       </c>
       <c r="D46" t="str">
-        <v>group-menu-dr-kokjo-adabra</v>
+        <v>group-menu-languages-literatures</v>
       </c>
       <c r="E46" t="str">
-        <v>adabra</v>
+        <v>global-languages-cultures</v>
       </c>
       <c r="F46" t="str">
         <v>Mismatch</v>
@@ -1332,59 +1332,59 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Biology</v>
+        <v>Dr. Kodjo Adabra</v>
       </c>
       <c r="B47" t="str">
-        <v>Biology</v>
+        <v>Dr. Kodjo Adabra</v>
       </c>
       <c r="C47" t="str">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="D47" t="str">
-        <v>group-menu-biology</v>
+        <v>group-menu-dr-kokjo-adabra</v>
       </c>
       <c r="E47" t="str">
-        <v>biology</v>
+        <v>adabra</v>
       </c>
       <c r="F47" t="str">
-        <v>Match</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Jennifer Apple</v>
+        <v>Biology</v>
       </c>
       <c r="B48" t="str">
-        <v>Jennifer Apple</v>
+        <v>Biology</v>
       </c>
       <c r="C48" t="str">
-        <v>175</v>
+        <v>204</v>
       </c>
       <c r="D48" t="str">
-        <v>— None —</v>
+        <v>group-menu-biology</v>
       </c>
       <c r="E48" t="str">
-        <v>applej</v>
+        <v>biology</v>
       </c>
       <c r="F48" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Roemer Arboretum</v>
+        <v>Jennifer Apple</v>
       </c>
       <c r="B49" t="str">
-        <v>Roemer Arboretum</v>
+        <v>Jennifer Apple</v>
       </c>
       <c r="C49" t="str">
-        <v>283</v>
+        <v>175</v>
       </c>
       <c r="D49" t="str">
-        <v>group-menu-roemer-arboretum</v>
+        <v>— None —</v>
       </c>
       <c r="E49" t="str">
-        <v>arboretum</v>
+        <v>applej</v>
       </c>
       <c r="F49" t="str">
         <v>Mismatch</v>
@@ -1392,39 +1392,39 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Student Accounts</v>
+        <v>Roemer Arboretum</v>
       </c>
       <c r="B50" t="str">
-        <v>Student Accounts</v>
+        <v>Roemer Arboretum</v>
       </c>
       <c r="C50" t="str">
-        <v>95</v>
+        <v>283</v>
       </c>
       <c r="D50" t="str">
-        <v>group-menu-student-accounts</v>
+        <v>group-menu-roemer-arboretum</v>
       </c>
       <c r="E50" t="str">
-        <v>student_accounts</v>
+        <v>arboretum</v>
       </c>
       <c r="F50" t="str">
-        <v>Match</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Veteran and Military Services</v>
+        <v>Student Accounts</v>
       </c>
       <c r="B51" t="str">
-        <v>Veteran and Military Services</v>
+        <v>Student Accounts</v>
       </c>
       <c r="C51" t="str">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="D51" t="str">
-        <v>group-menu-veterans</v>
+        <v>group-menu-student-accounts</v>
       </c>
       <c r="E51" t="str">
-        <v>veterans</v>
+        <v>student_accounts</v>
       </c>
       <c r="F51" t="str">
         <v>Match</v>
@@ -1432,39 +1432,39 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>INTD 105 Writing Seminar Resources</v>
+        <v>Veteran and Military Services</v>
       </c>
       <c r="B52" t="str">
-        <v>INTD 105 Writing Seminar Resources</v>
+        <v>Veteran and Military Services</v>
       </c>
       <c r="C52" t="str">
-        <v>466</v>
+        <v>20</v>
       </c>
       <c r="D52" t="str">
-        <v>— None —</v>
+        <v>group-menu-veterans</v>
       </c>
       <c r="E52" t="str">
-        <v>intd-105-resources</v>
+        <v>veterans</v>
       </c>
       <c r="F52" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Phi Beta Kappa</v>
+        <v>INTD 105 Writing Seminar Resources</v>
       </c>
       <c r="B53" t="str">
-        <v>Phi Beta Kappa</v>
+        <v>INTD 105 Writing Seminar Resources</v>
       </c>
       <c r="C53" t="str">
-        <v>29</v>
+        <v>466</v>
       </c>
       <c r="D53" t="str">
-        <v>group-menu-phi-beta-kappa</v>
+        <v>— None —</v>
       </c>
       <c r="E53" t="str">
-        <v>pbk</v>
+        <v>intd-105-resources</v>
       </c>
       <c r="F53" t="str">
         <v>Mismatch</v>
@@ -1472,39 +1472,39 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>GREAT Day</v>
+        <v>Phi Beta Kappa</v>
       </c>
       <c r="B54" t="str">
-        <v>GREAT Day</v>
+        <v>Phi Beta Kappa</v>
       </c>
       <c r="C54" t="str">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="D54" t="str">
-        <v>group-menu-great-day</v>
+        <v>group-menu-phi-beta-kappa</v>
       </c>
       <c r="E54" t="str">
-        <v>great_day</v>
+        <v>pbk</v>
       </c>
       <c r="F54" t="str">
-        <v>Match</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Sponsored Research</v>
+        <v>GREAT Day</v>
       </c>
       <c r="B55" t="str">
-        <v>Sponsored Research</v>
+        <v>GREAT Day</v>
       </c>
       <c r="C55" t="str">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="D55" t="str">
-        <v>group-menu-sponsored-research</v>
+        <v>group-menu-great-day</v>
       </c>
       <c r="E55" t="str">
-        <v>sponsored_research</v>
+        <v>great_day</v>
       </c>
       <c r="F55" t="str">
         <v>Match</v>
@@ -1512,59 +1512,59 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Undergraduate Research</v>
+        <v>Sponsored Research</v>
       </c>
       <c r="B56" t="str">
-        <v>Undergraduate Research</v>
+        <v>Sponsored Research</v>
       </c>
       <c r="C56" t="str">
-        <v>119</v>
+        <v>68</v>
       </c>
       <c r="D56" t="str">
-        <v>group-menu-undergraduate-researc</v>
+        <v>group-menu-sponsored-research</v>
       </c>
       <c r="E56" t="str">
-        <v>undergraduate_research</v>
+        <v>sponsored_research</v>
       </c>
       <c r="F56" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Neuroscience</v>
+        <v>Undergraduate Research</v>
       </c>
       <c r="B57" t="str">
-        <v>Neuroscience</v>
+        <v>Undergraduate Research</v>
       </c>
       <c r="C57" t="str">
-        <v>176</v>
+        <v>119</v>
       </c>
       <c r="D57" t="str">
-        <v>group-menu-neuroscience</v>
+        <v>group-menu-undergraduate-researc</v>
       </c>
       <c r="E57" t="str">
-        <v>neuroscience</v>
+        <v>undergraduate_research</v>
       </c>
       <c r="F57" t="str">
-        <v>Match</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Psychology Club</v>
+        <v>Neuroscience</v>
       </c>
       <c r="B58" t="str">
-        <v>Psychology Club</v>
+        <v>Neuroscience</v>
       </c>
       <c r="C58" t="str">
-        <v>40</v>
+        <v>176</v>
       </c>
       <c r="D58" t="str">
-        <v>group-menu-psychology-club</v>
+        <v>group-menu-neuroscience</v>
       </c>
       <c r="E58" t="str">
-        <v>psychology_club</v>
+        <v>neuroscience</v>
       </c>
       <c r="F58" t="str">
         <v>Match</v>
@@ -1572,19 +1572,19 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Assessment</v>
+        <v>Psychology Club</v>
       </c>
       <c r="B59" t="str">
-        <v>Assessment</v>
+        <v>Psychology Club</v>
       </c>
       <c r="C59" t="str">
-        <v>281</v>
+        <v>40</v>
       </c>
       <c r="D59" t="str">
-        <v>group-menu-assessment-</v>
+        <v>group-menu-psychology-club</v>
       </c>
       <c r="E59" t="str">
-        <v>assessment</v>
+        <v>psychology_club</v>
       </c>
       <c r="F59" t="str">
         <v>Match</v>
@@ -1592,39 +1592,39 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Brodie Box Office</v>
+        <v>Assessment</v>
       </c>
       <c r="B60" t="str">
-        <v>Brodie Box Office</v>
+        <v>Assessment</v>
       </c>
       <c r="C60" t="str">
-        <v>101</v>
+        <v>281</v>
       </c>
       <c r="D60" t="str">
-        <v>group-menu-brodie-box-office</v>
+        <v>group-menu-assessment-</v>
       </c>
       <c r="E60" t="str">
-        <v>bbo</v>
+        <v>assessment</v>
       </c>
       <c r="F60" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Curriculum</v>
+        <v>Brodie Box Office</v>
       </c>
       <c r="B61" t="str">
-        <v>Curriculum</v>
+        <v>Brodie Box Office</v>
       </c>
       <c r="C61" t="str">
-        <v>270</v>
+        <v>101</v>
       </c>
       <c r="D61" t="str">
-        <v>group-menu-curriculum-and-assess</v>
+        <v>group-menu-brodie-box-office</v>
       </c>
       <c r="E61" t="str">
-        <v>curriculum</v>
+        <v>bbo</v>
       </c>
       <c r="F61" t="str">
         <v>Mismatch</v>
@@ -1632,19 +1632,19 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Office of the Provost</v>
+        <v>Curriculum</v>
       </c>
       <c r="B62" t="str">
-        <v>Office of the Provost</v>
+        <v>Curriculum</v>
       </c>
       <c r="C62" t="str">
-        <v>152</v>
+        <v>270</v>
       </c>
       <c r="D62" t="str">
-        <v>group-menu-office-of-the-provost</v>
+        <v>group-menu-curriculum-and-assess</v>
       </c>
       <c r="E62" t="str">
-        <v>provost</v>
+        <v>curriculum</v>
       </c>
       <c r="F62" t="str">
         <v>Mismatch</v>
@@ -1652,39 +1652,39 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Office of the Registrar</v>
+        <v>Office of the Provost</v>
       </c>
       <c r="B63" t="str">
-        <v>Office of the Registrar</v>
+        <v>Office of the Provost</v>
       </c>
       <c r="C63" t="str">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D63" t="str">
-        <v>group-menu-registrar</v>
+        <v>group-menu-office-of-the-provost</v>
       </c>
       <c r="E63" t="str">
-        <v>registrar</v>
+        <v>provost</v>
       </c>
       <c r="F63" t="str">
-        <v>Match</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Summer Sessions</v>
+        <v>Office of the Registrar</v>
       </c>
       <c r="B64" t="str">
-        <v>Summer Sessions</v>
+        <v>Office of the Registrar</v>
       </c>
       <c r="C64" t="str">
-        <v>271</v>
+        <v>145</v>
       </c>
       <c r="D64" t="str">
-        <v>group-menu-summer-sessions</v>
+        <v>group-menu-registrar</v>
       </c>
       <c r="E64" t="str">
-        <v>summer-sessions</v>
+        <v>registrar</v>
       </c>
       <c r="F64" t="str">
         <v>Match</v>
@@ -1692,39 +1692,39 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Campus Personal Safety Committee</v>
+        <v>Summer Sessions</v>
       </c>
       <c r="B65" t="str">
-        <v>Campus Personal Safety Committee</v>
+        <v>Summer Sessions</v>
       </c>
       <c r="C65" t="str">
-        <v>30</v>
+        <v>271</v>
       </c>
       <c r="D65" t="str">
-        <v>group-menu-campus-personal-safet</v>
+        <v>group-menu-summer-sessions</v>
       </c>
       <c r="E65" t="str">
-        <v>safety</v>
+        <v>summer-sessions</v>
       </c>
       <c r="F65" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Parking &amp; Transportation</v>
+        <v>Campus Personal Safety Committee</v>
       </c>
       <c r="B66" t="str">
-        <v>Parking &amp; Transportation</v>
+        <v>Campus Personal Safety Committee</v>
       </c>
       <c r="C66" t="str">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="D66" t="str">
-        <v>group-menu-parking-transportatio</v>
+        <v>group-menu-campus-personal-safet</v>
       </c>
       <c r="E66" t="str">
-        <v>pts</v>
+        <v>safety</v>
       </c>
       <c r="F66" t="str">
         <v>Mismatch</v>
@@ -1732,59 +1732,59 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Police</v>
+        <v>Parking &amp; Transportation</v>
       </c>
       <c r="B67" t="str">
-        <v>Police</v>
+        <v>Parking &amp; Transportation</v>
       </c>
       <c r="C67" t="str">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D67" t="str">
-        <v>group-menu-police</v>
+        <v>group-menu-parking-transportatio</v>
       </c>
       <c r="E67" t="str">
-        <v>police</v>
+        <v>pts</v>
       </c>
       <c r="F67" t="str">
-        <v>Match</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Center for Global Engagement</v>
+        <v>Police</v>
       </c>
       <c r="B68" t="str">
-        <v>Center for Global Engagement</v>
+        <v>Police</v>
       </c>
       <c r="C68" t="str">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D68" t="str">
-        <v>group-menu-oip</v>
+        <v>group-menu-police</v>
       </c>
       <c r="E68" t="str">
-        <v>globalengagement</v>
+        <v>police</v>
       </c>
       <c r="F68" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Incoming Exchange Students</v>
+        <v>Center for Global Engagement</v>
       </c>
       <c r="B69" t="str">
-        <v>Incoming Exchange Students</v>
+        <v>Center for Global Engagement</v>
       </c>
       <c r="C69" t="str">
-        <v>265</v>
+        <v>126</v>
       </c>
       <c r="D69" t="str">
-        <v>group-menu-incoming-exchange-stu</v>
+        <v>group-menu-oip</v>
       </c>
       <c r="E69" t="str">
-        <v>incoming-exchange-students</v>
+        <v>globalengagement</v>
       </c>
       <c r="F69" t="str">
         <v>Mismatch</v>
@@ -1792,19 +1792,19 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Geneseo CARE(S)</v>
+        <v>Incoming Exchange Students</v>
       </c>
       <c r="B70" t="str">
-        <v>Geneseo CARE(S)</v>
+        <v>Incoming Exchange Students</v>
       </c>
       <c r="C70" t="str">
-        <v>473</v>
+        <v>265</v>
       </c>
       <c r="D70" t="str">
-        <v>— None —</v>
+        <v>group-menu-incoming-exchange-stu</v>
       </c>
       <c r="E70" t="str">
-        <v>geneseo-CAREs</v>
+        <v>incoming-exchange-students</v>
       </c>
       <c r="F70" t="str">
         <v>Mismatch</v>
@@ -1812,19 +1812,19 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Mind-Body</v>
+        <v>Geneseo CARE(S)</v>
       </c>
       <c r="B71" t="str">
-        <v>Mind-Body</v>
+        <v>Geneseo CARE(S)</v>
       </c>
       <c r="C71" t="str">
-        <v>156</v>
+        <v>473</v>
       </c>
       <c r="D71" t="str">
-        <v>south-village-counseling</v>
+        <v>— None —</v>
       </c>
       <c r="E71" t="str">
-        <v>mindbody</v>
+        <v>geneseo-CAREs</v>
       </c>
       <c r="F71" t="str">
         <v>Mismatch</v>
@@ -1832,59 +1832,59 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Red Folder</v>
+        <v>Mind-Body</v>
       </c>
       <c r="B72" t="str">
-        <v>Red Folder</v>
+        <v>Mind-Body</v>
       </c>
       <c r="C72" t="str">
-        <v>278</v>
+        <v>156</v>
       </c>
       <c r="D72" t="str">
-        <v>group-menu-red-folder</v>
+        <v>south-village-counseling</v>
       </c>
       <c r="E72" t="str">
-        <v>redfolder</v>
+        <v>mindbody</v>
       </c>
       <c r="F72" t="str">
-        <v>Match</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Wellbeing Initiatives</v>
+        <v>Red Folder</v>
       </c>
       <c r="B73" t="str">
-        <v>Wellbeing Initiatives</v>
+        <v>Red Folder</v>
       </c>
       <c r="C73" t="str">
-        <v>460</v>
+        <v>278</v>
       </c>
       <c r="D73" t="str">
-        <v>group-460-menu</v>
+        <v>group-menu-red-folder</v>
       </c>
       <c r="E73" t="str">
-        <v>wellbeing</v>
+        <v>redfolder</v>
       </c>
       <c r="F73" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>SUNY Geneseo Federal Credit Union</v>
+        <v>Wellbeing Initiatives</v>
       </c>
       <c r="B74" t="str">
-        <v>SUNY Geneseo Federal Credit Union</v>
+        <v>Wellbeing Initiatives</v>
       </c>
       <c r="C74" t="str">
-        <v>92</v>
+        <v>460</v>
       </c>
       <c r="D74" t="str">
-        <v>group-menu-credit-union</v>
+        <v>group-460-menu</v>
       </c>
       <c r="E74" t="str">
-        <v>sgfcu</v>
+        <v>wellbeing</v>
       </c>
       <c r="F74" t="str">
         <v>Mismatch</v>
@@ -1892,59 +1892,59 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Pre-Law</v>
+        <v>SUNY Geneseo Federal Credit Union</v>
       </c>
       <c r="B75" t="str">
-        <v>Pre-Law</v>
+        <v>SUNY Geneseo Federal Credit Union</v>
       </c>
       <c r="C75" t="str">
-        <v>181</v>
+        <v>92</v>
       </c>
       <c r="D75" t="str">
-        <v>group-menu-pre-law</v>
+        <v>group-menu-credit-union</v>
       </c>
       <c r="E75" t="str">
-        <v>prelaw</v>
+        <v>sgfcu</v>
       </c>
       <c r="F75" t="str">
-        <v>Match</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>School of Education</v>
+        <v>Pre-Law</v>
       </c>
       <c r="B76" t="str">
-        <v>School of Education</v>
+        <v>Pre-Law</v>
       </c>
       <c r="C76" t="str">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="D76" t="str">
-        <v>group-menu-school-of-education</v>
+        <v>group-menu-pre-law</v>
       </c>
       <c r="E76" t="str">
-        <v>education</v>
+        <v>prelaw</v>
       </c>
       <c r="F76" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Kurt Fletcher</v>
+        <v>School of Education</v>
       </c>
       <c r="B77" t="str">
-        <v>Kurt Fletcher</v>
+        <v>School of Education</v>
       </c>
       <c r="C77" t="str">
-        <v>157</v>
+        <v>198</v>
       </c>
       <c r="D77" t="str">
-        <v>group-menu-kurt-fletcher</v>
+        <v>group-menu-school-of-education</v>
       </c>
       <c r="E77" t="str">
-        <v>fletcher</v>
+        <v>education</v>
       </c>
       <c r="F77" t="str">
         <v>Mismatch</v>
@@ -1952,19 +1952,19 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Muons Over Letchworth</v>
+        <v>Kurt Fletcher</v>
       </c>
       <c r="B78" t="str">
-        <v>Muons Over Letchworth</v>
+        <v>Kurt Fletcher</v>
       </c>
       <c r="C78" t="str">
-        <v>330</v>
+        <v>157</v>
       </c>
       <c r="D78" t="str">
-        <v>muons-over-letchworth</v>
+        <v>group-menu-kurt-fletcher</v>
       </c>
       <c r="E78" t="str">
-        <v>muons</v>
+        <v>fletcher</v>
       </c>
       <c r="F78" t="str">
         <v>Mismatch</v>
@@ -1972,19 +1972,19 @@
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Noyce Scholarship Program</v>
+        <v>Muons Over Letchworth</v>
       </c>
       <c r="B79" t="str">
-        <v>Noyce Scholarship Program</v>
+        <v>Muons Over Letchworth</v>
       </c>
       <c r="C79" t="str">
-        <v>88</v>
+        <v>330</v>
       </c>
       <c r="D79" t="str">
-        <v>group-menu-noyce-scholarship-pro</v>
+        <v>muons-over-letchworth</v>
       </c>
       <c r="E79" t="str">
-        <v>noyce</v>
+        <v>muons</v>
       </c>
       <c r="F79" t="str">
         <v>Mismatch</v>
@@ -1992,19 +1992,19 @@
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Nuclear Physics</v>
+        <v>Noyce Scholarship Program</v>
       </c>
       <c r="B80" t="str">
-        <v>Nuclear Physics</v>
+        <v>Noyce Scholarship Program</v>
       </c>
       <c r="C80" t="str">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="D80" t="str">
-        <v>group-menu-nuclear-physics</v>
+        <v>group-menu-noyce-scholarship-pro</v>
       </c>
       <c r="E80" t="str">
-        <v>nuclear</v>
+        <v>noyce</v>
       </c>
       <c r="F80" t="str">
         <v>Mismatch</v>
@@ -2012,19 +2012,19 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Physics &amp; Astronomy</v>
+        <v>Nuclear Physics</v>
       </c>
       <c r="B81" t="str">
-        <v>Physics &amp; Astronomy</v>
+        <v>Nuclear Physics</v>
       </c>
       <c r="C81" t="str">
-        <v>188</v>
+        <v>125</v>
       </c>
       <c r="D81" t="str">
-        <v>group-menu-physics-astronomy</v>
+        <v>group-menu-nuclear-physics</v>
       </c>
       <c r="E81" t="str">
-        <v>physics</v>
+        <v>nuclear</v>
       </c>
       <c r="F81" t="str">
         <v>Mismatch</v>
@@ -2032,19 +2032,19 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>PhysTEC Geneseo</v>
+        <v>Physics &amp; Astronomy</v>
       </c>
       <c r="B82" t="str">
-        <v>PhysTEC Geneseo</v>
+        <v>Physics &amp; Astronomy</v>
       </c>
       <c r="C82" t="str">
-        <v>73</v>
+        <v>188</v>
       </c>
       <c r="D82" t="str">
-        <v>group-menu-phystec-geneseo</v>
+        <v>group-menu-physics-astronomy</v>
       </c>
       <c r="E82" t="str">
-        <v>phystec</v>
+        <v>physics</v>
       </c>
       <c r="F82" t="str">
         <v>Mismatch</v>
@@ -2052,19 +2052,19 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Power of Physical Science</v>
+        <v>PhysTEC Geneseo</v>
       </c>
       <c r="B83" t="str">
-        <v>Power of Physical Science</v>
+        <v>PhysTEC Geneseo</v>
       </c>
       <c r="C83" t="str">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="D83" t="str">
-        <v>group-menu-power-of-physical-sci</v>
+        <v>group-menu-phystec-geneseo</v>
       </c>
       <c r="E83" t="str">
-        <v>pops</v>
+        <v>phystec</v>
       </c>
       <c r="F83" t="str">
         <v>Mismatch</v>
@@ -2072,19 +2072,19 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Microcredentials</v>
+        <v>Power of Physical Science</v>
       </c>
       <c r="B84" t="str">
-        <v>Microcredentials</v>
+        <v>Power of Physical Science</v>
       </c>
       <c r="C84" t="str">
-        <v>464</v>
+        <v>15</v>
       </c>
       <c r="D84" t="str">
-        <v>group-464-menu</v>
+        <v>group-menu-power-of-physical-sci</v>
       </c>
       <c r="E84" t="str">
-        <v>microcredentials</v>
+        <v>pops</v>
       </c>
       <c r="F84" t="str">
         <v>Mismatch</v>
@@ -2092,19 +2092,19 @@
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Office of the President</v>
+        <v>Microcredentials</v>
       </c>
       <c r="B85" t="str">
-        <v>Office of the President</v>
+        <v>Microcredentials</v>
       </c>
       <c r="C85" t="str">
-        <v>213</v>
+        <v>464</v>
       </c>
       <c r="D85" t="str">
-        <v>group-menu-office-of-the-preside</v>
+        <v>group-464-menu</v>
       </c>
       <c r="E85" t="str">
-        <v>president</v>
+        <v>microcredentials</v>
       </c>
       <c r="F85" t="str">
         <v>Mismatch</v>
@@ -2112,19 +2112,19 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Diversity at Geneseo</v>
+        <v>Office of the President</v>
       </c>
       <c r="B86" t="str">
-        <v>Diversity at Geneseo</v>
+        <v>Office of the President</v>
       </c>
       <c r="C86" t="str">
-        <v>173</v>
+        <v>213</v>
       </c>
       <c r="D86" t="str">
-        <v>group-menu-diversity-at-geneseo</v>
+        <v>group-menu-office-of-the-preside</v>
       </c>
       <c r="E86" t="str">
-        <v>diversity</v>
+        <v>president</v>
       </c>
       <c r="F86" t="str">
         <v>Mismatch</v>
@@ -2132,19 +2132,19 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Charlie Freeman</v>
+        <v>Diversity at Geneseo</v>
       </c>
       <c r="B87" t="str">
-        <v>Charlie Freeman</v>
+        <v>Diversity at Geneseo</v>
       </c>
       <c r="C87" t="str">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="D87" t="str">
-        <v>— None —</v>
+        <v>group-menu-diversity-at-geneseo</v>
       </c>
       <c r="E87" t="str">
-        <v>freeman</v>
+        <v>diversity</v>
       </c>
       <c r="F87" t="str">
         <v>Mismatch</v>
@@ -2152,79 +2152,79 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>LGBTQ</v>
+        <v>Charlie Freeman</v>
       </c>
       <c r="B88" t="str">
-        <v>LGBTQ</v>
+        <v>Charlie Freeman</v>
       </c>
       <c r="C88" t="str">
-        <v>57</v>
+        <v>158</v>
       </c>
       <c r="D88" t="str">
-        <v>group-menu-lgbtq</v>
+        <v>— None —</v>
       </c>
       <c r="E88" t="str">
-        <v>lgbtq</v>
+        <v>freeman</v>
       </c>
       <c r="F88" t="str">
-        <v>Match</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Multicultural Affairs</v>
+        <v>LGBTQ</v>
       </c>
       <c r="B89" t="str">
-        <v>Multicultural Affairs</v>
+        <v>LGBTQ</v>
       </c>
       <c r="C89" t="str">
-        <v>123</v>
+        <v>57</v>
       </c>
       <c r="D89" t="str">
-        <v>group-menu-multicultural-program</v>
+        <v>group-menu-lgbtq</v>
       </c>
       <c r="E89" t="str">
-        <v>multicultural</v>
+        <v>lgbtq</v>
       </c>
       <c r="F89" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Title IX &amp; Equity Compliance</v>
+        <v>Multicultural Affairs</v>
       </c>
       <c r="B90" t="str">
-        <v>Title IX &amp; Equity Compliance</v>
+        <v>Multicultural Affairs</v>
       </c>
       <c r="C90" t="str">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="D90" t="str">
-        <v>group-menu-title-ix</v>
+        <v>group-menu-multicultural-program</v>
       </c>
       <c r="E90" t="str">
-        <v>titleix</v>
+        <v>multicultural</v>
       </c>
       <c r="F90" t="str">
-        <v>Match</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Reunion</v>
+        <v>Title IX &amp; Equity Compliance</v>
       </c>
       <c r="B91" t="str">
-        <v>Reunion</v>
+        <v>Title IX &amp; Equity Compliance</v>
       </c>
       <c r="C91" t="str">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D91" t="str">
-        <v>group-menu-reunion</v>
+        <v>group-menu-title-ix</v>
       </c>
       <c r="E91" t="str">
-        <v>reunion</v>
+        <v>titleix</v>
       </c>
       <c r="F91" t="str">
         <v>Match</v>
@@ -2232,59 +2232,59 @@
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Undergraduate Alumni Association</v>
+        <v>Reunion</v>
       </c>
       <c r="B92" t="str">
-        <v>Undergraduate Alumni Association</v>
+        <v>Reunion</v>
       </c>
       <c r="C92" t="str">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="D92" t="str">
-        <v>group-menu-undergraduate-alumni-</v>
+        <v>group-menu-reunion</v>
       </c>
       <c r="E92" t="str">
-        <v>uaa</v>
+        <v>reunion</v>
       </c>
       <c r="F92" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>New York State Employees Federated Appeal</v>
+        <v>Undergraduate Alumni Association</v>
       </c>
       <c r="B93" t="str">
-        <v>New York State Employees Federated Appeal</v>
+        <v>Undergraduate Alumni Association</v>
       </c>
       <c r="C93" t="str">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="D93" t="str">
-        <v>group-menu-sefa</v>
+        <v>group-menu-undergraduate-alumni-</v>
       </c>
       <c r="E93" t="str">
-        <v>sefa</v>
+        <v>uaa</v>
       </c>
       <c r="F93" t="str">
-        <v>Match</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Geneseo Workout Center</v>
+        <v>New York State Employees Federated Appeal</v>
       </c>
       <c r="B94" t="str">
-        <v>Geneseo Workout Center</v>
+        <v>New York State Employees Federated Appeal</v>
       </c>
       <c r="C94" t="str">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D94" t="str">
-        <v>group-menu-workout-center</v>
+        <v>group-menu-sefa</v>
       </c>
       <c r="E94" t="str">
-        <v>workout_center</v>
+        <v>sefa</v>
       </c>
       <c r="F94" t="str">
         <v>Match</v>
@@ -2292,39 +2292,39 @@
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Department of Mathematics</v>
+        <v>Geneseo Workout Center</v>
       </c>
       <c r="B95" t="str">
-        <v>Department of Mathematics</v>
+        <v>Geneseo Workout Center</v>
       </c>
       <c r="C95" t="str">
-        <v>192</v>
+        <v>99</v>
       </c>
       <c r="D95" t="str">
-        <v>group-menu-mathematics</v>
+        <v>group-menu-workout-center</v>
       </c>
       <c r="E95" t="str">
-        <v>math</v>
+        <v>workout_center</v>
       </c>
       <c r="F95" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Knot Mosaic Space</v>
+        <v>Department of Mathematics</v>
       </c>
       <c r="B96" t="str">
-        <v>Knot Mosaic Space</v>
+        <v>Department of Mathematics</v>
       </c>
       <c r="C96" t="str">
-        <v>455</v>
+        <v>192</v>
       </c>
       <c r="D96" t="str">
-        <v>group-455-menu</v>
+        <v>group-menu-mathematics</v>
       </c>
       <c r="E96" t="str">
-        <v>knotmosaics</v>
+        <v>math</v>
       </c>
       <c r="F96" t="str">
         <v>Mismatch</v>
@@ -2332,19 +2332,19 @@
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>PRISM Math Club</v>
+        <v>Knot Mosaic Space</v>
       </c>
       <c r="B97" t="str">
-        <v>PRISM Math Club</v>
+        <v>Knot Mosaic Space</v>
       </c>
       <c r="C97" t="str">
-        <v>41</v>
+        <v>455</v>
       </c>
       <c r="D97" t="str">
-        <v>group-menu-prism-math-club</v>
+        <v>group-455-menu</v>
       </c>
       <c r="E97" t="str">
-        <v>prism</v>
+        <v>knotmosaics</v>
       </c>
       <c r="F97" t="str">
         <v>Mismatch</v>
@@ -2352,99 +2352,99 @@
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>ProofSpace</v>
+        <v>PRISM Math Club</v>
       </c>
       <c r="B98" t="str">
-        <v>ProofSpace</v>
+        <v>PRISM Math Club</v>
       </c>
       <c r="C98" t="str">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D98" t="str">
-        <v>group-menu-proofspace</v>
+        <v>group-menu-prism-math-club</v>
       </c>
       <c r="E98" t="str">
-        <v>proofspace</v>
+        <v>prism</v>
       </c>
       <c r="F98" t="str">
-        <v>Match</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Savi Iyer</v>
+        <v>ProofSpace</v>
       </c>
       <c r="B99" t="str">
-        <v>Savi Iyer</v>
+        <v>ProofSpace</v>
       </c>
       <c r="C99" t="str">
-        <v>161</v>
+        <v>32</v>
       </c>
       <c r="D99" t="str">
-        <v>group-menu-savi-iyer</v>
+        <v>group-menu-proofspace</v>
       </c>
       <c r="E99" t="str">
-        <v>iyer</v>
+        <v>proofspace</v>
       </c>
       <c r="F99" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Pathways: Geneseo Peer Advocacy Program</v>
+        <v>Savi Iyer</v>
       </c>
       <c r="B100" t="str">
-        <v>Pathways: Geneseo Peer Advocacy Program</v>
+        <v>Savi Iyer</v>
       </c>
       <c r="C100" t="str">
-        <v>90</v>
+        <v>161</v>
       </c>
       <c r="D100" t="str">
-        <v>group-menu-pathways</v>
+        <v>group-menu-savi-iyer</v>
       </c>
       <c r="E100" t="str">
-        <v>pathways</v>
+        <v>iyer</v>
       </c>
       <c r="F100" t="str">
-        <v>Match</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>The National Honor Society in Psychology</v>
+        <v>Pathways: Geneseo Peer Advocacy Program</v>
       </c>
       <c r="B101" t="str">
-        <v>The National Honor Society in Psychology</v>
+        <v>Pathways: Geneseo Peer Advocacy Program</v>
       </c>
       <c r="C101" t="str">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="D101" t="str">
-        <v>group-menu-the-national-honor-so</v>
+        <v>group-menu-pathways</v>
       </c>
       <c r="E101" t="str">
-        <v>psi_chi</v>
+        <v>pathways</v>
       </c>
       <c r="F101" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>COPLAC 2025</v>
+        <v>The National Honor Society in Psychology</v>
       </c>
       <c r="B102" t="str">
-        <v>COPLAC 2025</v>
+        <v>The National Honor Society in Psychology</v>
       </c>
       <c r="C102" t="str">
-        <v>474</v>
+        <v>70</v>
       </c>
       <c r="D102" t="str">
-        <v>group-474-menu</v>
+        <v>group-menu-the-national-honor-so</v>
       </c>
       <c r="E102" t="str">
-        <v>2025-COPLAC-summit</v>
+        <v>psi_chi</v>
       </c>
       <c r="F102" t="str">
         <v>Mismatch</v>
@@ -2452,19 +2452,19 @@
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>Presidential Search</v>
+        <v>COPLAC 2025</v>
       </c>
       <c r="B103" t="str">
-        <v>Presidential Search</v>
+        <v>COPLAC 2025</v>
       </c>
       <c r="C103" t="str">
-        <v>361</v>
+        <v>474</v>
       </c>
       <c r="D103" t="str">
-        <v>group-361-menu</v>
+        <v>group-474-menu</v>
       </c>
       <c r="E103" t="str">
-        <v>presidential-search</v>
+        <v>2025-COPLAC-summit</v>
       </c>
       <c r="F103" t="str">
         <v>Mismatch</v>
@@ -2472,39 +2472,39 @@
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Political Science</v>
+        <v>Presidential Search</v>
       </c>
       <c r="B104" t="str">
-        <v>Political Science</v>
+        <v>Presidential Search</v>
       </c>
       <c r="C104" t="str">
-        <v>187</v>
+        <v>361</v>
       </c>
       <c r="D104" t="str">
-        <v>group-menu-political-science</v>
+        <v>group-361-menu</v>
       </c>
       <c r="E104" t="str">
-        <v>political-science</v>
+        <v>presidential-search</v>
       </c>
       <c r="F104" t="str">
-        <v>Match</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>Philosophy</v>
+        <v>Political Science</v>
       </c>
       <c r="B105" t="str">
-        <v>Philosophy</v>
+        <v>Political Science</v>
       </c>
       <c r="C105" t="str">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D105" t="str">
-        <v>group-menu-philosophy</v>
+        <v>group-menu-political-science</v>
       </c>
       <c r="E105" t="str">
-        <v>philosophy</v>
+        <v>political-science</v>
       </c>
       <c r="F105" t="str">
         <v>Match</v>
@@ -2512,59 +2512,59 @@
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Department for the Performing Arts</v>
+        <v>Philosophy</v>
       </c>
       <c r="B106" t="str">
-        <v>Department for the Performing Arts</v>
+        <v>Philosophy</v>
       </c>
       <c r="C106" t="str">
-        <v>481</v>
+        <v>189</v>
       </c>
       <c r="D106" t="str">
-        <v>group-481-menu</v>
+        <v>group-menu-philosophy</v>
       </c>
       <c r="E106" t="str">
-        <v>performing-arts</v>
+        <v>philosophy</v>
       </c>
       <c r="F106" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>Art History</v>
+        <v>Department for the Performing Arts</v>
       </c>
       <c r="B107" t="str">
-        <v>Art History</v>
+        <v>Department for the Performing Arts</v>
       </c>
       <c r="C107" t="str">
-        <v>207</v>
+        <v>481</v>
       </c>
       <c r="D107" t="str">
-        <v>group-menu-art-history</v>
+        <v>group-481-menu</v>
       </c>
       <c r="E107" t="str">
-        <v>art_history</v>
+        <v>performing-arts</v>
       </c>
       <c r="F107" t="str">
-        <v>Match</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>Communication</v>
+        <v>Art History</v>
       </c>
       <c r="B108" t="str">
-        <v>Communication</v>
+        <v>Art History</v>
       </c>
       <c r="C108" t="str">
-        <v>239</v>
+        <v>207</v>
       </c>
       <c r="D108" t="str">
-        <v>group-menu-communication</v>
+        <v>group-menu-art-history</v>
       </c>
       <c r="E108" t="str">
-        <v>communication</v>
+        <v>art_history</v>
       </c>
       <c r="F108" t="str">
         <v>Match</v>
@@ -2572,59 +2572,59 @@
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>Strategic Planning</v>
+        <v>Communication</v>
       </c>
       <c r="B109" t="str">
-        <v>Strategic Planning</v>
+        <v>Communication</v>
       </c>
       <c r="C109" t="str">
-        <v>210</v>
+        <v>239</v>
       </c>
       <c r="D109" t="str">
-        <v>group-menu-strategic-planning-gr</v>
+        <v>group-menu-communication</v>
       </c>
       <c r="E109" t="str">
-        <v>spg</v>
+        <v>communication</v>
       </c>
       <c r="F109" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>Governance</v>
+        <v>Strategic Planning</v>
       </c>
       <c r="B110" t="str">
-        <v>Governance</v>
+        <v>Strategic Planning</v>
       </c>
       <c r="C110" t="str">
-        <v>140</v>
+        <v>210</v>
       </c>
       <c r="D110" t="str">
-        <v>group-menu-governance</v>
+        <v>group-menu-strategic-planning-gr</v>
       </c>
       <c r="E110" t="str">
-        <v>governance</v>
+        <v>spg</v>
       </c>
       <c r="F110" t="str">
-        <v>Match</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Anthropology</v>
+        <v>Governance</v>
       </c>
       <c r="B111" t="str">
-        <v>Anthropology</v>
+        <v>Governance</v>
       </c>
       <c r="C111" t="str">
-        <v>208</v>
+        <v>140</v>
       </c>
       <c r="D111" t="str">
-        <v>group-menu-anthropology</v>
+        <v>group-menu-governance</v>
       </c>
       <c r="E111" t="str">
-        <v>anthropology</v>
+        <v>governance</v>
       </c>
       <c r="F111" t="str">
         <v>Match</v>
@@ -2632,39 +2632,39 @@
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>Career Design Center</v>
+        <v>Anthropology</v>
       </c>
       <c r="B112" t="str">
-        <v>Career Design Center</v>
+        <v>Anthropology</v>
       </c>
       <c r="C112" t="str">
-        <v>102</v>
+        <v>208</v>
       </c>
       <c r="D112" t="str">
-        <v>group-menu-career-development</v>
+        <v>group-menu-anthropology</v>
       </c>
       <c r="E112" t="str">
-        <v>career-design</v>
+        <v>anthropology</v>
       </c>
       <c r="F112" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>Department of Anthropology</v>
+        <v>Career Design Center</v>
       </c>
       <c r="B113" t="str">
-        <v>Department of Anthropology</v>
+        <v>Career Design Center</v>
       </c>
       <c r="C113" t="str">
-        <v>451</v>
+        <v>102</v>
       </c>
       <c r="D113" t="str">
-        <v>group-451-menu</v>
+        <v>group-menu-career-development</v>
       </c>
       <c r="E113" t="str">
-        <v>department-of-anthropology</v>
+        <v>career-design</v>
       </c>
       <c r="F113" t="str">
         <v>Mismatch</v>
@@ -2672,19 +2672,19 @@
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>Individualized Studies Major</v>
+        <v>Department of Anthropology</v>
       </c>
       <c r="B114" t="str">
-        <v>Individualized Studies Major</v>
+        <v>Department of Anthropology</v>
       </c>
       <c r="C114" t="str">
-        <v>360</v>
+        <v>451</v>
       </c>
       <c r="D114" t="str">
-        <v>group-360-menu</v>
+        <v>group-451-menu</v>
       </c>
       <c r="E114" t="str">
-        <v>individualized-studies</v>
+        <v>department-of-anthropology</v>
       </c>
       <c r="F114" t="str">
         <v>Mismatch</v>
@@ -2692,19 +2692,19 @@
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>Latin American and Caribbean Studies</v>
+        <v>Individualized Studies Major</v>
       </c>
       <c r="B115" t="str">
-        <v>Latin American and Caribbean Studies</v>
+        <v>Individualized Studies Major</v>
       </c>
       <c r="C115" t="str">
-        <v>211</v>
+        <v>360</v>
       </c>
       <c r="D115" t="str">
-        <v>group-menu-latin-american-studie</v>
+        <v>group-360-menu</v>
       </c>
       <c r="E115" t="str">
-        <v>latin_american_caribbean_studies</v>
+        <v>individualized-studies</v>
       </c>
       <c r="F115" t="str">
         <v>Mismatch</v>
@@ -2712,59 +2712,59 @@
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>Sociomedical Sciences</v>
+        <v>Latin American and Caribbean Studies</v>
       </c>
       <c r="B116" t="str">
-        <v>Sociomedical Sciences</v>
+        <v>Latin American and Caribbean Studies</v>
       </c>
       <c r="C116" t="str">
-        <v>177</v>
+        <v>211</v>
       </c>
       <c r="D116" t="str">
-        <v>group-menu-sociomedical-sciences</v>
+        <v>group-menu-latin-american-studie</v>
       </c>
       <c r="E116" t="str">
-        <v>sociomedical_sciences</v>
+        <v>latin_american_caribbean_studies</v>
       </c>
       <c r="F116" t="str">
-        <v>Match</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>Edgar Fellows</v>
+        <v>Sociomedical Sciences</v>
       </c>
       <c r="B117" t="str">
-        <v>Edgar Fellows</v>
+        <v>Sociomedical Sciences</v>
       </c>
       <c r="C117" t="str">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D117" t="str">
-        <v>group-menu-edgar-fellows-program</v>
+        <v>group-menu-sociomedical-sciences</v>
       </c>
       <c r="E117" t="str">
-        <v>edgar-fellows</v>
+        <v>sociomedical_sciences</v>
       </c>
       <c r="F117" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>Administrative Systems</v>
+        <v>Edgar Fellows</v>
       </c>
       <c r="B118" t="str">
-        <v>Administrative Systems</v>
+        <v>Edgar Fellows</v>
       </c>
       <c r="C118" t="str">
-        <v>50</v>
+        <v>179</v>
       </c>
       <c r="D118" t="str">
-        <v>— None —</v>
+        <v>group-menu-edgar-fellows-program</v>
       </c>
       <c r="E118" t="str">
-        <v>admin_systems</v>
+        <v>edgar-fellows</v>
       </c>
       <c r="F118" t="str">
         <v>Mismatch</v>
@@ -2772,19 +2772,19 @@
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>Construction Projects</v>
+        <v>Administrative Systems</v>
       </c>
       <c r="B119" t="str">
-        <v>Construction Projects</v>
+        <v>Administrative Systems</v>
       </c>
       <c r="C119" t="str">
-        <v>467</v>
+        <v>50</v>
       </c>
       <c r="D119" t="str">
-        <v>group-467-menu</v>
+        <v>— None —</v>
       </c>
       <c r="E119" t="str">
-        <v>construction-projects</v>
+        <v>admin_systems</v>
       </c>
       <c r="F119" t="str">
         <v>Mismatch</v>
@@ -2792,39 +2792,39 @@
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>Facilities Services</v>
+        <v>Construction Projects</v>
       </c>
       <c r="B120" t="str">
-        <v>Facilities Services</v>
+        <v>Construction Projects</v>
       </c>
       <c r="C120" t="str">
-        <v>107</v>
+        <v>467</v>
       </c>
       <c r="D120" t="str">
-        <v>group-menu-facilities-services</v>
+        <v>group-467-menu</v>
       </c>
       <c r="E120" t="str">
-        <v>facilities_services</v>
+        <v>construction-projects</v>
       </c>
       <c r="F120" t="str">
-        <v>Match</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>Planning &amp; Construction</v>
+        <v>Facilities Services</v>
       </c>
       <c r="B121" t="str">
-        <v>Planning &amp; Construction</v>
+        <v>Facilities Services</v>
       </c>
       <c r="C121" t="str">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="D121" t="str">
-        <v>group-menu-facilities-planning</v>
+        <v>group-menu-facilities-services</v>
       </c>
       <c r="E121" t="str">
-        <v>facilities_planning</v>
+        <v>facilities_services</v>
       </c>
       <c r="F121" t="str">
         <v>Match</v>
@@ -2832,39 +2832,39 @@
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>Teaching and Learning Center</v>
+        <v>Planning &amp; Construction</v>
       </c>
       <c r="B122" t="str">
-        <v>Teaching and Learning Center</v>
+        <v>Planning &amp; Construction</v>
       </c>
       <c r="C122" t="str">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="D122" t="str">
-        <v>group-menu-teaching-and-learning</v>
+        <v>group-menu-facilities-planning</v>
       </c>
       <c r="E122" t="str">
-        <v>tlc</v>
+        <v>facilities_planning</v>
       </c>
       <c r="F122" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>Institutional Research</v>
+        <v>Teaching and Learning Center</v>
       </c>
       <c r="B123" t="str">
-        <v>Institutional Research</v>
+        <v>Teaching and Learning Center</v>
       </c>
       <c r="C123" t="str">
-        <v>141</v>
+        <v>59</v>
       </c>
       <c r="D123" t="str">
-        <v>group-menu-institutional-researc</v>
+        <v>group-menu-teaching-and-learning</v>
       </c>
       <c r="E123" t="str">
-        <v>ire</v>
+        <v>tlc</v>
       </c>
       <c r="F123" t="str">
         <v>Mismatch</v>
@@ -2872,19 +2872,19 @@
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>Student Course Experience (SCE)</v>
+        <v>Institutional Research</v>
       </c>
       <c r="B124" t="str">
-        <v>Student Course Experience (SCE)</v>
+        <v>Institutional Research</v>
       </c>
       <c r="C124" t="str">
-        <v>94</v>
+        <v>141</v>
       </c>
       <c r="D124" t="str">
-        <v>group-menu-sofi</v>
+        <v>group-menu-institutional-researc</v>
       </c>
       <c r="E124" t="str">
-        <v>sce</v>
+        <v>ire</v>
       </c>
       <c r="F124" t="str">
         <v>Mismatch</v>
@@ -2892,39 +2892,39 @@
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>GROW STEM</v>
+        <v>Student Course Experience (SCE)</v>
       </c>
       <c r="B125" t="str">
-        <v>GROW STEM</v>
+        <v>Student Course Experience (SCE)</v>
       </c>
       <c r="C125" t="str">
-        <v>279</v>
+        <v>94</v>
       </c>
       <c r="D125" t="str">
-        <v>group-menu-grow-stem</v>
+        <v>group-menu-sofi</v>
       </c>
       <c r="E125" t="str">
-        <v>growstem</v>
+        <v>sce</v>
       </c>
       <c r="F125" t="str">
-        <v>Match</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>Biochemistry Program</v>
+        <v>GROW STEM</v>
       </c>
       <c r="B126" t="str">
-        <v>Biochemistry Program</v>
+        <v>GROW STEM</v>
       </c>
       <c r="C126" t="str">
-        <v>205</v>
+        <v>279</v>
       </c>
       <c r="D126" t="str">
-        <v>group-menu-biochemistry</v>
+        <v>group-menu-grow-stem</v>
       </c>
       <c r="E126" t="str">
-        <v>biochemistry</v>
+        <v>growstem</v>
       </c>
       <c r="F126" t="str">
         <v>Match</v>
@@ -2932,99 +2932,99 @@
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>Chemistry Stockroom</v>
+        <v>Biochemistry Program</v>
       </c>
       <c r="B127" t="str">
-        <v>Chemistry Stockroom</v>
+        <v>Biochemistry Program</v>
       </c>
       <c r="C127" t="str">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="D127" t="str">
-        <v>group-menu-chemistry-stockroom</v>
+        <v>group-menu-biochemistry</v>
       </c>
       <c r="E127" t="str">
-        <v>chemstockroom</v>
+        <v>biochemistry</v>
       </c>
       <c r="F127" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>Department of Chemistry and Biochemistry</v>
+        <v>Chemistry Stockroom</v>
       </c>
       <c r="B128" t="str">
-        <v>Department of Chemistry and Biochemistry</v>
+        <v>Chemistry Stockroom</v>
       </c>
       <c r="C128" t="str">
-        <v>201</v>
+        <v>234</v>
       </c>
       <c r="D128" t="str">
-        <v>group-menu-chemistry</v>
+        <v>group-menu-chemistry-stockroom</v>
       </c>
       <c r="E128" t="str">
-        <v>chemistry</v>
+        <v>chemstockroom</v>
       </c>
       <c r="F128" t="str">
-        <v>Match</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>Campus Scheduling &amp; Special Events</v>
+        <v>Department of Chemistry and Biochemistry</v>
       </c>
       <c r="B129" t="str">
-        <v>Campus Scheduling &amp; Special Events</v>
+        <v>Department of Chemistry and Biochemistry</v>
       </c>
       <c r="C129" t="str">
-        <v>65</v>
+        <v>201</v>
       </c>
       <c r="D129" t="str">
-        <v>group-menu-campus-scheduling-spe</v>
+        <v>group-menu-chemistry</v>
       </c>
       <c r="E129" t="str">
-        <v>events_office</v>
+        <v>chemistry</v>
       </c>
       <c r="F129" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>Commencement</v>
+        <v>Campus Scheduling &amp; Special Events</v>
       </c>
       <c r="B130" t="str">
-        <v>Commencement</v>
+        <v>Campus Scheduling &amp; Special Events</v>
       </c>
       <c r="C130" t="str">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="D130" t="str">
-        <v>group-menu-commencement</v>
+        <v>group-menu-campus-scheduling-spe</v>
       </c>
       <c r="E130" t="str">
-        <v>commencement</v>
+        <v>events_office</v>
       </c>
       <c r="F130" t="str">
-        <v>Match</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>Sustainability</v>
+        <v>Commencement</v>
       </c>
       <c r="B131" t="str">
-        <v>Sustainability</v>
+        <v>Commencement</v>
       </c>
       <c r="C131" t="str">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="D131" t="str">
-        <v>group-menu-sustainability</v>
+        <v>group-menu-commencement</v>
       </c>
       <c r="E131" t="str">
-        <v>sustainability</v>
+        <v>commencement</v>
       </c>
       <c r="F131" t="str">
         <v>Match</v>
@@ -3032,59 +3032,59 @@
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>Environmental Health &amp; Safety</v>
+        <v>Sustainability</v>
       </c>
       <c r="B132" t="str">
-        <v>Environmental Health &amp; Safety</v>
+        <v>Sustainability</v>
       </c>
       <c r="C132" t="str">
-        <v>230</v>
+        <v>75</v>
       </c>
       <c r="D132" t="str">
-        <v>group-menu-environmental-health-</v>
+        <v>group-menu-sustainability</v>
       </c>
       <c r="E132" t="str">
-        <v>ehs</v>
+        <v>sustainability</v>
       </c>
       <c r="F132" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>NY-Alert</v>
+        <v>Environmental Health &amp; Safety</v>
       </c>
       <c r="B133" t="str">
-        <v>NY-Alert</v>
+        <v>Environmental Health &amp; Safety</v>
       </c>
       <c r="C133" t="str">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="D133" t="str">
-        <v>group-menu-ny-alert</v>
+        <v>group-menu-environmental-health-</v>
       </c>
       <c r="E133" t="str">
-        <v>ny-alert</v>
+        <v>ehs</v>
       </c>
       <c r="F133" t="str">
-        <v>Match</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>Geography and Sustainability Studies</v>
+        <v>NY-Alert</v>
       </c>
       <c r="B134" t="str">
-        <v>Geography and Sustainability Studies</v>
+        <v>NY-Alert</v>
       </c>
       <c r="C134" t="str">
-        <v>196</v>
+        <v>238</v>
       </c>
       <c r="D134" t="str">
-        <v>group-menu-geography</v>
+        <v>group-menu-ny-alert</v>
       </c>
       <c r="E134" t="str">
-        <v>geography</v>
+        <v>ny-alert</v>
       </c>
       <c r="F134" t="str">
         <v>Match</v>
@@ -3092,79 +3092,79 @@
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>Comparative Literature</v>
+        <v>Geography and Sustainability Studies</v>
       </c>
       <c r="B135" t="str">
-        <v>Comparative Literature</v>
+        <v>Geography and Sustainability Studies</v>
       </c>
       <c r="C135" t="str">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D135" t="str">
-        <v>group-menu-comparative-literatur</v>
+        <v>group-menu-geography</v>
       </c>
       <c r="E135" t="str">
-        <v>comparative_literature</v>
+        <v>geography</v>
       </c>
       <c r="F135" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>Safezone</v>
+        <v>Comparative Literature</v>
       </c>
       <c r="B136" t="str">
-        <v>Safezone</v>
+        <v>Comparative Literature</v>
       </c>
       <c r="C136" t="str">
-        <v>303</v>
+        <v>200</v>
       </c>
       <c r="D136" t="str">
-        <v>safezone</v>
+        <v>group-menu-comparative-literatur</v>
       </c>
       <c r="E136" t="str">
-        <v>safezone</v>
+        <v>comparative_literature</v>
       </c>
       <c r="F136" t="str">
-        <v>Match</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>AI At Geneseo</v>
+        <v>Safezone</v>
       </c>
       <c r="B137" t="str">
-        <v>AI At Geneseo</v>
+        <v>Safezone</v>
       </c>
       <c r="C137" t="str">
-        <v>480</v>
+        <v>303</v>
       </c>
       <c r="D137" t="str">
-        <v>group-480-menu</v>
+        <v>safezone</v>
       </c>
       <c r="E137" t="str">
-        <v>ai</v>
+        <v>safezone</v>
       </c>
       <c r="F137" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>Center for Digital Learning</v>
+        <v>AI At Geneseo</v>
       </c>
       <c r="B138" t="str">
-        <v>Center for Digital Learning</v>
+        <v>AI At Geneseo</v>
       </c>
       <c r="C138" t="str">
-        <v>338</v>
+        <v>480</v>
       </c>
       <c r="D138" t="str">
-        <v>group-338-menu</v>
+        <v>group-480-menu</v>
       </c>
       <c r="E138" t="str">
-        <v>cdl</v>
+        <v>ai</v>
       </c>
       <c r="F138" t="str">
         <v>Mismatch</v>
@@ -3172,99 +3172,99 @@
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>English Department Peace Poetry</v>
+        <v>Center for Digital Learning</v>
       </c>
       <c r="B139" t="str">
-        <v>English Department Peace Poetry</v>
+        <v>Center for Digital Learning</v>
       </c>
       <c r="C139" t="str">
-        <v>80</v>
+        <v>338</v>
       </c>
       <c r="D139" t="str">
-        <v>group-menu-peace-poetry</v>
+        <v>group-338-menu</v>
       </c>
       <c r="E139" t="str">
-        <v>peace_poetry</v>
+        <v>cdl</v>
       </c>
       <c r="F139" t="str">
-        <v>Match</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>Aaron J Steinhauer</v>
+        <v>English Department Peace Poetry</v>
       </c>
       <c r="B140" t="str">
-        <v>Aaron J Steinhauer</v>
+        <v>English Department Peace Poetry</v>
       </c>
       <c r="C140" t="str">
-        <v>168</v>
+        <v>80</v>
       </c>
       <c r="D140" t="str">
-        <v>group-menu-aaron-j-steinhauer</v>
+        <v>group-menu-peace-poetry</v>
       </c>
       <c r="E140" t="str">
-        <v>steinhauer</v>
+        <v>peace_poetry</v>
       </c>
       <c r="F140" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>Financial Aid</v>
+        <v>Aaron J Steinhauer</v>
       </c>
       <c r="B141" t="str">
-        <v>Financial Aid</v>
+        <v>Aaron J Steinhauer</v>
       </c>
       <c r="C141" t="str">
-        <v>139</v>
+        <v>168</v>
       </c>
       <c r="D141" t="str">
-        <v>group-menu-financial-aid</v>
+        <v>group-menu-aaron-j-steinhauer</v>
       </c>
       <c r="E141" t="str">
-        <v>financial_aid</v>
+        <v>steinhauer</v>
       </c>
       <c r="F141" t="str">
-        <v>Match</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>Campus Auxiliary Services</v>
+        <v>Financial Aid</v>
       </c>
       <c r="B142" t="str">
-        <v>Campus Auxiliary Services</v>
+        <v>Financial Aid</v>
       </c>
       <c r="C142" t="str">
-        <v>224</v>
+        <v>139</v>
       </c>
       <c r="D142" t="str">
-        <v>employee-newsletter-0</v>
+        <v>group-menu-financial-aid</v>
       </c>
       <c r="E142" t="str">
-        <v>cas</v>
+        <v>financial_aid</v>
       </c>
       <c r="F142" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>GOLD Program</v>
+        <v>Campus Auxiliary Services</v>
       </c>
       <c r="B143" t="str">
-        <v>GOLD Program</v>
+        <v>Campus Auxiliary Services</v>
       </c>
       <c r="C143" t="str">
-        <v>114</v>
+        <v>224</v>
       </c>
       <c r="D143" t="str">
-        <v>group-menu-gold-program</v>
+        <v>employee-newsletter-0</v>
       </c>
       <c r="E143" t="str">
-        <v>gold</v>
+        <v>cas</v>
       </c>
       <c r="F143" t="str">
         <v>Mismatch</v>
@@ -3272,19 +3272,19 @@
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>Philosophy, Politics, and Economics</v>
+        <v>GOLD Program</v>
       </c>
       <c r="B144" t="str">
-        <v>Philosophy, Politics, and Economics</v>
+        <v>GOLD Program</v>
       </c>
       <c r="C144" t="str">
-        <v>472</v>
+        <v>114</v>
       </c>
       <c r="D144" t="str">
-        <v>group-472-menu</v>
+        <v>group-menu-gold-program</v>
       </c>
       <c r="E144" t="str">
-        <v>philosophy-politics-economics</v>
+        <v>gold</v>
       </c>
       <c r="F144" t="str">
         <v>Mismatch</v>
@@ -3292,19 +3292,19 @@
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>Dean of Students</v>
+        <v>Philosophy, Politics, and Economics</v>
       </c>
       <c r="B145" t="str">
-        <v>Dean of Students</v>
+        <v>Philosophy, Politics, and Economics</v>
       </c>
       <c r="C145" t="str">
-        <v>143</v>
+        <v>472</v>
       </c>
       <c r="D145" t="str">
-        <v>group-menu-dean-of-students</v>
+        <v>group-472-menu</v>
       </c>
       <c r="E145" t="str">
-        <v>dean_students</v>
+        <v>philosophy-politics-economics</v>
       </c>
       <c r="F145" t="str">
         <v>Mismatch</v>
@@ -3312,19 +3312,19 @@
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>Student Athlete Resource Center</v>
+        <v>Dean of Students</v>
       </c>
       <c r="B146" t="str">
-        <v>Student Athlete Resource Center</v>
+        <v>Dean of Students</v>
       </c>
       <c r="C146" t="str">
-        <v>325</v>
+        <v>143</v>
       </c>
       <c r="D146" t="str">
-        <v>student-athlete-resource-ce</v>
+        <v>group-menu-dean-of-students</v>
       </c>
       <c r="E146" t="str">
-        <v>sarc</v>
+        <v>dean_students</v>
       </c>
       <c r="F146" t="str">
         <v>Mismatch</v>
@@ -3332,59 +3332,59 @@
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>Vote</v>
+        <v>Student Athlete Resource Center</v>
       </c>
       <c r="B147" t="str">
-        <v>Vote</v>
+        <v>Student Athlete Resource Center</v>
       </c>
       <c r="C147" t="str">
-        <v>150</v>
+        <v>325</v>
       </c>
       <c r="D147" t="str">
-        <v>group-menu-vote</v>
+        <v>student-athlete-resource-ce</v>
       </c>
       <c r="E147" t="str">
-        <v>vote</v>
+        <v>sarc</v>
       </c>
       <c r="F147" t="str">
-        <v>Match</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>Women's and Gender Studies</v>
+        <v>Vote</v>
       </c>
       <c r="B148" t="str">
-        <v>Women's and Gender Studies</v>
+        <v>Vote</v>
       </c>
       <c r="C148" t="str">
-        <v>183</v>
+        <v>150</v>
       </c>
       <c r="D148" t="str">
-        <v>group-menu-women-s-studies</v>
+        <v>group-menu-vote</v>
       </c>
       <c r="E148" t="str">
-        <v>wgst</v>
+        <v>vote</v>
       </c>
       <c r="F148" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>Student Conduct &amp; Community Standards</v>
+        <v>Women's and Gender Studies</v>
       </c>
       <c r="B149" t="str">
-        <v>Student Conduct &amp; Community Standards</v>
+        <v>Women's and Gender Studies</v>
       </c>
       <c r="C149" t="str">
-        <v>105</v>
+        <v>183</v>
       </c>
       <c r="D149" t="str">
-        <v>group-menu-student-conduct-commu</v>
+        <v>group-menu-women-s-studies</v>
       </c>
       <c r="E149" t="str">
-        <v>conduct</v>
+        <v>wgst</v>
       </c>
       <c r="F149" t="str">
         <v>Mismatch</v>
@@ -3392,19 +3392,19 @@
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>Student Handbook</v>
+        <v>Student Conduct &amp; Community Standards</v>
       </c>
       <c r="B150" t="str">
-        <v>Student Handbook</v>
+        <v>Student Conduct &amp; Community Standards</v>
       </c>
       <c r="C150" t="str">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D150" t="str">
-        <v>group-menu-student-handbook</v>
+        <v>group-menu-student-conduct-commu</v>
       </c>
       <c r="E150" t="str">
-        <v>handbook</v>
+        <v>conduct</v>
       </c>
       <c r="F150" t="str">
         <v>Mismatch</v>
@@ -3412,39 +3412,39 @@
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>Accounting Society</v>
+        <v>Student Handbook</v>
       </c>
       <c r="B151" t="str">
-        <v>Accounting Society</v>
+        <v>Student Handbook</v>
       </c>
       <c r="C151" t="str">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="D151" t="str">
-        <v>group-menu-accounting-society</v>
+        <v>group-menu-student-handbook</v>
       </c>
       <c r="E151" t="str">
-        <v>accounting_society</v>
+        <v>handbook</v>
       </c>
       <c r="F151" t="str">
-        <v>Match</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>Venture Works</v>
+        <v>Accounting Society</v>
       </c>
       <c r="B152" t="str">
-        <v>Venture Works</v>
+        <v>Accounting Society</v>
       </c>
       <c r="C152" t="str">
-        <v>231</v>
+        <v>48</v>
       </c>
       <c r="D152" t="str">
-        <v>group-menu-ventureworks</v>
+        <v>group-menu-accounting-society</v>
       </c>
       <c r="E152" t="str">
-        <v>ventureworks</v>
+        <v>accounting_society</v>
       </c>
       <c r="F152" t="str">
         <v>Match</v>
@@ -3452,19 +3452,19 @@
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>Enrollment Management</v>
+        <v>Venture Works</v>
       </c>
       <c r="B153" t="str">
-        <v>Enrollment Management</v>
+        <v>Venture Works</v>
       </c>
       <c r="C153" t="str">
-        <v>316</v>
+        <v>231</v>
       </c>
       <c r="D153" t="str">
-        <v>enrollment-management</v>
+        <v>group-menu-ventureworks</v>
       </c>
       <c r="E153" t="str">
-        <v>enrollment-management</v>
+        <v>ventureworks</v>
       </c>
       <c r="F153" t="str">
         <v>Match</v>
@@ -3472,39 +3472,39 @@
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>Alpha Phi Omega</v>
+        <v>Enrollment Management</v>
       </c>
       <c r="B154" t="str">
-        <v>Alpha Phi Omega</v>
+        <v>Enrollment Management</v>
       </c>
       <c r="C154" t="str">
-        <v>47</v>
+        <v>316</v>
       </c>
       <c r="D154" t="str">
-        <v>group-menu-alpha-phi-omega</v>
+        <v>enrollment-management</v>
       </c>
       <c r="E154" t="str">
-        <v>apo</v>
+        <v>enrollment-management</v>
       </c>
       <c r="F154" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>Internal Control</v>
+        <v>Alpha Phi Omega</v>
       </c>
       <c r="B155" t="str">
-        <v>Internal Control</v>
+        <v>Alpha Phi Omega</v>
       </c>
       <c r="C155" t="str">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="D155" t="str">
-        <v>group-menu-internal-controls</v>
+        <v>group-menu-alpha-phi-omega</v>
       </c>
       <c r="E155" t="str">
-        <v>internal_control</v>
+        <v>apo</v>
       </c>
       <c r="F155" t="str">
         <v>Mismatch</v>
@@ -3512,19 +3512,19 @@
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>Alpha Kappa Psi</v>
+        <v>Internal Control</v>
       </c>
       <c r="B156" t="str">
-        <v>Alpha Kappa Psi</v>
+        <v>Internal Control</v>
       </c>
       <c r="C156" t="str">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="D156" t="str">
-        <v>group-menu-alpha-kappa-psi</v>
+        <v>group-menu-internal-controls</v>
       </c>
       <c r="E156" t="str">
-        <v>akpsi</v>
+        <v>internal_control</v>
       </c>
       <c r="F156" t="str">
         <v>Mismatch</v>
@@ -3532,19 +3532,19 @@
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>Geneseo Insomnia Film Festival</v>
+        <v>Alpha Kappa Psi</v>
       </c>
       <c r="B157" t="str">
-        <v>Geneseo Insomnia Film Festival</v>
+        <v>Alpha Kappa Psi</v>
       </c>
       <c r="C157" t="str">
-        <v>259</v>
+        <v>22</v>
       </c>
       <c r="D157" t="str">
-        <v>group-menu-insomnia-film-festiva</v>
+        <v>group-menu-alpha-kappa-psi</v>
       </c>
       <c r="E157" t="str">
-        <v>insomnia</v>
+        <v>akpsi</v>
       </c>
       <c r="F157" t="str">
         <v>Mismatch</v>
@@ -3552,19 +3552,19 @@
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>Army ROTC</v>
+        <v>Geneseo Insomnia Film Festival</v>
       </c>
       <c r="B158" t="str">
-        <v>Army ROTC</v>
+        <v>Geneseo Insomnia Film Festival</v>
       </c>
       <c r="C158" t="str">
-        <v>471</v>
+        <v>259</v>
       </c>
       <c r="D158" t="str">
-        <v>group-471-menu</v>
+        <v>group-menu-insomnia-film-festiva</v>
       </c>
       <c r="E158" t="str">
-        <v>rotc</v>
+        <v>insomnia</v>
       </c>
       <c r="F158" t="str">
         <v>Mismatch</v>
@@ -3572,19 +3572,19 @@
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>EIT Accessibility</v>
+        <v>Army ROTC</v>
       </c>
       <c r="B159" t="str">
-        <v>EIT Accessibility</v>
+        <v>Army ROTC</v>
       </c>
       <c r="C159" t="str">
-        <v>321</v>
+        <v>471</v>
       </c>
       <c r="D159" t="str">
-        <v>web-accessibility</v>
+        <v>group-471-menu</v>
       </c>
       <c r="E159" t="str">
-        <v>eit-accessibility</v>
+        <v>rotc</v>
       </c>
       <c r="F159" t="str">
         <v>Mismatch</v>
@@ -3592,19 +3592,19 @@
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>Office of Accessibility</v>
+        <v>EIT Accessibility</v>
       </c>
       <c r="B160" t="str">
-        <v>Office of Accessibility</v>
+        <v>EIT Accessibility</v>
       </c>
       <c r="C160" t="str">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D160" t="str">
-        <v>office-of-accessibility</v>
+        <v>web-accessibility</v>
       </c>
       <c r="E160" t="str">
-        <v>accessibility-office</v>
+        <v>eit-accessibility</v>
       </c>
       <c r="F160" t="str">
         <v>Mismatch</v>
@@ -3612,59 +3612,59 @@
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>McNair</v>
+        <v>Office of Accessibility</v>
       </c>
       <c r="B161" t="str">
-        <v>McNair</v>
+        <v>Office of Accessibility</v>
       </c>
       <c r="C161" t="str">
-        <v>297</v>
+        <v>320</v>
       </c>
       <c r="D161" t="str">
-        <v>mcnair</v>
+        <v>office-of-accessibility</v>
       </c>
       <c r="E161" t="str">
-        <v>mcnair</v>
+        <v>accessibility-office</v>
       </c>
       <c r="F161" t="str">
-        <v>Match</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>Red Cross Club</v>
+        <v>McNair</v>
       </c>
       <c r="B162" t="str">
-        <v>Red Cross Club</v>
+        <v>McNair</v>
       </c>
       <c r="C162" t="str">
-        <v>69</v>
+        <v>297</v>
       </c>
       <c r="D162" t="str">
-        <v>group-menu-red-cross-club</v>
+        <v>mcnair</v>
       </c>
       <c r="E162" t="str">
-        <v>redcross</v>
+        <v>mcnair</v>
       </c>
       <c r="F162" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>Yoga Club</v>
+        <v>Red Cross Club</v>
       </c>
       <c r="B163" t="str">
-        <v>Yoga Club</v>
+        <v>Red Cross Club</v>
       </c>
       <c r="C163" t="str">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="D163" t="str">
-        <v>group-menu-yoga-club</v>
+        <v>group-menu-red-cross-club</v>
       </c>
       <c r="E163" t="str">
-        <v>yoga</v>
+        <v>redcross</v>
       </c>
       <c r="F163" t="str">
         <v>Mismatch</v>
@@ -3672,19 +3672,19 @@
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>Kappa Delta Pi</v>
+        <v>Yoga Club</v>
       </c>
       <c r="B164" t="str">
-        <v>Kappa Delta Pi</v>
+        <v>Yoga Club</v>
       </c>
       <c r="C164" t="str">
-        <v>362</v>
+        <v>38</v>
       </c>
       <c r="D164" t="str">
-        <v>group-362-menu</v>
+        <v>group-menu-yoga-club</v>
       </c>
       <c r="E164" t="str">
-        <v>kdp</v>
+        <v>yoga</v>
       </c>
       <c r="F164" t="str">
         <v>Mismatch</v>
@@ -3692,19 +3692,19 @@
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>The L I V E S Program</v>
+        <v>Kappa Delta Pi</v>
       </c>
       <c r="B165" t="str">
-        <v>The L I V E S Program</v>
+        <v>Kappa Delta Pi</v>
       </c>
       <c r="C165" t="str">
-        <v>87</v>
+        <v>362</v>
       </c>
       <c r="D165" t="str">
-        <v>group-menu-the-l-i-v-e-s-program</v>
+        <v>group-362-menu</v>
       </c>
       <c r="E165" t="str">
-        <v>lives</v>
+        <v>kdp</v>
       </c>
       <c r="F165" t="str">
         <v>Mismatch</v>
@@ -3712,59 +3712,59 @@
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>Tri-Beta</v>
+        <v>The L I V E S Program</v>
       </c>
       <c r="B166" t="str">
-        <v>Tri-Beta</v>
+        <v>The L I V E S Program</v>
       </c>
       <c r="C166" t="str">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="D166" t="str">
-        <v>group-menu-tri-beta</v>
+        <v>group-menu-the-l-i-v-e-s-program</v>
       </c>
       <c r="E166" t="str">
-        <v>tribeta</v>
+        <v>lives</v>
       </c>
       <c r="F166" t="str">
-        <v>Match</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>Behavioral Toxicology Lab</v>
+        <v>Tri-Beta</v>
       </c>
       <c r="B167" t="str">
-        <v>Behavioral Toxicology Lab</v>
+        <v>Tri-Beta</v>
       </c>
       <c r="C167" t="str">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D167" t="str">
-        <v>group-menu-behavioral-toxicology</v>
+        <v>group-menu-tri-beta</v>
       </c>
       <c r="E167" t="str">
-        <v>behavtox</v>
+        <v>tribeta</v>
       </c>
       <c r="F167" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>Greek Affairs</v>
+        <v>Behavioral Toxicology Lab</v>
       </c>
       <c r="B168" t="str">
-        <v>Greek Affairs</v>
+        <v>Behavioral Toxicology Lab</v>
       </c>
       <c r="C168" t="str">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="D168" t="str">
-        <v>group-menu-greek-affairs</v>
+        <v>group-menu-behavioral-toxicology</v>
       </c>
       <c r="E168" t="str">
-        <v>greek</v>
+        <v>behavtox</v>
       </c>
       <c r="F168" t="str">
         <v>Mismatch</v>
@@ -3772,59 +3772,59 @@
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>Inter Greek Council</v>
+        <v>Greek Affairs</v>
       </c>
       <c r="B169" t="str">
-        <v>Inter Greek Council</v>
+        <v>Greek Affairs</v>
       </c>
       <c r="C169" t="str">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="D169" t="str">
-        <v>group-menu-inter-greek-council</v>
+        <v>group-menu-greek-affairs</v>
       </c>
       <c r="E169" t="str">
-        <v>inter_greek_council</v>
+        <v>greek</v>
       </c>
       <c r="F169" t="str">
-        <v>Match</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>Off-Campus Living</v>
+        <v>Inter Greek Council</v>
       </c>
       <c r="B170" t="str">
-        <v>Off-Campus Living</v>
+        <v>Inter Greek Council</v>
       </c>
       <c r="C170" t="str">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="D170" t="str">
-        <v>group-menu-off-campus-living</v>
+        <v>group-menu-inter-greek-council</v>
       </c>
       <c r="E170" t="str">
-        <v>off_campus</v>
+        <v>inter_greek_council</v>
       </c>
       <c r="F170" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>Make Your Mark</v>
+        <v>Off-Campus Living</v>
       </c>
       <c r="B171" t="str">
-        <v>Make Your Mark</v>
+        <v>Off-Campus Living</v>
       </c>
       <c r="C171" t="str">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="D171" t="str">
-        <v>— None —</v>
+        <v>group-menu-off-campus-living</v>
       </c>
       <c r="E171" t="str">
-        <v>makeyourmark</v>
+        <v>off_campus</v>
       </c>
       <c r="F171" t="str">
         <v>Mismatch</v>
@@ -3832,19 +3832,19 @@
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>Writing Program</v>
+        <v>Make Your Mark</v>
       </c>
       <c r="B172" t="str">
-        <v>Writing Program</v>
+        <v>Make Your Mark</v>
       </c>
       <c r="C172" t="str">
-        <v>475</v>
+        <v>121</v>
       </c>
       <c r="D172" t="str">
-        <v>group-475-menu</v>
+        <v>— None —</v>
       </c>
       <c r="E172" t="str">
-        <v>writing-program</v>
+        <v>makeyourmark</v>
       </c>
       <c r="F172" t="str">
         <v>Mismatch</v>
@@ -3852,39 +3852,39 @@
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>Student Volunteerism and Community Engagement</v>
+        <v>Writing Program</v>
       </c>
       <c r="B173" t="str">
-        <v>Student Volunteerism and Community Engagement</v>
+        <v>Writing Program</v>
       </c>
       <c r="C173" t="str">
-        <v>135</v>
+        <v>475</v>
       </c>
       <c r="D173" t="str">
-        <v>group-menu-volunteer-center</v>
+        <v>group-475-menu</v>
       </c>
       <c r="E173" t="str">
-        <v>volunteer_center</v>
+        <v>writing-program</v>
       </c>
       <c r="F173" t="str">
-        <v>Match</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>Pre-Med/Pre-Health</v>
+        <v>Student Volunteerism and Community Engagement</v>
       </c>
       <c r="B174" t="str">
-        <v>Pre-Med/Pre-Health</v>
+        <v>Student Volunteerism and Community Engagement</v>
       </c>
       <c r="C174" t="str">
-        <v>182</v>
+        <v>135</v>
       </c>
       <c r="D174" t="str">
-        <v>group-menu-premed</v>
+        <v>group-menu-volunteer-center</v>
       </c>
       <c r="E174" t="str">
-        <v>premed</v>
+        <v>volunteer_center</v>
       </c>
       <c r="F174" t="str">
         <v>Match</v>
@@ -3892,79 +3892,79 @@
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>Academic Affairs Committee</v>
+        <v>Pre-Med/Pre-Health</v>
       </c>
       <c r="B175" t="str">
-        <v>Academic Affairs Committee</v>
+        <v>Pre-Med/Pre-Health</v>
       </c>
       <c r="C175" t="str">
-        <v>272</v>
+        <v>182</v>
       </c>
       <c r="D175" t="str">
-        <v>group-menu-academic-affairs-comm</v>
+        <v>group-menu-premed</v>
       </c>
       <c r="E175" t="str">
-        <v>aac</v>
+        <v>premed</v>
       </c>
       <c r="F175" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>Crew</v>
+        <v>Academic Affairs Committee</v>
       </c>
       <c r="B176" t="str">
-        <v>Crew</v>
+        <v>Academic Affairs Committee</v>
       </c>
       <c r="C176" t="str">
-        <v>45</v>
+        <v>272</v>
       </c>
       <c r="D176" t="str">
-        <v>group-menu-crew</v>
+        <v>group-menu-academic-affairs-comm</v>
       </c>
       <c r="E176" t="str">
-        <v>crew</v>
+        <v>aac</v>
       </c>
       <c r="F176" t="str">
-        <v>Match</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>Dr. Shuo Chen</v>
+        <v>Crew</v>
       </c>
       <c r="B177" t="str">
-        <v>Dr. Shuo Chen</v>
+        <v>Crew</v>
       </c>
       <c r="C177" t="str">
-        <v>154</v>
+        <v>45</v>
       </c>
       <c r="D177" t="str">
-        <v>— None —</v>
+        <v>group-menu-crew</v>
       </c>
       <c r="E177" t="str">
-        <v>chens</v>
+        <v>crew</v>
       </c>
       <c r="F177" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>Sponsored Programs Administration</v>
+        <v>Dr. Shuo Chen</v>
       </c>
       <c r="B178" t="str">
-        <v>Sponsored Programs Administration</v>
+        <v>Dr. Shuo Chen</v>
       </c>
       <c r="C178" t="str">
-        <v>110</v>
+        <v>154</v>
       </c>
       <c r="D178" t="str">
         <v>— None —</v>
       </c>
       <c r="E178" t="str">
-        <v>grants</v>
+        <v>chens</v>
       </c>
       <c r="F178" t="str">
         <v>Mismatch</v>
@@ -3972,19 +3972,19 @@
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>David Geiger</v>
+        <v>Sponsored Programs Administration</v>
       </c>
       <c r="B179" t="str">
-        <v>David Geiger</v>
+        <v>Sponsored Programs Administration</v>
       </c>
       <c r="C179" t="str">
-        <v>159</v>
+        <v>110</v>
       </c>
       <c r="D179" t="str">
-        <v>group-menu-david-geiger</v>
+        <v>— None —</v>
       </c>
       <c r="E179" t="str">
-        <v>geiger</v>
+        <v>grants</v>
       </c>
       <c r="F179" t="str">
         <v>Mismatch</v>
@@ -3992,59 +3992,59 @@
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>WGSU</v>
+        <v>David Geiger</v>
       </c>
       <c r="B180" t="str">
-        <v>WGSU</v>
+        <v>David Geiger</v>
       </c>
       <c r="C180" t="str">
-        <v>288</v>
+        <v>159</v>
       </c>
       <c r="D180" t="str">
-        <v>wgsu</v>
+        <v>group-menu-david-geiger</v>
       </c>
       <c r="E180" t="str">
-        <v>wgsu</v>
+        <v>geiger</v>
       </c>
       <c r="F180" t="str">
-        <v>Match</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>Black Studies/Africana Studies</v>
+        <v>WGSU</v>
       </c>
       <c r="B181" t="str">
-        <v>Black Studies/Africana Studies</v>
+        <v>WGSU</v>
       </c>
       <c r="C181" t="str">
-        <v>237</v>
+        <v>288</v>
       </c>
       <c r="D181" t="str">
-        <v>group-menu-black-studies</v>
+        <v>wgsu</v>
       </c>
       <c r="E181" t="str">
-        <v>abs</v>
+        <v>wgsu</v>
       </c>
       <c r="F181" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>Maria H. Lima</v>
+        <v>Black Studies/Africana Studies</v>
       </c>
       <c r="B182" t="str">
-        <v>Maria H. Lima</v>
+        <v>Black Studies/Africana Studies</v>
       </c>
       <c r="C182" t="str">
-        <v>162</v>
+        <v>237</v>
       </c>
       <c r="D182" t="str">
-        <v>— None —</v>
+        <v>group-menu-black-studies</v>
       </c>
       <c r="E182" t="str">
-        <v>lima</v>
+        <v>abs</v>
       </c>
       <c r="F182" t="str">
         <v>Mismatch</v>
@@ -4052,119 +4052,119 @@
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>Biophysics</v>
+        <v>Maria H. Lima</v>
       </c>
       <c r="B183" t="str">
-        <v>Biophysics</v>
+        <v>Maria H. Lima</v>
       </c>
       <c r="C183" t="str">
-        <v>203</v>
+        <v>162</v>
       </c>
       <c r="D183" t="str">
-        <v>group-menu-biophysics</v>
+        <v>— None —</v>
       </c>
       <c r="E183" t="str">
-        <v>biophysics</v>
+        <v>lima</v>
       </c>
       <c r="F183" t="str">
-        <v>Match</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>George A Marcus</v>
+        <v>Biophysics</v>
       </c>
       <c r="B184" t="str">
-        <v>George A Marcus</v>
+        <v>Biophysics</v>
       </c>
       <c r="C184" t="str">
-        <v>163</v>
+        <v>203</v>
       </c>
       <c r="D184" t="str">
-        <v>group-menu-george-a-marcus</v>
+        <v>group-menu-biophysics</v>
       </c>
       <c r="E184" t="str">
-        <v>marcus</v>
+        <v>biophysics</v>
       </c>
       <c r="F184" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>Wadsworth Auditorium</v>
+        <v>George A Marcus</v>
       </c>
       <c r="B185" t="str">
-        <v>Wadsworth Auditorium</v>
+        <v>George A Marcus</v>
       </c>
       <c r="C185" t="str">
-        <v>98</v>
+        <v>163</v>
       </c>
       <c r="D185" t="str">
-        <v>group-menu-wadsworth-auditorium</v>
+        <v>group-menu-george-a-marcus</v>
       </c>
       <c r="E185" t="str">
-        <v>wadsworth_auditorium</v>
+        <v>marcus</v>
       </c>
       <c r="F185" t="str">
-        <v>Match</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>Fulbright Program</v>
+        <v>Wadsworth Auditorium</v>
       </c>
       <c r="B186" t="str">
-        <v>Fulbright Program</v>
+        <v>Wadsworth Auditorium</v>
       </c>
       <c r="C186" t="str">
-        <v>334</v>
+        <v>98</v>
       </c>
       <c r="D186" t="str">
-        <v>group-334-menu</v>
+        <v>group-menu-wadsworth-auditorium</v>
       </c>
       <c r="E186" t="str">
-        <v>fulbright</v>
+        <v>wadsworth_auditorium</v>
       </c>
       <c r="F186" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>Duplicating Center</v>
+        <v>Fulbright Program</v>
       </c>
       <c r="B187" t="str">
-        <v>Duplicating Center</v>
+        <v>Fulbright Program</v>
       </c>
       <c r="C187" t="str">
-        <v>63</v>
+        <v>334</v>
       </c>
       <c r="D187" t="str">
-        <v>group-menu-duplicating-center</v>
+        <v>group-334-menu</v>
       </c>
       <c r="E187" t="str">
-        <v>duplicating_center</v>
+        <v>fulbright</v>
       </c>
       <c r="F187" t="str">
-        <v>Match</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>Mail Services</v>
+        <v>Duplicating Center</v>
       </c>
       <c r="B188" t="str">
-        <v>Mail Services</v>
+        <v>Duplicating Center</v>
       </c>
       <c r="C188" t="str">
-        <v>111</v>
+        <v>63</v>
       </c>
       <c r="D188" t="str">
-        <v>group-menu-mail-services</v>
+        <v>group-menu-duplicating-center</v>
       </c>
       <c r="E188" t="str">
-        <v>mail_services</v>
+        <v>duplicating_center</v>
       </c>
       <c r="F188" t="str">
         <v>Match</v>
@@ -4172,59 +4172,59 @@
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>Annmarie Urso</v>
+        <v>Mail Services</v>
       </c>
       <c r="B189" t="str">
-        <v>Annmarie Urso</v>
+        <v>Mail Services</v>
       </c>
       <c r="C189" t="str">
-        <v>171</v>
+        <v>111</v>
       </c>
       <c r="D189" t="str">
-        <v>group-menu-annmarie-urso</v>
+        <v>group-menu-mail-services</v>
       </c>
       <c r="E189" t="str">
-        <v>urso</v>
+        <v>mail_services</v>
       </c>
       <c r="F189" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>SoaringStars</v>
+        <v>Annmarie Urso</v>
       </c>
       <c r="B190" t="str">
-        <v>SoaringStars</v>
+        <v>Annmarie Urso</v>
       </c>
       <c r="C190" t="str">
-        <v>245</v>
+        <v>171</v>
       </c>
       <c r="D190" t="str">
-        <v>group-menu-soaringstars</v>
+        <v>group-menu-annmarie-urso</v>
       </c>
       <c r="E190" t="str">
-        <v>soaringstars</v>
+        <v>urso</v>
       </c>
       <c r="F190" t="str">
-        <v>Match</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>American Studies</v>
+        <v>SoaringStars</v>
       </c>
       <c r="B191" t="str">
-        <v>American Studies</v>
+        <v>SoaringStars</v>
       </c>
       <c r="C191" t="str">
-        <v>209</v>
+        <v>245</v>
       </c>
       <c r="D191" t="str">
-        <v>group-menu-american-studies</v>
+        <v>group-menu-soaringstars</v>
       </c>
       <c r="E191" t="str">
-        <v>american_studies</v>
+        <v>soaringstars</v>
       </c>
       <c r="F191" t="str">
         <v>Match</v>
@@ -4232,39 +4232,39 @@
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>Center for Social Justice Studies</v>
+        <v>American Studies</v>
       </c>
       <c r="B192" t="str">
-        <v>Center for Social Justice Studies</v>
+        <v>American Studies</v>
       </c>
       <c r="C192" t="str">
-        <v>358</v>
+        <v>209</v>
       </c>
       <c r="D192" t="str">
-        <v>— None —</v>
+        <v>group-menu-american-studies</v>
       </c>
       <c r="E192" t="str">
-        <v>csjs</v>
+        <v>american_studies</v>
       </c>
       <c r="F192" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>Native American Studies</v>
+        <v>Center for Social Justice Studies</v>
       </c>
       <c r="B193" t="str">
-        <v>Native American Studies</v>
+        <v>Center for Social Justice Studies</v>
       </c>
       <c r="C193" t="str">
-        <v>190</v>
+        <v>358</v>
       </c>
       <c r="D193" t="str">
-        <v>group-menu-native-american-studi</v>
+        <v>— None —</v>
       </c>
       <c r="E193" t="str">
-        <v>native_american_studies</v>
+        <v>csjs</v>
       </c>
       <c r="F193" t="str">
         <v>Mismatch</v>
@@ -4272,19 +4272,19 @@
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>Actuarial Science Club</v>
+        <v>Native American Studies</v>
       </c>
       <c r="B194" t="str">
-        <v>Actuarial Science Club</v>
+        <v>Native American Studies</v>
       </c>
       <c r="C194" t="str">
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="D194" t="str">
-        <v>group-menu-actuarial-science-clu</v>
+        <v>group-menu-native-american-studi</v>
       </c>
       <c r="E194" t="str">
-        <v>actuarial</v>
+        <v>native_american_studies</v>
       </c>
       <c r="F194" t="str">
         <v>Mismatch</v>
@@ -4292,19 +4292,19 @@
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>School of Arts and Sciences</v>
+        <v>Actuarial Science Club</v>
       </c>
       <c r="B195" t="str">
-        <v>School of Arts and Sciences</v>
+        <v>Actuarial Science Club</v>
       </c>
       <c r="C195" t="str">
-        <v>470</v>
+        <v>100</v>
       </c>
       <c r="D195" t="str">
-        <v>group-470-menu</v>
+        <v>group-menu-actuarial-science-clu</v>
       </c>
       <c r="E195" t="str">
-        <v>sas</v>
+        <v>actuarial</v>
       </c>
       <c r="F195" t="str">
         <v>Mismatch</v>
@@ -4312,19 +4312,19 @@
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>Geneseo First Response</v>
+        <v>School of Arts and Sciences</v>
       </c>
       <c r="B196" t="str">
-        <v>Geneseo First Response</v>
+        <v>School of Arts and Sciences</v>
       </c>
       <c r="C196" t="str">
-        <v>232</v>
+        <v>470</v>
       </c>
       <c r="D196" t="str">
-        <v>group-menu-geneseo-first-respons</v>
+        <v>group-470-menu</v>
       </c>
       <c r="E196" t="str">
-        <v>gfr</v>
+        <v>sas</v>
       </c>
       <c r="F196" t="str">
         <v>Mismatch</v>
@@ -4332,19 +4332,19 @@
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>Knightline</v>
+        <v>Geneseo First Response</v>
       </c>
       <c r="B197" t="str">
-        <v>Knightline</v>
+        <v>Geneseo First Response</v>
       </c>
       <c r="C197" t="str">
-        <v>19</v>
+        <v>232</v>
       </c>
       <c r="D197" t="str">
-        <v>group-menu-knighline</v>
+        <v>group-menu-geneseo-first-respons</v>
       </c>
       <c r="E197" t="str">
-        <v>knightln</v>
+        <v>gfr</v>
       </c>
       <c r="F197" t="str">
         <v>Mismatch</v>
@@ -4352,79 +4352,79 @@
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>Asian / Asian American Studies</v>
+        <v>Knightline</v>
       </c>
       <c r="B198" t="str">
-        <v>Asian / Asian American Studies</v>
+        <v>Knightline</v>
       </c>
       <c r="C198" t="str">
-        <v>206</v>
+        <v>19</v>
       </c>
       <c r="D198" t="str">
-        <v>group-menu-asian-studies</v>
+        <v>group-menu-knighline</v>
       </c>
       <c r="E198" t="str">
-        <v>asian_studies</v>
+        <v>knightln</v>
       </c>
       <c r="F198" t="str">
-        <v>Match</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>Alliance for Community Enrichment</v>
+        <v>Asian / Asian American Studies</v>
       </c>
       <c r="B199" t="str">
-        <v>Alliance for Community Enrichment</v>
+        <v>Asian / Asian American Studies</v>
       </c>
       <c r="C199" t="str">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="D199" t="str">
-        <v>alliance-for-community-enri</v>
+        <v>group-menu-asian-studies</v>
       </c>
       <c r="E199" t="str">
-        <v>ace</v>
+        <v>asian_studies</v>
       </c>
       <c r="F199" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>Accounting</v>
+        <v>Alliance for Community Enrichment</v>
       </c>
       <c r="B200" t="str">
-        <v>Accounting</v>
+        <v>Alliance for Community Enrichment</v>
       </c>
       <c r="C200" t="str">
-        <v>138</v>
+        <v>324</v>
       </c>
       <c r="D200" t="str">
-        <v>group-menu-accounting</v>
+        <v>alliance-for-community-enri</v>
       </c>
       <c r="E200" t="str">
-        <v>accounting</v>
+        <v>ace</v>
       </c>
       <c r="F200" t="str">
-        <v>Match</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>Women's Rugby</v>
+        <v>Accounting</v>
       </c>
       <c r="B201" t="str">
-        <v>Women's Rugby</v>
+        <v>Accounting</v>
       </c>
       <c r="C201" t="str">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="D201" t="str">
-        <v>group-menu-women-s-rugby</v>
+        <v>group-menu-accounting</v>
       </c>
       <c r="E201" t="str">
-        <v>womens_rugby</v>
+        <v>accounting</v>
       </c>
       <c r="F201" t="str">
         <v>Match</v>
@@ -4432,39 +4432,39 @@
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>SHRM</v>
+        <v>Women's Rugby</v>
       </c>
       <c r="B202" t="str">
-        <v>SHRM</v>
+        <v>Women's Rugby</v>
       </c>
       <c r="C202" t="str">
-        <v>132</v>
+        <v>37</v>
       </c>
       <c r="D202" t="str">
-        <v>group-menu-society-for-human-res</v>
+        <v>group-menu-women-s-rugby</v>
       </c>
       <c r="E202" t="str">
-        <v>shrm</v>
+        <v>womens_rugby</v>
       </c>
       <c r="F202" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>Club Sports Association</v>
+        <v>SHRM</v>
       </c>
       <c r="B203" t="str">
-        <v>Club Sports Association</v>
+        <v>SHRM</v>
       </c>
       <c r="C203" t="str">
-        <v>476</v>
+        <v>132</v>
       </c>
       <c r="D203" t="str">
-        <v>group-476-menu</v>
+        <v>group-menu-society-for-human-res</v>
       </c>
       <c r="E203" t="str">
-        <v>clubsportsassociation</v>
+        <v>shrm</v>
       </c>
       <c r="F203" t="str">
         <v>Mismatch</v>
@@ -4472,39 +4472,39 @@
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>Hillel</v>
+        <v>Club Sports Association</v>
       </c>
       <c r="B204" t="str">
-        <v>Hillel</v>
+        <v>Club Sports Association</v>
       </c>
       <c r="C204" t="str">
-        <v>274</v>
+        <v>476</v>
       </c>
       <c r="D204" t="str">
-        <v>group-menu-hillel-</v>
+        <v>group-476-menu</v>
       </c>
       <c r="E204" t="str">
-        <v>hillel</v>
+        <v>clubsportsassociation</v>
       </c>
       <c r="F204" t="str">
-        <v>Match</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>Scott Giorgis</v>
+        <v>Hillel</v>
       </c>
       <c r="B205" t="str">
-        <v>Scott Giorgis</v>
+        <v>Hillel</v>
       </c>
       <c r="C205" t="str">
-        <v>166</v>
+        <v>274</v>
       </c>
       <c r="D205" t="str">
-        <v>group-menu-scott-giorgis</v>
+        <v>group-menu-hillel-</v>
       </c>
       <c r="E205" t="str">
-        <v>scott_giorgis</v>
+        <v>hillel</v>
       </c>
       <c r="F205" t="str">
         <v>Match</v>
@@ -4512,19 +4512,19 @@
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>Master Teacher</v>
+        <v>Scott Giorgis</v>
       </c>
       <c r="B206" t="str">
-        <v>Master Teacher</v>
+        <v>Scott Giorgis</v>
       </c>
       <c r="C206" t="str">
-        <v>122</v>
+        <v>166</v>
       </c>
       <c r="D206" t="str">
-        <v>group-menu-master-teacher</v>
+        <v>group-menu-scott-giorgis</v>
       </c>
       <c r="E206" t="str">
-        <v>masterteacher</v>
+        <v>scott_giorgis</v>
       </c>
       <c r="F206" t="str">
         <v>Match</v>
@@ -4532,42 +4532,42 @@
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>Ed Pogozelski</v>
+        <v>Master Teacher</v>
       </c>
       <c r="B207" t="str">
-        <v>Ed Pogozelski</v>
+        <v>Master Teacher</v>
       </c>
       <c r="C207" t="str">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="D207" t="str">
-        <v>— None —</v>
+        <v>group-menu-master-teacher</v>
       </c>
       <c r="E207" t="str">
-        <v>pogo</v>
+        <v>masterteacher</v>
       </c>
       <c r="F207" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>-</v>
+        <v>Ed Pogozelski</v>
       </c>
       <c r="B208" t="str">
-        <v>404 Page</v>
+        <v>Ed Pogozelski</v>
       </c>
       <c r="C208" t="str">
-        <v>309</v>
+        <v>165</v>
       </c>
       <c r="D208" t="str">
-        <v>-</v>
+        <v>— None —</v>
       </c>
       <c r="E208" t="str">
-        <v>404 Page</v>
+        <v>pogo</v>
       </c>
       <c r="F208" t="str">
-        <v>Not Found in WP</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="209">
@@ -4575,16 +4575,16 @@
         <v>-</v>
       </c>
       <c r="B209" t="str">
-        <v>Beekeeping</v>
+        <v>404 Page</v>
       </c>
       <c r="C209" t="str">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="D209" t="str">
         <v>-</v>
       </c>
       <c r="E209" t="str">
-        <v>beekeeping</v>
+        <v>404 Page</v>
       </c>
       <c r="F209" t="str">
         <v>Not Found in WP</v>
@@ -4595,16 +4595,16 @@
         <v>-</v>
       </c>
       <c r="B210" t="str">
-        <v>Biology Club</v>
+        <v>Beekeeping</v>
       </c>
       <c r="C210" t="str">
-        <v>46</v>
+        <v>317</v>
       </c>
       <c r="D210" t="str">
         <v>-</v>
       </c>
       <c r="E210" t="str">
-        <v>biology_club</v>
+        <v>beekeeping</v>
       </c>
       <c r="F210" t="str">
         <v>Not Found in WP</v>
@@ -4615,16 +4615,16 @@
         <v>-</v>
       </c>
       <c r="B211" t="str">
-        <v>Cesar Aguilar</v>
+        <v>Biology Club</v>
       </c>
       <c r="C211" t="str">
-        <v>261</v>
+        <v>46</v>
       </c>
       <c r="D211" t="str">
         <v>-</v>
       </c>
       <c r="E211" t="str">
-        <v>aguilar</v>
+        <v>biology_club</v>
       </c>
       <c r="F211" t="str">
         <v>Not Found in WP</v>
@@ -4635,16 +4635,16 @@
         <v>-</v>
       </c>
       <c r="B212" t="str">
-        <v>Consumer Information</v>
+        <v>Cesar Aguilar</v>
       </c>
       <c r="C212" t="str">
-        <v>295</v>
+        <v>261</v>
       </c>
       <c r="D212" t="str">
         <v>-</v>
       </c>
       <c r="E212" t="str">
-        <v>geneseo-consumer-information</v>
+        <v>aguilar</v>
       </c>
       <c r="F212" t="str">
         <v>Not Found in WP</v>
@@ -4655,16 +4655,16 @@
         <v>-</v>
       </c>
       <c r="B213" t="str">
-        <v>CSTEP</v>
+        <v>Consumer Information</v>
       </c>
       <c r="C213" t="str">
-        <v>478</v>
+        <v>295</v>
       </c>
       <c r="D213" t="str">
         <v>-</v>
       </c>
       <c r="E213" t="str">
-        <v>CSTEP</v>
+        <v>geneseo-consumer-information</v>
       </c>
       <c r="F213" t="str">
         <v>Not Found in WP</v>
@@ -4675,16 +4675,16 @@
         <v>-</v>
       </c>
       <c r="B214" t="str">
-        <v>Dennis Showers</v>
+        <v>CSTEP</v>
       </c>
       <c r="C214" t="str">
-        <v>167</v>
+        <v>478</v>
       </c>
       <c r="D214" t="str">
         <v>-</v>
       </c>
       <c r="E214" t="str">
-        <v>showers</v>
+        <v>CSTEP</v>
       </c>
       <c r="F214" t="str">
         <v>Not Found in WP</v>
@@ -4695,16 +4695,16 @@
         <v>-</v>
       </c>
       <c r="B215" t="str">
-        <v>Geneseo Marketing Assocation</v>
+        <v>Dennis Showers</v>
       </c>
       <c r="C215" t="str">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="D215" t="str">
         <v>-</v>
       </c>
       <c r="E215" t="str">
-        <v>gma</v>
+        <v>showers</v>
       </c>
       <c r="F215" t="str">
         <v>Not Found in WP</v>
@@ -4715,16 +4715,16 @@
         <v>-</v>
       </c>
       <c r="B216" t="str">
-        <v>Human Cognition and Memory Lab</v>
+        <v>Geneseo Marketing Assocation</v>
       </c>
       <c r="C216" t="str">
-        <v>465</v>
+        <v>79</v>
       </c>
       <c r="D216" t="str">
         <v>-</v>
       </c>
       <c r="E216" t="str">
-        <v>hcml</v>
+        <v>gma</v>
       </c>
       <c r="F216" t="str">
         <v>Not Found in WP</v>
@@ -4735,16 +4735,16 @@
         <v>-</v>
       </c>
       <c r="B217" t="str">
-        <v>Linda Ware Ph.D.</v>
+        <v>Human Cognition and Memory Lab</v>
       </c>
       <c r="C217" t="str">
-        <v>33</v>
+        <v>465</v>
       </c>
       <c r="D217" t="str">
         <v>-</v>
       </c>
       <c r="E217" t="str">
-        <v>ware</v>
+        <v>hcml</v>
       </c>
       <c r="F217" t="str">
         <v>Not Found in WP</v>
@@ -4755,16 +4755,16 @@
         <v>-</v>
       </c>
       <c r="B218" t="str">
-        <v>Ming-Mei Chang</v>
+        <v>Linda Ware Ph.D.</v>
       </c>
       <c r="C218" t="str">
-        <v>153</v>
+        <v>33</v>
       </c>
       <c r="D218" t="str">
         <v>-</v>
       </c>
       <c r="E218" t="str">
-        <v>chang</v>
+        <v>ware</v>
       </c>
       <c r="F218" t="str">
         <v>Not Found in WP</v>
@@ -4775,16 +4775,16 @@
         <v>-</v>
       </c>
       <c r="B219" t="str">
-        <v>Minority Association for PreHealth</v>
+        <v>Ming-Mei Chang</v>
       </c>
       <c r="C219" t="str">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="D219" t="str">
         <v>-</v>
       </c>
       <c r="E219" t="str">
-        <v>minority-assoc-prehealth</v>
+        <v>chang</v>
       </c>
       <c r="F219" t="str">
         <v>Not Found in WP</v>
@@ -4795,16 +4795,16 @@
         <v>-</v>
       </c>
       <c r="B220" t="str">
-        <v>Newman</v>
+        <v>Minority Association for PreHealth</v>
       </c>
       <c r="C220" t="str">
-        <v>307</v>
+        <v>180</v>
       </c>
       <c r="D220" t="str">
         <v>-</v>
       </c>
       <c r="E220" t="str">
-        <v>newman</v>
+        <v>minority-assoc-prehealth</v>
       </c>
       <c r="F220" t="str">
         <v>Not Found in WP</v>
@@ -4815,16 +4815,16 @@
         <v>-</v>
       </c>
       <c r="B221" t="str">
-        <v>Office of Government and Community Relations</v>
+        <v>Newman</v>
       </c>
       <c r="C221" t="str">
-        <v>477</v>
+        <v>307</v>
       </c>
       <c r="D221" t="str">
         <v>-</v>
       </c>
       <c r="E221" t="str">
-        <v>government-and-community-relations</v>
+        <v>newman</v>
       </c>
       <c r="F221" t="str">
         <v>Not Found in WP</v>
@@ -4835,16 +4835,16 @@
         <v>-</v>
       </c>
       <c r="B222" t="str">
-        <v>Peace Action Geneseo</v>
+        <v>Office of Government and Community Relations</v>
       </c>
       <c r="C222" t="str">
-        <v>280</v>
+        <v>477</v>
       </c>
       <c r="D222" t="str">
         <v>-</v>
       </c>
       <c r="E222" t="str">
-        <v>peace_action</v>
+        <v>government-and-community-relations</v>
       </c>
       <c r="F222" t="str">
         <v>Not Found in WP</v>
@@ -4855,16 +4855,16 @@
         <v>-</v>
       </c>
       <c r="B223" t="str">
-        <v>Pep Band</v>
+        <v>Peace Action Geneseo</v>
       </c>
       <c r="C223" t="str">
-        <v>226</v>
+        <v>280</v>
       </c>
       <c r="D223" t="str">
         <v>-</v>
       </c>
       <c r="E223" t="str">
-        <v>pepband</v>
+        <v>peace_action</v>
       </c>
       <c r="F223" t="str">
         <v>Not Found in WP</v>
@@ -4875,16 +4875,16 @@
         <v>-</v>
       </c>
       <c r="B224" t="str">
-        <v>Performance As Social Change</v>
+        <v>Pep Band</v>
       </c>
       <c r="C224" t="str">
-        <v>463</v>
+        <v>226</v>
       </c>
       <c r="D224" t="str">
         <v>-</v>
       </c>
       <c r="E224" t="str">
-        <v>performance-social-change</v>
+        <v>pepband</v>
       </c>
       <c r="F224" t="str">
         <v>Not Found in WP</v>
@@ -4895,16 +4895,16 @@
         <v>-</v>
       </c>
       <c r="B225" t="str">
-        <v>Phi Beta Lambda</v>
+        <v>Performance As Social Change</v>
       </c>
       <c r="C225" t="str">
-        <v>43</v>
+        <v>463</v>
       </c>
       <c r="D225" t="str">
         <v>-</v>
       </c>
       <c r="E225" t="str">
-        <v>phibetalambda</v>
+        <v>performance-social-change</v>
       </c>
       <c r="F225" t="str">
         <v>Not Found in WP</v>
@@ -4915,16 +4915,16 @@
         <v>-</v>
       </c>
       <c r="B226" t="str">
-        <v>Pride Alliance</v>
+        <v>Phi Beta Lambda</v>
       </c>
       <c r="C226" t="str">
-        <v>301</v>
+        <v>43</v>
       </c>
       <c r="D226" t="str">
         <v>-</v>
       </c>
       <c r="E226" t="str">
-        <v>pride-alliance</v>
+        <v>phibetalambda</v>
       </c>
       <c r="F226" t="str">
         <v>Not Found in WP</v>
@@ -4935,16 +4935,16 @@
         <v>-</v>
       </c>
       <c r="B227" t="str">
-        <v>Prof Gu</v>
+        <v>Pride Alliance</v>
       </c>
       <c r="C227" t="str">
-        <v>160</v>
+        <v>301</v>
       </c>
       <c r="D227" t="str">
         <v>-</v>
       </c>
       <c r="E227" t="str">
-        <v>gu</v>
+        <v>pride-alliance</v>
       </c>
       <c r="F227" t="str">
         <v>Not Found in WP</v>
@@ -4955,16 +4955,16 @@
         <v>-</v>
       </c>
       <c r="B228" t="str">
-        <v>Rose McEwen</v>
+        <v>Prof Gu</v>
       </c>
       <c r="C228" t="str">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D228" t="str">
         <v>-</v>
       </c>
       <c r="E228" t="str">
-        <v>mcewen</v>
+        <v>gu</v>
       </c>
       <c r="F228" t="str">
         <v>Not Found in WP</v>
@@ -4975,16 +4975,16 @@
         <v>-</v>
       </c>
       <c r="B229" t="str">
-        <v>Safe Party</v>
+        <v>Rose McEwen</v>
       </c>
       <c r="C229" t="str">
-        <v>74</v>
+        <v>164</v>
       </c>
       <c r="D229" t="str">
         <v>-</v>
       </c>
       <c r="E229" t="str">
-        <v>safeparty</v>
+        <v>mcewen</v>
       </c>
       <c r="F229" t="str">
         <v>Not Found in WP</v>
@@ -4995,16 +4995,16 @@
         <v>-</v>
       </c>
       <c r="B230" t="str">
-        <v>Sam Bean</v>
+        <v>Safe Party</v>
       </c>
       <c r="C230" t="str">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="D230" t="str">
         <v>-</v>
       </c>
       <c r="E230" t="str">
-        <v>bean</v>
+        <v>safeparty</v>
       </c>
       <c r="F230" t="str">
         <v>Not Found in WP</v>
@@ -5015,16 +5015,16 @@
         <v>-</v>
       </c>
       <c r="B231" t="str">
-        <v>Sean Nixon</v>
+        <v>Sam Bean</v>
       </c>
       <c r="C231" t="str">
-        <v>266</v>
+        <v>12</v>
       </c>
       <c r="D231" t="str">
         <v>-</v>
       </c>
       <c r="E231" t="str">
-        <v>nixon</v>
+        <v>bean</v>
       </c>
       <c r="F231" t="str">
         <v>Not Found in WP</v>
@@ -5035,16 +5035,16 @@
         <v>-</v>
       </c>
       <c r="B232" t="str">
-        <v>Sibling-Peer Research Group</v>
+        <v>Sean Nixon</v>
       </c>
       <c r="C232" t="str">
-        <v>18</v>
+        <v>266</v>
       </c>
       <c r="D232" t="str">
         <v>-</v>
       </c>
       <c r="E232" t="str">
-        <v>sprg</v>
+        <v>nixon</v>
       </c>
       <c r="F232" t="str">
         <v>Not Found in WP</v>
@@ -5055,16 +5055,16 @@
         <v>-</v>
       </c>
       <c r="B233" t="str">
-        <v>Strategic Initiatives</v>
+        <v>Sibling-Peer Research Group</v>
       </c>
       <c r="C233" t="str">
-        <v>456</v>
+        <v>18</v>
       </c>
       <c r="D233" t="str">
         <v>-</v>
       </c>
       <c r="E233" t="str">
-        <v>strategic-initiatives</v>
+        <v>sprg</v>
       </c>
       <c r="F233" t="str">
         <v>Not Found in WP</v>
@@ -5075,16 +5075,16 @@
         <v>-</v>
       </c>
       <c r="B234" t="str">
-        <v>Students</v>
+        <v>Strategic Initiatives</v>
       </c>
       <c r="C234" t="str">
-        <v>220</v>
+        <v>456</v>
       </c>
       <c r="D234" t="str">
         <v>-</v>
       </c>
       <c r="E234" t="str">
-        <v>students</v>
+        <v>strategic-initiatives</v>
       </c>
       <c r="F234" t="str">
         <v>Not Found in WP</v>
@@ -5095,16 +5095,16 @@
         <v>-</v>
       </c>
       <c r="B235" t="str">
-        <v>TRIO SSS</v>
+        <v>Students</v>
       </c>
       <c r="C235" t="str">
-        <v>482</v>
+        <v>220</v>
       </c>
       <c r="D235" t="str">
         <v>-</v>
       </c>
       <c r="E235" t="str">
-        <v>triosss</v>
+        <v>students</v>
       </c>
       <c r="F235" t="str">
         <v>Not Found in WP</v>
@@ -5115,24 +5115,44 @@
         <v>-</v>
       </c>
       <c r="B236" t="str">
-        <v>Winter Guard</v>
+        <v>TRIO SSS</v>
       </c>
       <c r="C236" t="str">
-        <v>136</v>
+        <v>482</v>
       </c>
       <c r="D236" t="str">
         <v>-</v>
       </c>
       <c r="E236" t="str">
-        <v>winter_guard</v>
+        <v>triosss</v>
       </c>
       <c r="F236" t="str">
         <v>Not Found in WP</v>
       </c>
     </row>
+    <row r="237">
+      <c r="A237" t="str">
+        <v>-</v>
+      </c>
+      <c r="B237" t="str">
+        <v>Winter Guard</v>
+      </c>
+      <c r="C237" t="str">
+        <v>136</v>
+      </c>
+      <c r="D237" t="str">
+        <v>-</v>
+      </c>
+      <c r="E237" t="str">
+        <v>winter_guard</v>
+      </c>
+      <c r="F237" t="str">
+        <v>Not Found in WP</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F236"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F237"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/RoleMenuCompare.xlsx
+++ b/RoleMenuCompare.xlsx
@@ -472,39 +472,39 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Academic Program Finder</v>
+        <v>Academics</v>
       </c>
       <c r="B4" t="str">
-        <v>Academic Program Finder</v>
+        <v>Academics</v>
       </c>
       <c r="C4" t="str">
-        <v>359</v>
+        <v>4</v>
       </c>
       <c r="D4" t="str">
-        <v>— None —</v>
+        <v>group-menu-academics</v>
       </c>
       <c r="E4" t="str">
-        <v>academic-program-finder</v>
+        <v>academics</v>
       </c>
       <c r="F4" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Academics</v>
+        <v>Access Opportunity Programs</v>
       </c>
       <c r="B5" t="str">
-        <v>Academics</v>
+        <v>Access Opportunity Programs</v>
       </c>
       <c r="C5" t="str">
-        <v>4</v>
+        <v>137</v>
       </c>
       <c r="D5" t="str">
-        <v>group-menu-academics</v>
+        <v>group-menu-aop</v>
       </c>
       <c r="E5" t="str">
-        <v>academics</v>
+        <v>aop</v>
       </c>
       <c r="F5" t="str">
         <v>Match</v>
@@ -512,79 +512,79 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Access Opportunity Programs</v>
+        <v>Admissions</v>
       </c>
       <c r="B6" t="str">
-        <v>Access Opportunity Programs</v>
+        <v>Admissions</v>
       </c>
       <c r="C6" t="str">
-        <v>137</v>
+        <v>6</v>
       </c>
       <c r="D6" t="str">
-        <v>group-menu-aop</v>
+        <v>group-menu-general-information</v>
       </c>
       <c r="E6" t="str">
-        <v>aop</v>
+        <v>admissions</v>
       </c>
       <c r="F6" t="str">
-        <v>Match</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Admissions</v>
+        <v>Alumni</v>
       </c>
       <c r="B7" t="str">
-        <v>Admissions</v>
+        <v>Alumni</v>
       </c>
       <c r="C7" t="str">
-        <v>6</v>
+        <v>250</v>
       </c>
       <c r="D7" t="str">
-        <v>group-menu-general-information</v>
+        <v>group-menu-alumni</v>
       </c>
       <c r="E7" t="str">
-        <v>admissions</v>
+        <v>alumni</v>
       </c>
       <c r="F7" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Alumni</v>
+        <v>Campus Life</v>
       </c>
       <c r="B8" t="str">
-        <v>Alumni</v>
+        <v>Campus Life</v>
       </c>
       <c r="C8" t="str">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="D8" t="str">
-        <v>group-menu-alumni</v>
+        <v>— None —</v>
       </c>
       <c r="E8" t="str">
-        <v>alumni</v>
+        <v>campus_life</v>
       </c>
       <c r="F8" t="str">
-        <v>Match</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Campus Life</v>
+        <v>Center for Integrative Learning</v>
       </c>
       <c r="B9" t="str">
-        <v>Campus Life</v>
+        <v>Center for Integrative Learning</v>
       </c>
       <c r="C9" t="str">
-        <v>212</v>
+        <v>9</v>
       </c>
       <c r="D9" t="str">
-        <v>— None —</v>
+        <v>group-menu-cidd</v>
       </c>
       <c r="E9" t="str">
-        <v>campus_life</v>
+        <v>cil</v>
       </c>
       <c r="F9" t="str">
         <v>Mismatch</v>
@@ -592,39 +592,39 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Center for Integrative Learning</v>
+        <v>CIT</v>
       </c>
       <c r="B10" t="str">
-        <v>Center for Integrative Learning</v>
+        <v>CIT</v>
       </c>
       <c r="C10" t="str">
-        <v>9</v>
+        <v>253</v>
       </c>
       <c r="D10" t="str">
-        <v>group-menu-cidd</v>
+        <v>group-menu-cit</v>
       </c>
       <c r="E10" t="str">
-        <v>cil</v>
+        <v>cit</v>
       </c>
       <c r="F10" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>CIT</v>
+        <v>Department of English and Creative Writing</v>
       </c>
       <c r="B11" t="str">
-        <v>CIT</v>
+        <v>Department of English and Creative Writing</v>
       </c>
       <c r="C11" t="str">
-        <v>253</v>
+        <v>197</v>
       </c>
       <c r="D11" t="str">
-        <v>group-menu-cit</v>
+        <v>group-menu-english</v>
       </c>
       <c r="E11" t="str">
-        <v>cit</v>
+        <v>english</v>
       </c>
       <c r="F11" t="str">
         <v>Match</v>
@@ -632,79 +632,79 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>College Communications &amp; Marketing</v>
+        <v>Emergency</v>
       </c>
       <c r="B12" t="str">
-        <v>College Communications &amp; Marketing</v>
+        <v>Emergency</v>
       </c>
       <c r="C12" t="str">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="D12" t="str">
-        <v>group-menu-communications-market</v>
+        <v>group-menu-emergencies</v>
       </c>
       <c r="E12" t="str">
-        <v>comm_mark</v>
+        <v>emergencies</v>
       </c>
       <c r="F12" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Department of English and Creative Writing</v>
+        <v>Fellowships and Scholarships</v>
       </c>
       <c r="B13" t="str">
-        <v>Department of English and Creative Writing</v>
+        <v>Fellowships and Scholarships</v>
       </c>
       <c r="C13" t="str">
-        <v>197</v>
+        <v>108</v>
       </c>
       <c r="D13" t="str">
-        <v>group-menu-english</v>
+        <v>group-menu-fellowships-scholarsh</v>
       </c>
       <c r="E13" t="str">
-        <v>english</v>
+        <v>fellowships_and_scholarships</v>
       </c>
       <c r="F13" t="str">
-        <v>Match</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Emergency</v>
+        <v>Finance &amp; Administration</v>
       </c>
       <c r="B14" t="str">
-        <v>Emergency</v>
+        <v>Finance &amp; Administration</v>
       </c>
       <c r="C14" t="str">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="D14" t="str">
-        <v>group-menu-emergencies</v>
+        <v>finance-administration</v>
       </c>
       <c r="E14" t="str">
-        <v>emergencies</v>
+        <v>admin_finance</v>
       </c>
       <c r="F14" t="str">
-        <v>Match</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Employee Resources</v>
+        <v>Geneseo Area Gaming Group</v>
       </c>
       <c r="B15" t="str">
-        <v>Employee Resources</v>
+        <v>Geneseo Area Gaming Group</v>
       </c>
       <c r="C15" t="str">
-        <v>221</v>
+        <v>11</v>
       </c>
       <c r="D15" t="str">
-        <v>— None —</v>
+        <v>group-menu-geneseo-area-gaming-g</v>
       </c>
       <c r="E15" t="str">
-        <v>employee-resources</v>
+        <v>gagg</v>
       </c>
       <c r="F15" t="str">
         <v>Mismatch</v>
@@ -712,19 +712,19 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Fellowships and Scholarships</v>
+        <v>Geological, Environmental, and Planetary Sciences</v>
       </c>
       <c r="B16" t="str">
-        <v>Fellowships and Scholarships</v>
+        <v>Geological, Environmental, and Planetary Sciences</v>
       </c>
       <c r="C16" t="str">
-        <v>108</v>
+        <v>195</v>
       </c>
       <c r="D16" t="str">
-        <v>group-menu-fellowships-scholarsh</v>
+        <v>group-menu-geological-sciences</v>
       </c>
       <c r="E16" t="str">
-        <v>fellowships_and_scholarships</v>
+        <v>geology</v>
       </c>
       <c r="F16" t="str">
         <v>Mismatch</v>
@@ -732,59 +732,59 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Finance &amp; Administration</v>
+        <v>Graduate Admissions</v>
       </c>
       <c r="B17" t="str">
-        <v>Finance &amp; Administration</v>
+        <v>Graduate Admissions</v>
       </c>
       <c r="C17" t="str">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D17" t="str">
-        <v>finance-administration</v>
+        <v>group-menu-graduate-admissions</v>
       </c>
       <c r="E17" t="str">
-        <v>admin_finance</v>
+        <v>graduate_admissions</v>
       </c>
       <c r="F17" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Geneseo Area Gaming Group</v>
+        <v>History</v>
       </c>
       <c r="B18" t="str">
-        <v>Geneseo Area Gaming Group</v>
+        <v>History</v>
       </c>
       <c r="C18" t="str">
-        <v>11</v>
+        <v>194</v>
       </c>
       <c r="D18" t="str">
-        <v>group-menu-geneseo-area-gaming-g</v>
+        <v>group-menu-history</v>
       </c>
       <c r="E18" t="str">
-        <v>gagg</v>
+        <v>history</v>
       </c>
       <c r="F18" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Geological, Environmental, and Planetary Sciences</v>
+        <v>Human Resources</v>
       </c>
       <c r="B19" t="str">
-        <v>Geological, Environmental, and Planetary Sciences</v>
+        <v>Human Resources</v>
       </c>
       <c r="C19" t="str">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="D19" t="str">
-        <v>group-menu-geological-sciences</v>
+        <v>group-menu-human-resources</v>
       </c>
       <c r="E19" t="str">
-        <v>geology</v>
+        <v>hr</v>
       </c>
       <c r="F19" t="str">
         <v>Mismatch</v>
@@ -792,59 +792,59 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Graduate Admissions</v>
+        <v>Information Security Program</v>
       </c>
       <c r="B20" t="str">
-        <v>Graduate Admissions</v>
+        <v>Information Security Program</v>
       </c>
       <c r="C20" t="str">
-        <v>246</v>
+        <v>148</v>
       </c>
       <c r="D20" t="str">
-        <v>group-menu-graduate-admissions</v>
+        <v>— None —</v>
       </c>
       <c r="E20" t="str">
-        <v>graduate_admissions</v>
+        <v>info_security</v>
       </c>
       <c r="F20" t="str">
-        <v>Match</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>History</v>
+        <v>International Student &amp; Scholar Services</v>
       </c>
       <c r="B21" t="str">
-        <v>History</v>
+        <v>International Student &amp; Scholar Services</v>
       </c>
       <c r="C21" t="str">
-        <v>194</v>
+        <v>223</v>
       </c>
       <c r="D21" t="str">
-        <v>group-menu-history</v>
+        <v>group-menu-isss</v>
       </c>
       <c r="E21" t="str">
-        <v>history</v>
+        <v>international</v>
       </c>
       <c r="F21" t="str">
-        <v>Match</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Human Resources</v>
+        <v>Intersession</v>
       </c>
       <c r="B22" t="str">
-        <v>Human Resources</v>
+        <v>Intersession</v>
       </c>
       <c r="C22" t="str">
-        <v>219</v>
+        <v>312</v>
       </c>
       <c r="D22" t="str">
-        <v>group-menu-human-resources</v>
+        <v>— None —</v>
       </c>
       <c r="E22" t="str">
-        <v>hr</v>
+        <v>intersession</v>
       </c>
       <c r="F22" t="str">
         <v>Mismatch</v>
@@ -852,19 +852,19 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Information Security Program</v>
+        <v>Intramural Sports</v>
       </c>
       <c r="B23" t="str">
-        <v>Information Security Program</v>
+        <v>Intramural Sports</v>
       </c>
       <c r="C23" t="str">
-        <v>148</v>
+        <v>86</v>
       </c>
       <c r="D23" t="str">
-        <v>— None —</v>
+        <v>group-menu-intramural-sports</v>
       </c>
       <c r="E23" t="str">
-        <v>info_security</v>
+        <v>intramurals</v>
       </c>
       <c r="F23" t="str">
         <v>Mismatch</v>
@@ -872,19 +872,19 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>International Student &amp; Scholar Services</v>
+        <v>Office of Advising</v>
       </c>
       <c r="B24" t="str">
-        <v>International Student &amp; Scholar Services</v>
+        <v>Office of Advising</v>
       </c>
       <c r="C24" t="str">
-        <v>223</v>
+        <v>142</v>
       </c>
       <c r="D24" t="str">
-        <v>group-menu-isss</v>
+        <v>group-menu-office-of-the-dean</v>
       </c>
       <c r="E24" t="str">
-        <v>international</v>
+        <v>advising</v>
       </c>
       <c r="F24" t="str">
         <v>Mismatch</v>
@@ -892,39 +892,39 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Intersession</v>
+        <v>Office of Diversity and Equity</v>
       </c>
       <c r="B25" t="str">
-        <v>Intersession</v>
+        <v>Office of Diversity and Equity</v>
       </c>
       <c r="C25" t="str">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D25" t="str">
-        <v>— None —</v>
+        <v>diversity-equity</v>
       </c>
       <c r="E25" t="str">
-        <v>intersession</v>
+        <v>diversity-equity</v>
       </c>
       <c r="F25" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Intramural Sports</v>
+        <v>Offices</v>
       </c>
       <c r="B26" t="str">
-        <v>Intramural Sports</v>
+        <v>Offices</v>
       </c>
       <c r="C26" t="str">
-        <v>86</v>
+        <v>222</v>
       </c>
       <c r="D26" t="str">
-        <v>group-menu-intramural-sports</v>
+        <v>— None —</v>
       </c>
       <c r="E26" t="str">
-        <v>intramurals</v>
+        <v>offices</v>
       </c>
       <c r="F26" t="str">
         <v>Mismatch</v>
@@ -932,19 +932,19 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>News Center</v>
+        <v>Orientation</v>
       </c>
       <c r="B27" t="str">
-        <v>News Center</v>
+        <v>Orientation</v>
       </c>
       <c r="C27" t="str">
-        <v>290</v>
+        <v>214</v>
       </c>
       <c r="D27" t="str">
-        <v>— None —</v>
+        <v>group-menu-weeks-of-welcome</v>
       </c>
       <c r="E27" t="str">
-        <v>news</v>
+        <v>orientation</v>
       </c>
       <c r="F27" t="str">
         <v>Mismatch</v>
@@ -952,39 +952,39 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Office of Advising</v>
+        <v>Parent and Family Resources</v>
       </c>
       <c r="B28" t="str">
-        <v>Office of Advising</v>
+        <v>Parent and Family Resources</v>
       </c>
       <c r="C28" t="str">
-        <v>142</v>
+        <v>215</v>
       </c>
       <c r="D28" t="str">
-        <v>group-menu-office-of-the-dean</v>
+        <v>group-menu-parents</v>
       </c>
       <c r="E28" t="str">
-        <v>advising</v>
+        <v>parents</v>
       </c>
       <c r="F28" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Office of Diversity and Equity</v>
+        <v>Policy</v>
       </c>
       <c r="B29" t="str">
-        <v>Office of Diversity and Equity</v>
+        <v>Policy</v>
       </c>
       <c r="C29" t="str">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="D29" t="str">
-        <v>diversity-equity</v>
+        <v>policy</v>
       </c>
       <c r="E29" t="str">
-        <v>diversity-equity</v>
+        <v>policy</v>
       </c>
       <c r="F29" t="str">
         <v>Match</v>
@@ -992,19 +992,19 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Offices</v>
+        <v>Psychology and Neuroscience Department</v>
       </c>
       <c r="B30" t="str">
-        <v>Offices</v>
+        <v>Psychology and Neuroscience Department</v>
       </c>
       <c r="C30" t="str">
-        <v>222</v>
+        <v>186</v>
       </c>
       <c r="D30" t="str">
-        <v>— None —</v>
+        <v>group-menu-psychology-department</v>
       </c>
       <c r="E30" t="str">
-        <v>offices</v>
+        <v>psychology</v>
       </c>
       <c r="F30" t="str">
         <v>Mismatch</v>
@@ -1012,119 +1012,119 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Orientation</v>
+        <v>Purchasing</v>
       </c>
       <c r="B31" t="str">
-        <v>Orientation</v>
+        <v>Purchasing</v>
       </c>
       <c r="C31" t="str">
-        <v>214</v>
+        <v>130</v>
       </c>
       <c r="D31" t="str">
-        <v>group-menu-weeks-of-welcome</v>
+        <v>group-menu-purchasing</v>
       </c>
       <c r="E31" t="str">
-        <v>orientation</v>
+        <v>purchasing</v>
       </c>
       <c r="F31" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Parent and Family Resources</v>
+        <v>Residence Life</v>
       </c>
       <c r="B32" t="str">
-        <v>Parent and Family Resources</v>
+        <v>Residence Life</v>
       </c>
       <c r="C32" t="str">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="D32" t="str">
-        <v>group-menu-parents</v>
+        <v>group-menu-campus-living</v>
       </c>
       <c r="E32" t="str">
-        <v>parents</v>
+        <v>residence-life</v>
       </c>
       <c r="F32" t="str">
-        <v>Match</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Policy</v>
+        <v>School of Business</v>
       </c>
       <c r="B33" t="str">
-        <v>Policy</v>
+        <v>School of Business</v>
       </c>
       <c r="C33" t="str">
-        <v>326</v>
+        <v>202</v>
       </c>
       <c r="D33" t="str">
-        <v>policy</v>
+        <v>group-menu-school-of-business</v>
       </c>
       <c r="E33" t="str">
-        <v>policy</v>
+        <v>business</v>
       </c>
       <c r="F33" t="str">
-        <v>Match</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Psychology and Neuroscience Department</v>
+        <v>Sociology</v>
       </c>
       <c r="B34" t="str">
-        <v>Psychology and Neuroscience Department</v>
+        <v>Sociology</v>
       </c>
       <c r="C34" t="str">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D34" t="str">
-        <v>group-menu-psychology-department</v>
+        <v>group-menu-sociology</v>
       </c>
       <c r="E34" t="str">
-        <v>psychology</v>
+        <v>sociology</v>
       </c>
       <c r="F34" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Purchasing</v>
+        <v>Student Association</v>
       </c>
       <c r="B35" t="str">
-        <v>Purchasing</v>
+        <v>Student Association</v>
       </c>
       <c r="C35" t="str">
-        <v>130</v>
+        <v>216</v>
       </c>
       <c r="D35" t="str">
-        <v>group-menu-purchasing</v>
+        <v>group-menu-student-association</v>
       </c>
       <c r="E35" t="str">
-        <v>purchasing</v>
+        <v>sa</v>
       </c>
       <c r="F35" t="str">
-        <v>Match</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Residence Life</v>
+        <v>Student Health and Counseling</v>
       </c>
       <c r="B36" t="str">
-        <v>Residence Life</v>
+        <v>Student Health and Counseling</v>
       </c>
       <c r="C36" t="str">
-        <v>241</v>
+        <v>144</v>
       </c>
       <c r="D36" t="str">
-        <v>group-menu-campus-living</v>
+        <v>group-menu-health-counseling</v>
       </c>
       <c r="E36" t="str">
-        <v>residence-life</v>
+        <v>health</v>
       </c>
       <c r="F36" t="str">
         <v>Mismatch</v>
@@ -1132,79 +1132,79 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Scene</v>
+        <v>Student Life</v>
       </c>
       <c r="B37" t="str">
-        <v>Scene</v>
+        <v>Student Life</v>
       </c>
       <c r="C37" t="str">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="D37" t="str">
-        <v>group-menu-scene</v>
+        <v>group-menu-student-life</v>
       </c>
       <c r="E37" t="str">
-        <v>geneseo_scene</v>
+        <v>student_life</v>
       </c>
       <c r="F37" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>School of Business</v>
+        <v>Study Abroad</v>
       </c>
       <c r="B38" t="str">
-        <v>School of Business</v>
+        <v>Study Abroad</v>
       </c>
       <c r="C38" t="str">
-        <v>202</v>
+        <v>249</v>
       </c>
       <c r="D38" t="str">
-        <v>group-menu-school-of-business</v>
+        <v>group-menu-study-abroad</v>
       </c>
       <c r="E38" t="str">
-        <v>business</v>
+        <v>study_abroad</v>
       </c>
       <c r="F38" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Sociology</v>
+        <v>Support Geneseo</v>
       </c>
       <c r="B39" t="str">
-        <v>Sociology</v>
+        <v>Support Geneseo</v>
       </c>
       <c r="C39" t="str">
-        <v>185</v>
+        <v>5</v>
       </c>
       <c r="D39" t="str">
-        <v>group-menu-sociology</v>
+        <v>group-menu-support-geneseo</v>
       </c>
       <c r="E39" t="str">
-        <v>sociology</v>
+        <v>support</v>
       </c>
       <c r="F39" t="str">
-        <v>Match</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Student Association</v>
+        <v>Discovery Cafe</v>
       </c>
       <c r="B40" t="str">
-        <v>Student Association</v>
+        <v>Discovery Cafe</v>
       </c>
       <c r="C40" t="str">
-        <v>216</v>
+        <v>287</v>
       </c>
       <c r="D40" t="str">
-        <v>group-menu-student-association</v>
+        <v>— None —</v>
       </c>
       <c r="E40" t="str">
-        <v>sa</v>
+        <v>discoverycafe</v>
       </c>
       <c r="F40" t="str">
         <v>Mismatch</v>
@@ -1212,19 +1212,19 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Student Health and Counseling</v>
+        <v>Global Languages and Cultures</v>
       </c>
       <c r="B41" t="str">
-        <v>Student Health and Counseling</v>
+        <v>Global Languages and Cultures</v>
       </c>
       <c r="C41" t="str">
-        <v>144</v>
+        <v>193</v>
       </c>
       <c r="D41" t="str">
-        <v>group-menu-health-counseling</v>
+        <v>group-menu-languages-literatures</v>
       </c>
       <c r="E41" t="str">
-        <v>health</v>
+        <v>global-languages-cultures</v>
       </c>
       <c r="F41" t="str">
         <v>Mismatch</v>
@@ -1232,39 +1232,39 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Student Life</v>
+        <v>Dr. Kodjo Adabra</v>
       </c>
       <c r="B42" t="str">
-        <v>Student Life</v>
+        <v>Dr. Kodjo Adabra</v>
       </c>
       <c r="C42" t="str">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="D42" t="str">
-        <v>group-menu-student-life</v>
+        <v>group-menu-dr-kokjo-adabra</v>
       </c>
       <c r="E42" t="str">
-        <v>student_life</v>
+        <v>adabra</v>
       </c>
       <c r="F42" t="str">
-        <v>Match</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Study Abroad</v>
+        <v>Biology</v>
       </c>
       <c r="B43" t="str">
-        <v>Study Abroad</v>
+        <v>Biology</v>
       </c>
       <c r="C43" t="str">
-        <v>249</v>
+        <v>204</v>
       </c>
       <c r="D43" t="str">
-        <v>group-menu-study-abroad</v>
+        <v>group-menu-biology</v>
       </c>
       <c r="E43" t="str">
-        <v>study_abroad</v>
+        <v>biology</v>
       </c>
       <c r="F43" t="str">
         <v>Match</v>
@@ -1272,19 +1272,19 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Support Geneseo</v>
+        <v>Jennifer Apple</v>
       </c>
       <c r="B44" t="str">
-        <v>Support Geneseo</v>
+        <v>Jennifer Apple</v>
       </c>
       <c r="C44" t="str">
-        <v>5</v>
+        <v>175</v>
       </c>
       <c r="D44" t="str">
-        <v>group-menu-support-geneseo</v>
+        <v>— None —</v>
       </c>
       <c r="E44" t="str">
-        <v>support</v>
+        <v>applej</v>
       </c>
       <c r="F44" t="str">
         <v>Mismatch</v>
@@ -1292,19 +1292,19 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Discovery Cafe</v>
+        <v>Roemer Arboretum</v>
       </c>
       <c r="B45" t="str">
-        <v>Discovery Cafe</v>
+        <v>Roemer Arboretum</v>
       </c>
       <c r="C45" t="str">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D45" t="str">
-        <v>— None —</v>
+        <v>group-menu-roemer-arboretum</v>
       </c>
       <c r="E45" t="str">
-        <v>discoverycafe</v>
+        <v>arboretum</v>
       </c>
       <c r="F45" t="str">
         <v>Mismatch</v>
@@ -1312,79 +1312,79 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Global Languages and Cultures</v>
+        <v>Student Accounts</v>
       </c>
       <c r="B46" t="str">
-        <v>Global Languages and Cultures</v>
+        <v>Student Accounts</v>
       </c>
       <c r="C46" t="str">
-        <v>193</v>
+        <v>95</v>
       </c>
       <c r="D46" t="str">
-        <v>group-menu-languages-literatures</v>
+        <v>group-menu-student-accounts</v>
       </c>
       <c r="E46" t="str">
-        <v>global-languages-cultures</v>
+        <v>student_accounts</v>
       </c>
       <c r="F46" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Dr. Kodjo Adabra</v>
+        <v>Veteran and Military Services</v>
       </c>
       <c r="B47" t="str">
-        <v>Dr. Kodjo Adabra</v>
+        <v>Veteran and Military Services</v>
       </c>
       <c r="C47" t="str">
-        <v>235</v>
+        <v>20</v>
       </c>
       <c r="D47" t="str">
-        <v>group-menu-dr-kokjo-adabra</v>
+        <v>group-menu-veterans</v>
       </c>
       <c r="E47" t="str">
-        <v>adabra</v>
+        <v>veterans</v>
       </c>
       <c r="F47" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Biology</v>
+        <v>INTD 105 Writing Seminar Resources</v>
       </c>
       <c r="B48" t="str">
-        <v>Biology</v>
+        <v>INTD 105 Writing Seminar Resources</v>
       </c>
       <c r="C48" t="str">
-        <v>204</v>
+        <v>466</v>
       </c>
       <c r="D48" t="str">
-        <v>group-menu-biology</v>
+        <v>— None —</v>
       </c>
       <c r="E48" t="str">
-        <v>biology</v>
+        <v>intd-105-resources</v>
       </c>
       <c r="F48" t="str">
-        <v>Match</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Jennifer Apple</v>
+        <v>Phi Beta Kappa</v>
       </c>
       <c r="B49" t="str">
-        <v>Jennifer Apple</v>
+        <v>Phi Beta Kappa</v>
       </c>
       <c r="C49" t="str">
-        <v>175</v>
+        <v>29</v>
       </c>
       <c r="D49" t="str">
-        <v>— None —</v>
+        <v>group-menu-phi-beta-kappa</v>
       </c>
       <c r="E49" t="str">
-        <v>applej</v>
+        <v>pbk</v>
       </c>
       <c r="F49" t="str">
         <v>Mismatch</v>
@@ -1392,39 +1392,39 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Roemer Arboretum</v>
+        <v>GREAT Day</v>
       </c>
       <c r="B50" t="str">
-        <v>Roemer Arboretum</v>
+        <v>GREAT Day</v>
       </c>
       <c r="C50" t="str">
-        <v>283</v>
+        <v>53</v>
       </c>
       <c r="D50" t="str">
-        <v>group-menu-roemer-arboretum</v>
+        <v>group-menu-great-day</v>
       </c>
       <c r="E50" t="str">
-        <v>arboretum</v>
+        <v>great_day</v>
       </c>
       <c r="F50" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Student Accounts</v>
+        <v>Sponsored Research</v>
       </c>
       <c r="B51" t="str">
-        <v>Student Accounts</v>
+        <v>Sponsored Research</v>
       </c>
       <c r="C51" t="str">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="D51" t="str">
-        <v>group-menu-student-accounts</v>
+        <v>group-menu-sponsored-research</v>
       </c>
       <c r="E51" t="str">
-        <v>student_accounts</v>
+        <v>sponsored_research</v>
       </c>
       <c r="F51" t="str">
         <v>Match</v>
@@ -1432,79 +1432,79 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Veteran and Military Services</v>
+        <v>Undergraduate Research</v>
       </c>
       <c r="B52" t="str">
-        <v>Veteran and Military Services</v>
+        <v>Undergraduate Research</v>
       </c>
       <c r="C52" t="str">
-        <v>20</v>
+        <v>119</v>
       </c>
       <c r="D52" t="str">
-        <v>group-menu-veterans</v>
+        <v>group-menu-undergraduate-researc</v>
       </c>
       <c r="E52" t="str">
-        <v>veterans</v>
+        <v>undergraduate_research</v>
       </c>
       <c r="F52" t="str">
-        <v>Match</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>INTD 105 Writing Seminar Resources</v>
+        <v>Neuroscience</v>
       </c>
       <c r="B53" t="str">
-        <v>INTD 105 Writing Seminar Resources</v>
+        <v>Neuroscience</v>
       </c>
       <c r="C53" t="str">
-        <v>466</v>
+        <v>176</v>
       </c>
       <c r="D53" t="str">
-        <v>— None —</v>
+        <v>group-menu-neuroscience</v>
       </c>
       <c r="E53" t="str">
-        <v>intd-105-resources</v>
+        <v>neuroscience</v>
       </c>
       <c r="F53" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Phi Beta Kappa</v>
+        <v>Psychology Club</v>
       </c>
       <c r="B54" t="str">
-        <v>Phi Beta Kappa</v>
+        <v>Psychology Club</v>
       </c>
       <c r="C54" t="str">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D54" t="str">
-        <v>group-menu-phi-beta-kappa</v>
+        <v>group-menu-psychology-club</v>
       </c>
       <c r="E54" t="str">
-        <v>pbk</v>
+        <v>psychology_club</v>
       </c>
       <c r="F54" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>GREAT Day</v>
+        <v>Assessment</v>
       </c>
       <c r="B55" t="str">
-        <v>GREAT Day</v>
+        <v>Assessment</v>
       </c>
       <c r="C55" t="str">
-        <v>53</v>
+        <v>281</v>
       </c>
       <c r="D55" t="str">
-        <v>group-menu-great-day</v>
+        <v>group-menu-assessment-</v>
       </c>
       <c r="E55" t="str">
-        <v>great_day</v>
+        <v>assessment</v>
       </c>
       <c r="F55" t="str">
         <v>Match</v>
@@ -1512,39 +1512,39 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Sponsored Research</v>
+        <v>Brodie Box Office</v>
       </c>
       <c r="B56" t="str">
-        <v>Sponsored Research</v>
+        <v>Brodie Box Office</v>
       </c>
       <c r="C56" t="str">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="D56" t="str">
-        <v>group-menu-sponsored-research</v>
+        <v>group-menu-brodie-box-office</v>
       </c>
       <c r="E56" t="str">
-        <v>sponsored_research</v>
+        <v>bbo</v>
       </c>
       <c r="F56" t="str">
-        <v>Match</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Undergraduate Research</v>
+        <v>Curriculum</v>
       </c>
       <c r="B57" t="str">
-        <v>Undergraduate Research</v>
+        <v>Curriculum</v>
       </c>
       <c r="C57" t="str">
-        <v>119</v>
+        <v>270</v>
       </c>
       <c r="D57" t="str">
-        <v>group-menu-undergraduate-researc</v>
+        <v>group-menu-curriculum-and-assess</v>
       </c>
       <c r="E57" t="str">
-        <v>undergraduate_research</v>
+        <v>curriculum</v>
       </c>
       <c r="F57" t="str">
         <v>Mismatch</v>
@@ -1552,39 +1552,39 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Neuroscience</v>
+        <v>Office of the Provost</v>
       </c>
       <c r="B58" t="str">
-        <v>Neuroscience</v>
+        <v>Office of the Provost</v>
       </c>
       <c r="C58" t="str">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="D58" t="str">
-        <v>group-menu-neuroscience</v>
+        <v>group-menu-office-of-the-provost</v>
       </c>
       <c r="E58" t="str">
-        <v>neuroscience</v>
+        <v>provost</v>
       </c>
       <c r="F58" t="str">
-        <v>Match</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Psychology Club</v>
+        <v>Office of the Registrar</v>
       </c>
       <c r="B59" t="str">
-        <v>Psychology Club</v>
+        <v>Office of the Registrar</v>
       </c>
       <c r="C59" t="str">
-        <v>40</v>
+        <v>145</v>
       </c>
       <c r="D59" t="str">
-        <v>group-menu-psychology-club</v>
+        <v>group-menu-registrar</v>
       </c>
       <c r="E59" t="str">
-        <v>psychology_club</v>
+        <v>registrar</v>
       </c>
       <c r="F59" t="str">
         <v>Match</v>
@@ -1592,19 +1592,19 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Assessment</v>
+        <v>Summer Sessions</v>
       </c>
       <c r="B60" t="str">
-        <v>Assessment</v>
+        <v>Summer Sessions</v>
       </c>
       <c r="C60" t="str">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="D60" t="str">
-        <v>group-menu-assessment-</v>
+        <v>group-menu-summer-sessions</v>
       </c>
       <c r="E60" t="str">
-        <v>assessment</v>
+        <v>summer-sessions</v>
       </c>
       <c r="F60" t="str">
         <v>Match</v>
@@ -1612,19 +1612,19 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Brodie Box Office</v>
+        <v>Campus Personal Safety Committee</v>
       </c>
       <c r="B61" t="str">
-        <v>Brodie Box Office</v>
+        <v>Campus Personal Safety Committee</v>
       </c>
       <c r="C61" t="str">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="D61" t="str">
-        <v>group-menu-brodie-box-office</v>
+        <v>group-menu-campus-personal-safet</v>
       </c>
       <c r="E61" t="str">
-        <v>bbo</v>
+        <v>safety</v>
       </c>
       <c r="F61" t="str">
         <v>Mismatch</v>
@@ -1632,19 +1632,19 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Curriculum</v>
+        <v>Parking &amp; Transportation</v>
       </c>
       <c r="B62" t="str">
-        <v>Curriculum</v>
+        <v>Parking &amp; Transportation</v>
       </c>
       <c r="C62" t="str">
-        <v>270</v>
+        <v>129</v>
       </c>
       <c r="D62" t="str">
-        <v>group-menu-curriculum-and-assess</v>
+        <v>group-menu-parking-transportatio</v>
       </c>
       <c r="E62" t="str">
-        <v>curriculum</v>
+        <v>pts</v>
       </c>
       <c r="F62" t="str">
         <v>Mismatch</v>
@@ -1652,79 +1652,79 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Office of the Provost</v>
+        <v>Police</v>
       </c>
       <c r="B63" t="str">
-        <v>Office of the Provost</v>
+        <v>Police</v>
       </c>
       <c r="C63" t="str">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="D63" t="str">
-        <v>group-menu-office-of-the-provost</v>
+        <v>group-menu-police</v>
       </c>
       <c r="E63" t="str">
-        <v>provost</v>
+        <v>police</v>
       </c>
       <c r="F63" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Office of the Registrar</v>
+        <v>Center for Global Engagement</v>
       </c>
       <c r="B64" t="str">
-        <v>Office of the Registrar</v>
+        <v>Center for Global Engagement</v>
       </c>
       <c r="C64" t="str">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="D64" t="str">
-        <v>group-menu-registrar</v>
+        <v>group-menu-oip</v>
       </c>
       <c r="E64" t="str">
-        <v>registrar</v>
+        <v>globalengagement</v>
       </c>
       <c r="F64" t="str">
-        <v>Match</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Summer Sessions</v>
+        <v>Incoming Exchange Students</v>
       </c>
       <c r="B65" t="str">
-        <v>Summer Sessions</v>
+        <v>Incoming Exchange Students</v>
       </c>
       <c r="C65" t="str">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D65" t="str">
-        <v>group-menu-summer-sessions</v>
+        <v>group-menu-incoming-exchange-stu</v>
       </c>
       <c r="E65" t="str">
-        <v>summer-sessions</v>
+        <v>incoming-exchange-students</v>
       </c>
       <c r="F65" t="str">
-        <v>Match</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Campus Personal Safety Committee</v>
+        <v>Geneseo CARE(S)</v>
       </c>
       <c r="B66" t="str">
-        <v>Campus Personal Safety Committee</v>
+        <v>Geneseo CARE(S)</v>
       </c>
       <c r="C66" t="str">
-        <v>30</v>
+        <v>473</v>
       </c>
       <c r="D66" t="str">
-        <v>group-menu-campus-personal-safet</v>
+        <v>— None —</v>
       </c>
       <c r="E66" t="str">
-        <v>safety</v>
+        <v>geneseo-CAREs</v>
       </c>
       <c r="F66" t="str">
         <v>Mismatch</v>
@@ -1732,19 +1732,19 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Parking &amp; Transportation</v>
+        <v>Mind-Body</v>
       </c>
       <c r="B67" t="str">
-        <v>Parking &amp; Transportation</v>
+        <v>Mind-Body</v>
       </c>
       <c r="C67" t="str">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="D67" t="str">
-        <v>group-menu-parking-transportatio</v>
+        <v>south-village-counseling</v>
       </c>
       <c r="E67" t="str">
-        <v>pts</v>
+        <v>mindbody</v>
       </c>
       <c r="F67" t="str">
         <v>Mismatch</v>
@@ -1752,19 +1752,19 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Police</v>
+        <v>Red Folder</v>
       </c>
       <c r="B68" t="str">
-        <v>Police</v>
+        <v>Red Folder</v>
       </c>
       <c r="C68" t="str">
-        <v>127</v>
+        <v>278</v>
       </c>
       <c r="D68" t="str">
-        <v>group-menu-police</v>
+        <v>group-menu-red-folder</v>
       </c>
       <c r="E68" t="str">
-        <v>police</v>
+        <v>redfolder</v>
       </c>
       <c r="F68" t="str">
         <v>Match</v>
@@ -1772,19 +1772,19 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Center for Global Engagement</v>
+        <v>Wellbeing Initiatives</v>
       </c>
       <c r="B69" t="str">
-        <v>Center for Global Engagement</v>
+        <v>Wellbeing Initiatives</v>
       </c>
       <c r="C69" t="str">
-        <v>126</v>
+        <v>460</v>
       </c>
       <c r="D69" t="str">
-        <v>group-menu-oip</v>
+        <v>group-460-menu</v>
       </c>
       <c r="E69" t="str">
-        <v>globalengagement</v>
+        <v>wellbeing</v>
       </c>
       <c r="F69" t="str">
         <v>Mismatch</v>
@@ -1792,19 +1792,19 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Incoming Exchange Students</v>
+        <v>SUNY Geneseo Federal Credit Union</v>
       </c>
       <c r="B70" t="str">
-        <v>Incoming Exchange Students</v>
+        <v>SUNY Geneseo Federal Credit Union</v>
       </c>
       <c r="C70" t="str">
-        <v>265</v>
+        <v>92</v>
       </c>
       <c r="D70" t="str">
-        <v>group-menu-incoming-exchange-stu</v>
+        <v>group-menu-credit-union</v>
       </c>
       <c r="E70" t="str">
-        <v>incoming-exchange-students</v>
+        <v>sgfcu</v>
       </c>
       <c r="F70" t="str">
         <v>Mismatch</v>
@@ -1812,39 +1812,39 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Geneseo CARE(S)</v>
+        <v>Pre-Law</v>
       </c>
       <c r="B71" t="str">
-        <v>Geneseo CARE(S)</v>
+        <v>Pre-Law</v>
       </c>
       <c r="C71" t="str">
-        <v>473</v>
+        <v>181</v>
       </c>
       <c r="D71" t="str">
-        <v>— None —</v>
+        <v>group-menu-pre-law</v>
       </c>
       <c r="E71" t="str">
-        <v>geneseo-CAREs</v>
+        <v>prelaw</v>
       </c>
       <c r="F71" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Mind-Body</v>
+        <v>School of Education</v>
       </c>
       <c r="B72" t="str">
-        <v>Mind-Body</v>
+        <v>School of Education</v>
       </c>
       <c r="C72" t="str">
-        <v>156</v>
+        <v>198</v>
       </c>
       <c r="D72" t="str">
-        <v>south-village-counseling</v>
+        <v>group-menu-school-of-education</v>
       </c>
       <c r="E72" t="str">
-        <v>mindbody</v>
+        <v>education</v>
       </c>
       <c r="F72" t="str">
         <v>Mismatch</v>
@@ -1852,39 +1852,39 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Red Folder</v>
+        <v>Kurt Fletcher</v>
       </c>
       <c r="B73" t="str">
-        <v>Red Folder</v>
+        <v>Kurt Fletcher</v>
       </c>
       <c r="C73" t="str">
-        <v>278</v>
+        <v>157</v>
       </c>
       <c r="D73" t="str">
-        <v>group-menu-red-folder</v>
+        <v>group-menu-kurt-fletcher</v>
       </c>
       <c r="E73" t="str">
-        <v>redfolder</v>
+        <v>fletcher</v>
       </c>
       <c r="F73" t="str">
-        <v>Match</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Wellbeing Initiatives</v>
+        <v>Muons Over Letchworth</v>
       </c>
       <c r="B74" t="str">
-        <v>Wellbeing Initiatives</v>
+        <v>Muons Over Letchworth</v>
       </c>
       <c r="C74" t="str">
-        <v>460</v>
+        <v>330</v>
       </c>
       <c r="D74" t="str">
-        <v>group-460-menu</v>
+        <v>muons-over-letchworth</v>
       </c>
       <c r="E74" t="str">
-        <v>wellbeing</v>
+        <v>muons</v>
       </c>
       <c r="F74" t="str">
         <v>Mismatch</v>
@@ -1892,19 +1892,19 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>SUNY Geneseo Federal Credit Union</v>
+        <v>Noyce Scholarship Program</v>
       </c>
       <c r="B75" t="str">
-        <v>SUNY Geneseo Federal Credit Union</v>
+        <v>Noyce Scholarship Program</v>
       </c>
       <c r="C75" t="str">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D75" t="str">
-        <v>group-menu-credit-union</v>
+        <v>group-menu-noyce-scholarship-pro</v>
       </c>
       <c r="E75" t="str">
-        <v>sgfcu</v>
+        <v>noyce</v>
       </c>
       <c r="F75" t="str">
         <v>Mismatch</v>
@@ -1912,39 +1912,39 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Pre-Law</v>
+        <v>Nuclear Physics</v>
       </c>
       <c r="B76" t="str">
-        <v>Pre-Law</v>
+        <v>Nuclear Physics</v>
       </c>
       <c r="C76" t="str">
-        <v>181</v>
+        <v>125</v>
       </c>
       <c r="D76" t="str">
-        <v>group-menu-pre-law</v>
+        <v>group-menu-nuclear-physics</v>
       </c>
       <c r="E76" t="str">
-        <v>prelaw</v>
+        <v>nuclear</v>
       </c>
       <c r="F76" t="str">
-        <v>Match</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>School of Education</v>
+        <v>Physics &amp; Astronomy</v>
       </c>
       <c r="B77" t="str">
-        <v>School of Education</v>
+        <v>Physics &amp; Astronomy</v>
       </c>
       <c r="C77" t="str">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="D77" t="str">
-        <v>group-menu-school-of-education</v>
+        <v>group-menu-physics-astronomy</v>
       </c>
       <c r="E77" t="str">
-        <v>education</v>
+        <v>physics</v>
       </c>
       <c r="F77" t="str">
         <v>Mismatch</v>
@@ -1952,19 +1952,19 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Kurt Fletcher</v>
+        <v>PhysTEC Geneseo</v>
       </c>
       <c r="B78" t="str">
-        <v>Kurt Fletcher</v>
+        <v>PhysTEC Geneseo</v>
       </c>
       <c r="C78" t="str">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="D78" t="str">
-        <v>group-menu-kurt-fletcher</v>
+        <v>group-menu-phystec-geneseo</v>
       </c>
       <c r="E78" t="str">
-        <v>fletcher</v>
+        <v>phystec</v>
       </c>
       <c r="F78" t="str">
         <v>Mismatch</v>
@@ -1972,19 +1972,19 @@
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Muons Over Letchworth</v>
+        <v>Power of Physical Science</v>
       </c>
       <c r="B79" t="str">
-        <v>Muons Over Letchworth</v>
+        <v>Power of Physical Science</v>
       </c>
       <c r="C79" t="str">
-        <v>330</v>
+        <v>15</v>
       </c>
       <c r="D79" t="str">
-        <v>muons-over-letchworth</v>
+        <v>group-menu-power-of-physical-sci</v>
       </c>
       <c r="E79" t="str">
-        <v>muons</v>
+        <v>pops</v>
       </c>
       <c r="F79" t="str">
         <v>Mismatch</v>
@@ -1992,19 +1992,19 @@
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Noyce Scholarship Program</v>
+        <v>Microcredentials</v>
       </c>
       <c r="B80" t="str">
-        <v>Noyce Scholarship Program</v>
+        <v>Microcredentials</v>
       </c>
       <c r="C80" t="str">
-        <v>88</v>
+        <v>464</v>
       </c>
       <c r="D80" t="str">
-        <v>group-menu-noyce-scholarship-pro</v>
+        <v>group-464-menu</v>
       </c>
       <c r="E80" t="str">
-        <v>noyce</v>
+        <v>microcredentials</v>
       </c>
       <c r="F80" t="str">
         <v>Mismatch</v>
@@ -2012,19 +2012,19 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Nuclear Physics</v>
+        <v>Office of the President</v>
       </c>
       <c r="B81" t="str">
-        <v>Nuclear Physics</v>
+        <v>Office of the President</v>
       </c>
       <c r="C81" t="str">
-        <v>125</v>
+        <v>213</v>
       </c>
       <c r="D81" t="str">
-        <v>group-menu-nuclear-physics</v>
+        <v>group-menu-office-of-the-preside</v>
       </c>
       <c r="E81" t="str">
-        <v>nuclear</v>
+        <v>president</v>
       </c>
       <c r="F81" t="str">
         <v>Mismatch</v>
@@ -2032,19 +2032,19 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Physics &amp; Astronomy</v>
+        <v>Diversity at Geneseo</v>
       </c>
       <c r="B82" t="str">
-        <v>Physics &amp; Astronomy</v>
+        <v>Diversity at Geneseo</v>
       </c>
       <c r="C82" t="str">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="D82" t="str">
-        <v>group-menu-physics-astronomy</v>
+        <v>group-menu-diversity-at-geneseo</v>
       </c>
       <c r="E82" t="str">
-        <v>physics</v>
+        <v>diversity</v>
       </c>
       <c r="F82" t="str">
         <v>Mismatch</v>
@@ -2052,19 +2052,19 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>PhysTEC Geneseo</v>
+        <v>Charlie Freeman</v>
       </c>
       <c r="B83" t="str">
-        <v>PhysTEC Geneseo</v>
+        <v>Charlie Freeman</v>
       </c>
       <c r="C83" t="str">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="D83" t="str">
-        <v>group-menu-phystec-geneseo</v>
+        <v>— None —</v>
       </c>
       <c r="E83" t="str">
-        <v>phystec</v>
+        <v>freeman</v>
       </c>
       <c r="F83" t="str">
         <v>Mismatch</v>
@@ -2072,39 +2072,39 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Power of Physical Science</v>
+        <v>LGBTQ</v>
       </c>
       <c r="B84" t="str">
-        <v>Power of Physical Science</v>
+        <v>LGBTQ</v>
       </c>
       <c r="C84" t="str">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="D84" t="str">
-        <v>group-menu-power-of-physical-sci</v>
+        <v>group-menu-lgbtq</v>
       </c>
       <c r="E84" t="str">
-        <v>pops</v>
+        <v>lgbtq</v>
       </c>
       <c r="F84" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Microcredentials</v>
+        <v>Multicultural Affairs</v>
       </c>
       <c r="B85" t="str">
-        <v>Microcredentials</v>
+        <v>Multicultural Affairs</v>
       </c>
       <c r="C85" t="str">
-        <v>464</v>
+        <v>123</v>
       </c>
       <c r="D85" t="str">
-        <v>group-464-menu</v>
+        <v>group-menu-multicultural-program</v>
       </c>
       <c r="E85" t="str">
-        <v>microcredentials</v>
+        <v>multicultural</v>
       </c>
       <c r="F85" t="str">
         <v>Mismatch</v>
@@ -2112,59 +2112,59 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Office of the President</v>
+        <v>Title IX &amp; Equity Compliance</v>
       </c>
       <c r="B86" t="str">
-        <v>Office of the President</v>
+        <v>Title IX &amp; Equity Compliance</v>
       </c>
       <c r="C86" t="str">
-        <v>213</v>
+        <v>115</v>
       </c>
       <c r="D86" t="str">
-        <v>group-menu-office-of-the-preside</v>
+        <v>group-menu-title-ix</v>
       </c>
       <c r="E86" t="str">
-        <v>president</v>
+        <v>titleix</v>
       </c>
       <c r="F86" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Diversity at Geneseo</v>
+        <v>Reunion</v>
       </c>
       <c r="B87" t="str">
-        <v>Diversity at Geneseo</v>
+        <v>Reunion</v>
       </c>
       <c r="C87" t="str">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="D87" t="str">
-        <v>group-menu-diversity-at-geneseo</v>
+        <v>group-menu-reunion</v>
       </c>
       <c r="E87" t="str">
-        <v>diversity</v>
+        <v>reunion</v>
       </c>
       <c r="F87" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Charlie Freeman</v>
+        <v>Undergraduate Alumni Association</v>
       </c>
       <c r="B88" t="str">
-        <v>Charlie Freeman</v>
+        <v>Undergraduate Alumni Association</v>
       </c>
       <c r="C88" t="str">
-        <v>158</v>
+        <v>67</v>
       </c>
       <c r="D88" t="str">
-        <v>— None —</v>
+        <v>group-menu-undergraduate-alumni-</v>
       </c>
       <c r="E88" t="str">
-        <v>freeman</v>
+        <v>uaa</v>
       </c>
       <c r="F88" t="str">
         <v>Mismatch</v>
@@ -2172,19 +2172,19 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>LGBTQ</v>
+        <v>New York State Employees Federated Appeal</v>
       </c>
       <c r="B89" t="str">
-        <v>LGBTQ</v>
+        <v>New York State Employees Federated Appeal</v>
       </c>
       <c r="C89" t="str">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="D89" t="str">
-        <v>group-menu-lgbtq</v>
+        <v>group-menu-sefa</v>
       </c>
       <c r="E89" t="str">
-        <v>lgbtq</v>
+        <v>sefa</v>
       </c>
       <c r="F89" t="str">
         <v>Match</v>
@@ -2192,79 +2192,79 @@
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Multicultural Affairs</v>
+        <v>Geneseo Workout Center</v>
       </c>
       <c r="B90" t="str">
-        <v>Multicultural Affairs</v>
+        <v>Geneseo Workout Center</v>
       </c>
       <c r="C90" t="str">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="D90" t="str">
-        <v>group-menu-multicultural-program</v>
+        <v>group-menu-workout-center</v>
       </c>
       <c r="E90" t="str">
-        <v>multicultural</v>
+        <v>workout_center</v>
       </c>
       <c r="F90" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Title IX &amp; Equity Compliance</v>
+        <v>Department of Mathematics</v>
       </c>
       <c r="B91" t="str">
-        <v>Title IX &amp; Equity Compliance</v>
+        <v>Department of Mathematics</v>
       </c>
       <c r="C91" t="str">
-        <v>115</v>
+        <v>192</v>
       </c>
       <c r="D91" t="str">
-        <v>group-menu-title-ix</v>
+        <v>group-menu-mathematics</v>
       </c>
       <c r="E91" t="str">
-        <v>titleix</v>
+        <v>math</v>
       </c>
       <c r="F91" t="str">
-        <v>Match</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Reunion</v>
+        <v>Knot Mosaic Space</v>
       </c>
       <c r="B92" t="str">
-        <v>Reunion</v>
+        <v>Knot Mosaic Space</v>
       </c>
       <c r="C92" t="str">
-        <v>117</v>
+        <v>455</v>
       </c>
       <c r="D92" t="str">
-        <v>group-menu-reunion</v>
+        <v>group-455-menu</v>
       </c>
       <c r="E92" t="str">
-        <v>reunion</v>
+        <v>knotmosaics</v>
       </c>
       <c r="F92" t="str">
-        <v>Match</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Undergraduate Alumni Association</v>
+        <v>PRISM Math Club</v>
       </c>
       <c r="B93" t="str">
-        <v>Undergraduate Alumni Association</v>
+        <v>PRISM Math Club</v>
       </c>
       <c r="C93" t="str">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="D93" t="str">
-        <v>group-menu-undergraduate-alumni-</v>
+        <v>group-menu-prism-math-club</v>
       </c>
       <c r="E93" t="str">
-        <v>uaa</v>
+        <v>prism</v>
       </c>
       <c r="F93" t="str">
         <v>Mismatch</v>
@@ -2272,19 +2272,19 @@
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>New York State Employees Federated Appeal</v>
+        <v>ProofSpace</v>
       </c>
       <c r="B94" t="str">
-        <v>New York State Employees Federated Appeal</v>
+        <v>ProofSpace</v>
       </c>
       <c r="C94" t="str">
-        <v>91</v>
+        <v>32</v>
       </c>
       <c r="D94" t="str">
-        <v>group-menu-sefa</v>
+        <v>group-menu-proofspace</v>
       </c>
       <c r="E94" t="str">
-        <v>sefa</v>
+        <v>proofspace</v>
       </c>
       <c r="F94" t="str">
         <v>Match</v>
@@ -2292,59 +2292,59 @@
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Geneseo Workout Center</v>
+        <v>Savi Iyer</v>
       </c>
       <c r="B95" t="str">
-        <v>Geneseo Workout Center</v>
+        <v>Savi Iyer</v>
       </c>
       <c r="C95" t="str">
-        <v>99</v>
+        <v>161</v>
       </c>
       <c r="D95" t="str">
-        <v>group-menu-workout-center</v>
+        <v>group-menu-savi-iyer</v>
       </c>
       <c r="E95" t="str">
-        <v>workout_center</v>
+        <v>iyer</v>
       </c>
       <c r="F95" t="str">
-        <v>Match</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Department of Mathematics</v>
+        <v>Pathways: Geneseo Peer Advocacy Program</v>
       </c>
       <c r="B96" t="str">
-        <v>Department of Mathematics</v>
+        <v>Pathways: Geneseo Peer Advocacy Program</v>
       </c>
       <c r="C96" t="str">
-        <v>192</v>
+        <v>90</v>
       </c>
       <c r="D96" t="str">
-        <v>group-menu-mathematics</v>
+        <v>group-menu-pathways</v>
       </c>
       <c r="E96" t="str">
-        <v>math</v>
+        <v>pathways</v>
       </c>
       <c r="F96" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Knot Mosaic Space</v>
+        <v>The National Honor Society in Psychology</v>
       </c>
       <c r="B97" t="str">
-        <v>Knot Mosaic Space</v>
+        <v>The National Honor Society in Psychology</v>
       </c>
       <c r="C97" t="str">
-        <v>455</v>
+        <v>70</v>
       </c>
       <c r="D97" t="str">
-        <v>group-455-menu</v>
+        <v>group-menu-the-national-honor-so</v>
       </c>
       <c r="E97" t="str">
-        <v>knotmosaics</v>
+        <v>psi_chi</v>
       </c>
       <c r="F97" t="str">
         <v>Mismatch</v>
@@ -2352,19 +2352,19 @@
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>PRISM Math Club</v>
+        <v>COPLAC 2025</v>
       </c>
       <c r="B98" t="str">
-        <v>PRISM Math Club</v>
+        <v>COPLAC 2025</v>
       </c>
       <c r="C98" t="str">
-        <v>41</v>
+        <v>474</v>
       </c>
       <c r="D98" t="str">
-        <v>group-menu-prism-math-club</v>
+        <v>group-474-menu</v>
       </c>
       <c r="E98" t="str">
-        <v>prism</v>
+        <v>2025-COPLAC-summit</v>
       </c>
       <c r="F98" t="str">
         <v>Mismatch</v>
@@ -2372,59 +2372,59 @@
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>ProofSpace</v>
+        <v>Presidential Search</v>
       </c>
       <c r="B99" t="str">
-        <v>ProofSpace</v>
+        <v>Presidential Search</v>
       </c>
       <c r="C99" t="str">
-        <v>32</v>
+        <v>361</v>
       </c>
       <c r="D99" t="str">
-        <v>group-menu-proofspace</v>
+        <v>group-361-menu</v>
       </c>
       <c r="E99" t="str">
-        <v>proofspace</v>
+        <v>presidential-search</v>
       </c>
       <c r="F99" t="str">
-        <v>Match</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Savi Iyer</v>
+        <v>Political Science</v>
       </c>
       <c r="B100" t="str">
-        <v>Savi Iyer</v>
+        <v>Political Science</v>
       </c>
       <c r="C100" t="str">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="D100" t="str">
-        <v>group-menu-savi-iyer</v>
+        <v>group-menu-political-science</v>
       </c>
       <c r="E100" t="str">
-        <v>iyer</v>
+        <v>political-science</v>
       </c>
       <c r="F100" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Pathways: Geneseo Peer Advocacy Program</v>
+        <v>Philosophy</v>
       </c>
       <c r="B101" t="str">
-        <v>Pathways: Geneseo Peer Advocacy Program</v>
+        <v>Philosophy</v>
       </c>
       <c r="C101" t="str">
-        <v>90</v>
+        <v>189</v>
       </c>
       <c r="D101" t="str">
-        <v>group-menu-pathways</v>
+        <v>group-menu-philosophy</v>
       </c>
       <c r="E101" t="str">
-        <v>pathways</v>
+        <v>philosophy</v>
       </c>
       <c r="F101" t="str">
         <v>Match</v>
@@ -2432,19 +2432,19 @@
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>The National Honor Society in Psychology</v>
+        <v>Department for the Performing Arts</v>
       </c>
       <c r="B102" t="str">
-        <v>The National Honor Society in Psychology</v>
+        <v>Department for the Performing Arts</v>
       </c>
       <c r="C102" t="str">
-        <v>70</v>
+        <v>481</v>
       </c>
       <c r="D102" t="str">
-        <v>group-menu-the-national-honor-so</v>
+        <v>group-481-menu</v>
       </c>
       <c r="E102" t="str">
-        <v>psi_chi</v>
+        <v>performing-arts</v>
       </c>
       <c r="F102" t="str">
         <v>Mismatch</v>
@@ -2452,79 +2452,79 @@
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>COPLAC 2025</v>
+        <v>Art History</v>
       </c>
       <c r="B103" t="str">
-        <v>COPLAC 2025</v>
+        <v>Art History</v>
       </c>
       <c r="C103" t="str">
-        <v>474</v>
+        <v>207</v>
       </c>
       <c r="D103" t="str">
-        <v>group-474-menu</v>
+        <v>group-menu-art-history</v>
       </c>
       <c r="E103" t="str">
-        <v>2025-COPLAC-summit</v>
+        <v>art_history</v>
       </c>
       <c r="F103" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Presidential Search</v>
+        <v>Communication</v>
       </c>
       <c r="B104" t="str">
-        <v>Presidential Search</v>
+        <v>Communication</v>
       </c>
       <c r="C104" t="str">
-        <v>361</v>
+        <v>239</v>
       </c>
       <c r="D104" t="str">
-        <v>group-361-menu</v>
+        <v>group-menu-communication</v>
       </c>
       <c r="E104" t="str">
-        <v>presidential-search</v>
+        <v>communication</v>
       </c>
       <c r="F104" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>Political Science</v>
+        <v>Strategic Planning</v>
       </c>
       <c r="B105" t="str">
-        <v>Political Science</v>
+        <v>Strategic Planning</v>
       </c>
       <c r="C105" t="str">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="D105" t="str">
-        <v>group-menu-political-science</v>
+        <v>group-menu-strategic-planning-gr</v>
       </c>
       <c r="E105" t="str">
-        <v>political-science</v>
+        <v>spg</v>
       </c>
       <c r="F105" t="str">
-        <v>Match</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Philosophy</v>
+        <v>Governance</v>
       </c>
       <c r="B106" t="str">
-        <v>Philosophy</v>
+        <v>Governance</v>
       </c>
       <c r="C106" t="str">
-        <v>189</v>
+        <v>140</v>
       </c>
       <c r="D106" t="str">
-        <v>group-menu-philosophy</v>
+        <v>group-menu-governance</v>
       </c>
       <c r="E106" t="str">
-        <v>philosophy</v>
+        <v>governance</v>
       </c>
       <c r="F106" t="str">
         <v>Match</v>
@@ -2532,79 +2532,79 @@
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>Department for the Performing Arts</v>
+        <v>Anthropology</v>
       </c>
       <c r="B107" t="str">
-        <v>Department for the Performing Arts</v>
+        <v>Anthropology</v>
       </c>
       <c r="C107" t="str">
-        <v>481</v>
+        <v>208</v>
       </c>
       <c r="D107" t="str">
-        <v>group-481-menu</v>
+        <v>group-menu-anthropology</v>
       </c>
       <c r="E107" t="str">
-        <v>performing-arts</v>
+        <v>anthropology</v>
       </c>
       <c r="F107" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>Art History</v>
+        <v>Career Design Center</v>
       </c>
       <c r="B108" t="str">
-        <v>Art History</v>
+        <v>Career Design Center</v>
       </c>
       <c r="C108" t="str">
-        <v>207</v>
+        <v>102</v>
       </c>
       <c r="D108" t="str">
-        <v>group-menu-art-history</v>
+        <v>group-menu-career-development</v>
       </c>
       <c r="E108" t="str">
-        <v>art_history</v>
+        <v>career-design</v>
       </c>
       <c r="F108" t="str">
-        <v>Match</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>Communication</v>
+        <v>Department of Anthropology</v>
       </c>
       <c r="B109" t="str">
-        <v>Communication</v>
+        <v>Department of Anthropology</v>
       </c>
       <c r="C109" t="str">
-        <v>239</v>
+        <v>451</v>
       </c>
       <c r="D109" t="str">
-        <v>group-menu-communication</v>
+        <v>group-451-menu</v>
       </c>
       <c r="E109" t="str">
-        <v>communication</v>
+        <v>department-of-anthropology</v>
       </c>
       <c r="F109" t="str">
-        <v>Match</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>Strategic Planning</v>
+        <v>Individualized Studies Major</v>
       </c>
       <c r="B110" t="str">
-        <v>Strategic Planning</v>
+        <v>Individualized Studies Major</v>
       </c>
       <c r="C110" t="str">
-        <v>210</v>
+        <v>360</v>
       </c>
       <c r="D110" t="str">
-        <v>group-menu-strategic-planning-gr</v>
+        <v>group-360-menu</v>
       </c>
       <c r="E110" t="str">
-        <v>spg</v>
+        <v>individualized-studies</v>
       </c>
       <c r="F110" t="str">
         <v>Mismatch</v>
@@ -2612,39 +2612,39 @@
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Governance</v>
+        <v>Latin American and Caribbean Studies</v>
       </c>
       <c r="B111" t="str">
-        <v>Governance</v>
+        <v>Latin American and Caribbean Studies</v>
       </c>
       <c r="C111" t="str">
-        <v>140</v>
+        <v>211</v>
       </c>
       <c r="D111" t="str">
-        <v>group-menu-governance</v>
+        <v>group-menu-latin-american-studie</v>
       </c>
       <c r="E111" t="str">
-        <v>governance</v>
+        <v>latin_american_caribbean_studies</v>
       </c>
       <c r="F111" t="str">
-        <v>Match</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>Anthropology</v>
+        <v>Sociomedical Sciences</v>
       </c>
       <c r="B112" t="str">
-        <v>Anthropology</v>
+        <v>Sociomedical Sciences</v>
       </c>
       <c r="C112" t="str">
-        <v>208</v>
+        <v>177</v>
       </c>
       <c r="D112" t="str">
-        <v>group-menu-anthropology</v>
+        <v>group-menu-sociomedical-sciences</v>
       </c>
       <c r="E112" t="str">
-        <v>anthropology</v>
+        <v>sociomedical_sciences</v>
       </c>
       <c r="F112" t="str">
         <v>Match</v>
@@ -2652,19 +2652,19 @@
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>Career Design Center</v>
+        <v>Edgar Fellows</v>
       </c>
       <c r="B113" t="str">
-        <v>Career Design Center</v>
+        <v>Edgar Fellows</v>
       </c>
       <c r="C113" t="str">
-        <v>102</v>
+        <v>179</v>
       </c>
       <c r="D113" t="str">
-        <v>group-menu-career-development</v>
+        <v>group-menu-edgar-fellows-program</v>
       </c>
       <c r="E113" t="str">
-        <v>career-design</v>
+        <v>edgar-fellows</v>
       </c>
       <c r="F113" t="str">
         <v>Mismatch</v>
@@ -2672,19 +2672,19 @@
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>Department of Anthropology</v>
+        <v>Administrative Systems</v>
       </c>
       <c r="B114" t="str">
-        <v>Department of Anthropology</v>
+        <v>Administrative Systems</v>
       </c>
       <c r="C114" t="str">
-        <v>451</v>
+        <v>50</v>
       </c>
       <c r="D114" t="str">
-        <v>group-451-menu</v>
+        <v>— None —</v>
       </c>
       <c r="E114" t="str">
-        <v>department-of-anthropology</v>
+        <v>admin_systems</v>
       </c>
       <c r="F114" t="str">
         <v>Mismatch</v>
@@ -2692,19 +2692,19 @@
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>Individualized Studies Major</v>
+        <v>Construction Projects</v>
       </c>
       <c r="B115" t="str">
-        <v>Individualized Studies Major</v>
+        <v>Construction Projects</v>
       </c>
       <c r="C115" t="str">
-        <v>360</v>
+        <v>467</v>
       </c>
       <c r="D115" t="str">
-        <v>group-360-menu</v>
+        <v>group-467-menu</v>
       </c>
       <c r="E115" t="str">
-        <v>individualized-studies</v>
+        <v>construction-projects</v>
       </c>
       <c r="F115" t="str">
         <v>Mismatch</v>
@@ -2712,39 +2712,39 @@
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>Latin American and Caribbean Studies</v>
+        <v>Facilities Services</v>
       </c>
       <c r="B116" t="str">
-        <v>Latin American and Caribbean Studies</v>
+        <v>Facilities Services</v>
       </c>
       <c r="C116" t="str">
-        <v>211</v>
+        <v>107</v>
       </c>
       <c r="D116" t="str">
-        <v>group-menu-latin-american-studie</v>
+        <v>group-menu-facilities-services</v>
       </c>
       <c r="E116" t="str">
-        <v>latin_american_caribbean_studies</v>
+        <v>facilities_services</v>
       </c>
       <c r="F116" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>Sociomedical Sciences</v>
+        <v>Planning &amp; Construction</v>
       </c>
       <c r="B117" t="str">
-        <v>Sociomedical Sciences</v>
+        <v>Planning &amp; Construction</v>
       </c>
       <c r="C117" t="str">
-        <v>177</v>
+        <v>84</v>
       </c>
       <c r="D117" t="str">
-        <v>group-menu-sociomedical-sciences</v>
+        <v>group-menu-facilities-planning</v>
       </c>
       <c r="E117" t="str">
-        <v>sociomedical_sciences</v>
+        <v>facilities_planning</v>
       </c>
       <c r="F117" t="str">
         <v>Match</v>
@@ -2752,19 +2752,19 @@
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>Edgar Fellows</v>
+        <v>Teaching and Learning Center</v>
       </c>
       <c r="B118" t="str">
-        <v>Edgar Fellows</v>
+        <v>Teaching and Learning Center</v>
       </c>
       <c r="C118" t="str">
-        <v>179</v>
+        <v>59</v>
       </c>
       <c r="D118" t="str">
-        <v>group-menu-edgar-fellows-program</v>
+        <v>group-menu-teaching-and-learning</v>
       </c>
       <c r="E118" t="str">
-        <v>edgar-fellows</v>
+        <v>tlc</v>
       </c>
       <c r="F118" t="str">
         <v>Mismatch</v>
@@ -2772,19 +2772,19 @@
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>Administrative Systems</v>
+        <v>Institutional Research</v>
       </c>
       <c r="B119" t="str">
-        <v>Administrative Systems</v>
+        <v>Institutional Research</v>
       </c>
       <c r="C119" t="str">
-        <v>50</v>
+        <v>141</v>
       </c>
       <c r="D119" t="str">
-        <v>— None —</v>
+        <v>group-menu-institutional-researc</v>
       </c>
       <c r="E119" t="str">
-        <v>admin_systems</v>
+        <v>ire</v>
       </c>
       <c r="F119" t="str">
         <v>Mismatch</v>
@@ -2792,19 +2792,19 @@
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>Construction Projects</v>
+        <v>Student Course Experience (SCE)</v>
       </c>
       <c r="B120" t="str">
-        <v>Construction Projects</v>
+        <v>Student Course Experience (SCE)</v>
       </c>
       <c r="C120" t="str">
-        <v>467</v>
+        <v>94</v>
       </c>
       <c r="D120" t="str">
-        <v>group-467-menu</v>
+        <v>group-menu-sofi</v>
       </c>
       <c r="E120" t="str">
-        <v>construction-projects</v>
+        <v>sce</v>
       </c>
       <c r="F120" t="str">
         <v>Mismatch</v>
@@ -2812,19 +2812,19 @@
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>Facilities Services</v>
+        <v>GROW STEM</v>
       </c>
       <c r="B121" t="str">
-        <v>Facilities Services</v>
+        <v>GROW STEM</v>
       </c>
       <c r="C121" t="str">
-        <v>107</v>
+        <v>279</v>
       </c>
       <c r="D121" t="str">
-        <v>group-menu-facilities-services</v>
+        <v>group-menu-grow-stem</v>
       </c>
       <c r="E121" t="str">
-        <v>facilities_services</v>
+        <v>growstem</v>
       </c>
       <c r="F121" t="str">
         <v>Match</v>
@@ -2832,19 +2832,19 @@
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>Planning &amp; Construction</v>
+        <v>Biochemistry Program</v>
       </c>
       <c r="B122" t="str">
-        <v>Planning &amp; Construction</v>
+        <v>Biochemistry Program</v>
       </c>
       <c r="C122" t="str">
-        <v>84</v>
+        <v>205</v>
       </c>
       <c r="D122" t="str">
-        <v>group-menu-facilities-planning</v>
+        <v>group-menu-biochemistry</v>
       </c>
       <c r="E122" t="str">
-        <v>facilities_planning</v>
+        <v>biochemistry</v>
       </c>
       <c r="F122" t="str">
         <v>Match</v>
@@ -2852,19 +2852,19 @@
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>Teaching and Learning Center</v>
+        <v>Chemistry Stockroom</v>
       </c>
       <c r="B123" t="str">
-        <v>Teaching and Learning Center</v>
+        <v>Chemistry Stockroom</v>
       </c>
       <c r="C123" t="str">
-        <v>59</v>
+        <v>234</v>
       </c>
       <c r="D123" t="str">
-        <v>group-menu-teaching-and-learning</v>
+        <v>group-menu-chemistry-stockroom</v>
       </c>
       <c r="E123" t="str">
-        <v>tlc</v>
+        <v>chemstockroom</v>
       </c>
       <c r="F123" t="str">
         <v>Mismatch</v>
@@ -2872,39 +2872,39 @@
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>Institutional Research</v>
+        <v>Department of Chemistry and Biochemistry</v>
       </c>
       <c r="B124" t="str">
-        <v>Institutional Research</v>
+        <v>Department of Chemistry and Biochemistry</v>
       </c>
       <c r="C124" t="str">
-        <v>141</v>
+        <v>201</v>
       </c>
       <c r="D124" t="str">
-        <v>group-menu-institutional-researc</v>
+        <v>group-menu-chemistry</v>
       </c>
       <c r="E124" t="str">
-        <v>ire</v>
+        <v>chemistry</v>
       </c>
       <c r="F124" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>Student Course Experience (SCE)</v>
+        <v>Campus Scheduling &amp; Special Events</v>
       </c>
       <c r="B125" t="str">
-        <v>Student Course Experience (SCE)</v>
+        <v>Campus Scheduling &amp; Special Events</v>
       </c>
       <c r="C125" t="str">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="D125" t="str">
-        <v>group-menu-sofi</v>
+        <v>group-menu-campus-scheduling-spe</v>
       </c>
       <c r="E125" t="str">
-        <v>sce</v>
+        <v>events_office</v>
       </c>
       <c r="F125" t="str">
         <v>Mismatch</v>
@@ -2912,19 +2912,19 @@
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>GROW STEM</v>
+        <v>Commencement</v>
       </c>
       <c r="B126" t="str">
-        <v>GROW STEM</v>
+        <v>Commencement</v>
       </c>
       <c r="C126" t="str">
-        <v>279</v>
+        <v>103</v>
       </c>
       <c r="D126" t="str">
-        <v>group-menu-grow-stem</v>
+        <v>group-menu-commencement</v>
       </c>
       <c r="E126" t="str">
-        <v>growstem</v>
+        <v>commencement</v>
       </c>
       <c r="F126" t="str">
         <v>Match</v>
@@ -2932,19 +2932,19 @@
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>Biochemistry Program</v>
+        <v>Sustainability</v>
       </c>
       <c r="B127" t="str">
-        <v>Biochemistry Program</v>
+        <v>Sustainability</v>
       </c>
       <c r="C127" t="str">
-        <v>205</v>
+        <v>75</v>
       </c>
       <c r="D127" t="str">
-        <v>group-menu-biochemistry</v>
+        <v>group-menu-sustainability</v>
       </c>
       <c r="E127" t="str">
-        <v>biochemistry</v>
+        <v>sustainability</v>
       </c>
       <c r="F127" t="str">
         <v>Match</v>
@@ -2952,19 +2952,19 @@
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>Chemistry Stockroom</v>
+        <v>Environmental Health &amp; Safety</v>
       </c>
       <c r="B128" t="str">
-        <v>Chemistry Stockroom</v>
+        <v>Environmental Health &amp; Safety</v>
       </c>
       <c r="C128" t="str">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D128" t="str">
-        <v>group-menu-chemistry-stockroom</v>
+        <v>group-menu-environmental-health-</v>
       </c>
       <c r="E128" t="str">
-        <v>chemstockroom</v>
+        <v>ehs</v>
       </c>
       <c r="F128" t="str">
         <v>Mismatch</v>
@@ -2972,19 +2972,19 @@
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>Department of Chemistry and Biochemistry</v>
+        <v>NY-Alert</v>
       </c>
       <c r="B129" t="str">
-        <v>Department of Chemistry and Biochemistry</v>
+        <v>NY-Alert</v>
       </c>
       <c r="C129" t="str">
-        <v>201</v>
+        <v>238</v>
       </c>
       <c r="D129" t="str">
-        <v>group-menu-chemistry</v>
+        <v>group-menu-ny-alert</v>
       </c>
       <c r="E129" t="str">
-        <v>chemistry</v>
+        <v>ny-alert</v>
       </c>
       <c r="F129" t="str">
         <v>Match</v>
@@ -2992,59 +2992,59 @@
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>Campus Scheduling &amp; Special Events</v>
+        <v>Geography and Sustainability Studies</v>
       </c>
       <c r="B130" t="str">
-        <v>Campus Scheduling &amp; Special Events</v>
+        <v>Geography and Sustainability Studies</v>
       </c>
       <c r="C130" t="str">
-        <v>65</v>
+        <v>196</v>
       </c>
       <c r="D130" t="str">
-        <v>group-menu-campus-scheduling-spe</v>
+        <v>group-menu-geography</v>
       </c>
       <c r="E130" t="str">
-        <v>events_office</v>
+        <v>geography</v>
       </c>
       <c r="F130" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>Commencement</v>
+        <v>Comparative Literature</v>
       </c>
       <c r="B131" t="str">
-        <v>Commencement</v>
+        <v>Comparative Literature</v>
       </c>
       <c r="C131" t="str">
-        <v>103</v>
+        <v>200</v>
       </c>
       <c r="D131" t="str">
-        <v>group-menu-commencement</v>
+        <v>group-menu-comparative-literatur</v>
       </c>
       <c r="E131" t="str">
-        <v>commencement</v>
+        <v>comparative_literature</v>
       </c>
       <c r="F131" t="str">
-        <v>Match</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>Sustainability</v>
+        <v>Safezone</v>
       </c>
       <c r="B132" t="str">
-        <v>Sustainability</v>
+        <v>Safezone</v>
       </c>
       <c r="C132" t="str">
-        <v>75</v>
+        <v>303</v>
       </c>
       <c r="D132" t="str">
-        <v>group-menu-sustainability</v>
+        <v>safezone</v>
       </c>
       <c r="E132" t="str">
-        <v>sustainability</v>
+        <v>safezone</v>
       </c>
       <c r="F132" t="str">
         <v>Match</v>
@@ -3052,19 +3052,19 @@
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>Environmental Health &amp; Safety</v>
+        <v>AI At Geneseo</v>
       </c>
       <c r="B133" t="str">
-        <v>Environmental Health &amp; Safety</v>
+        <v>AI At Geneseo</v>
       </c>
       <c r="C133" t="str">
-        <v>230</v>
+        <v>480</v>
       </c>
       <c r="D133" t="str">
-        <v>group-menu-environmental-health-</v>
+        <v>group-480-menu</v>
       </c>
       <c r="E133" t="str">
-        <v>ehs</v>
+        <v>ai</v>
       </c>
       <c r="F133" t="str">
         <v>Mismatch</v>
@@ -3072,39 +3072,39 @@
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>NY-Alert</v>
+        <v>Center for Digital Learning</v>
       </c>
       <c r="B134" t="str">
-        <v>NY-Alert</v>
+        <v>Center for Digital Learning</v>
       </c>
       <c r="C134" t="str">
-        <v>238</v>
+        <v>338</v>
       </c>
       <c r="D134" t="str">
-        <v>group-menu-ny-alert</v>
+        <v>group-338-menu</v>
       </c>
       <c r="E134" t="str">
-        <v>ny-alert</v>
+        <v>cdl</v>
       </c>
       <c r="F134" t="str">
-        <v>Match</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>Geography and Sustainability Studies</v>
+        <v>English Department Peace Poetry</v>
       </c>
       <c r="B135" t="str">
-        <v>Geography and Sustainability Studies</v>
+        <v>English Department Peace Poetry</v>
       </c>
       <c r="C135" t="str">
-        <v>196</v>
+        <v>80</v>
       </c>
       <c r="D135" t="str">
-        <v>group-menu-geography</v>
+        <v>group-menu-peace-poetry</v>
       </c>
       <c r="E135" t="str">
-        <v>geography</v>
+        <v>peace_poetry</v>
       </c>
       <c r="F135" t="str">
         <v>Match</v>
@@ -3112,19 +3112,19 @@
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>Comparative Literature</v>
+        <v>Aaron J Steinhauer</v>
       </c>
       <c r="B136" t="str">
-        <v>Comparative Literature</v>
+        <v>Aaron J Steinhauer</v>
       </c>
       <c r="C136" t="str">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="D136" t="str">
-        <v>group-menu-comparative-literatur</v>
+        <v>group-menu-aaron-j-steinhauer</v>
       </c>
       <c r="E136" t="str">
-        <v>comparative_literature</v>
+        <v>steinhauer</v>
       </c>
       <c r="F136" t="str">
         <v>Mismatch</v>
@@ -3132,19 +3132,19 @@
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>Safezone</v>
+        <v>Financial Aid</v>
       </c>
       <c r="B137" t="str">
-        <v>Safezone</v>
+        <v>Financial Aid</v>
       </c>
       <c r="C137" t="str">
-        <v>303</v>
+        <v>139</v>
       </c>
       <c r="D137" t="str">
-        <v>safezone</v>
+        <v>group-menu-financial-aid</v>
       </c>
       <c r="E137" t="str">
-        <v>safezone</v>
+        <v>financial_aid</v>
       </c>
       <c r="F137" t="str">
         <v>Match</v>
@@ -3152,19 +3152,19 @@
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>AI At Geneseo</v>
+        <v>Campus Auxiliary Services</v>
       </c>
       <c r="B138" t="str">
-        <v>AI At Geneseo</v>
+        <v>Campus Auxiliary Services</v>
       </c>
       <c r="C138" t="str">
-        <v>480</v>
+        <v>224</v>
       </c>
       <c r="D138" t="str">
-        <v>group-480-menu</v>
+        <v>employee-newsletter-0</v>
       </c>
       <c r="E138" t="str">
-        <v>ai</v>
+        <v>cas</v>
       </c>
       <c r="F138" t="str">
         <v>Mismatch</v>
@@ -3172,19 +3172,19 @@
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>Center for Digital Learning</v>
+        <v>GOLD Program</v>
       </c>
       <c r="B139" t="str">
-        <v>Center for Digital Learning</v>
+        <v>GOLD Program</v>
       </c>
       <c r="C139" t="str">
-        <v>338</v>
+        <v>114</v>
       </c>
       <c r="D139" t="str">
-        <v>group-338-menu</v>
+        <v>group-menu-gold-program</v>
       </c>
       <c r="E139" t="str">
-        <v>cdl</v>
+        <v>gold</v>
       </c>
       <c r="F139" t="str">
         <v>Mismatch</v>
@@ -3192,39 +3192,39 @@
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>English Department Peace Poetry</v>
+        <v>Philosophy, Politics, and Economics</v>
       </c>
       <c r="B140" t="str">
-        <v>English Department Peace Poetry</v>
+        <v>Philosophy, Politics, and Economics</v>
       </c>
       <c r="C140" t="str">
-        <v>80</v>
+        <v>472</v>
       </c>
       <c r="D140" t="str">
-        <v>group-menu-peace-poetry</v>
+        <v>group-472-menu</v>
       </c>
       <c r="E140" t="str">
-        <v>peace_poetry</v>
+        <v>philosophy-politics-economics</v>
       </c>
       <c r="F140" t="str">
-        <v>Match</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>Aaron J Steinhauer</v>
+        <v>Dean of Students</v>
       </c>
       <c r="B141" t="str">
-        <v>Aaron J Steinhauer</v>
+        <v>Dean of Students</v>
       </c>
       <c r="C141" t="str">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="D141" t="str">
-        <v>group-menu-aaron-j-steinhauer</v>
+        <v>group-menu-dean-of-students</v>
       </c>
       <c r="E141" t="str">
-        <v>steinhauer</v>
+        <v>dean_students</v>
       </c>
       <c r="F141" t="str">
         <v>Mismatch</v>
@@ -3232,59 +3232,59 @@
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>Financial Aid</v>
+        <v>Student Athlete Resource Center</v>
       </c>
       <c r="B142" t="str">
-        <v>Financial Aid</v>
+        <v>Student Athlete Resource Center</v>
       </c>
       <c r="C142" t="str">
-        <v>139</v>
+        <v>325</v>
       </c>
       <c r="D142" t="str">
-        <v>group-menu-financial-aid</v>
+        <v>student-athlete-resource-ce</v>
       </c>
       <c r="E142" t="str">
-        <v>financial_aid</v>
+        <v>sarc</v>
       </c>
       <c r="F142" t="str">
-        <v>Match</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>Campus Auxiliary Services</v>
+        <v>Vote</v>
       </c>
       <c r="B143" t="str">
-        <v>Campus Auxiliary Services</v>
+        <v>Vote</v>
       </c>
       <c r="C143" t="str">
-        <v>224</v>
+        <v>150</v>
       </c>
       <c r="D143" t="str">
-        <v>employee-newsletter-0</v>
+        <v>group-menu-vote</v>
       </c>
       <c r="E143" t="str">
-        <v>cas</v>
+        <v>vote</v>
       </c>
       <c r="F143" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>GOLD Program</v>
+        <v>Women's and Gender Studies</v>
       </c>
       <c r="B144" t="str">
-        <v>GOLD Program</v>
+        <v>Women's and Gender Studies</v>
       </c>
       <c r="C144" t="str">
-        <v>114</v>
+        <v>183</v>
       </c>
       <c r="D144" t="str">
-        <v>group-menu-gold-program</v>
+        <v>group-menu-women-s-studies</v>
       </c>
       <c r="E144" t="str">
-        <v>gold</v>
+        <v>wgst</v>
       </c>
       <c r="F144" t="str">
         <v>Mismatch</v>
@@ -3292,19 +3292,19 @@
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>Philosophy, Politics, and Economics</v>
+        <v>Student Conduct &amp; Community Standards</v>
       </c>
       <c r="B145" t="str">
-        <v>Philosophy, Politics, and Economics</v>
+        <v>Student Conduct &amp; Community Standards</v>
       </c>
       <c r="C145" t="str">
-        <v>472</v>
+        <v>105</v>
       </c>
       <c r="D145" t="str">
-        <v>group-472-menu</v>
+        <v>group-menu-student-conduct-commu</v>
       </c>
       <c r="E145" t="str">
-        <v>philosophy-politics-economics</v>
+        <v>conduct</v>
       </c>
       <c r="F145" t="str">
         <v>Mismatch</v>
@@ -3312,19 +3312,19 @@
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>Dean of Students</v>
+        <v>Student Handbook</v>
       </c>
       <c r="B146" t="str">
-        <v>Dean of Students</v>
+        <v>Student Handbook</v>
       </c>
       <c r="C146" t="str">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="D146" t="str">
-        <v>group-menu-dean-of-students</v>
+        <v>group-menu-student-handbook</v>
       </c>
       <c r="E146" t="str">
-        <v>dean_students</v>
+        <v>handbook</v>
       </c>
       <c r="F146" t="str">
         <v>Mismatch</v>
@@ -3332,39 +3332,39 @@
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>Student Athlete Resource Center</v>
+        <v>Accounting Society</v>
       </c>
       <c r="B147" t="str">
-        <v>Student Athlete Resource Center</v>
+        <v>Accounting Society</v>
       </c>
       <c r="C147" t="str">
-        <v>325</v>
+        <v>48</v>
       </c>
       <c r="D147" t="str">
-        <v>student-athlete-resource-ce</v>
+        <v>group-menu-accounting-society</v>
       </c>
       <c r="E147" t="str">
-        <v>sarc</v>
+        <v>accounting_society</v>
       </c>
       <c r="F147" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>Vote</v>
+        <v>Venture Works</v>
       </c>
       <c r="B148" t="str">
-        <v>Vote</v>
+        <v>Venture Works</v>
       </c>
       <c r="C148" t="str">
-        <v>150</v>
+        <v>231</v>
       </c>
       <c r="D148" t="str">
-        <v>group-menu-vote</v>
+        <v>group-menu-ventureworks</v>
       </c>
       <c r="E148" t="str">
-        <v>vote</v>
+        <v>ventureworks</v>
       </c>
       <c r="F148" t="str">
         <v>Match</v>
@@ -3372,39 +3372,39 @@
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>Women's and Gender Studies</v>
+        <v>Enrollment Management</v>
       </c>
       <c r="B149" t="str">
-        <v>Women's and Gender Studies</v>
+        <v>Enrollment Management</v>
       </c>
       <c r="C149" t="str">
-        <v>183</v>
+        <v>316</v>
       </c>
       <c r="D149" t="str">
-        <v>group-menu-women-s-studies</v>
+        <v>enrollment-management</v>
       </c>
       <c r="E149" t="str">
-        <v>wgst</v>
+        <v>enrollment-management</v>
       </c>
       <c r="F149" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>Student Conduct &amp; Community Standards</v>
+        <v>Alpha Phi Omega</v>
       </c>
       <c r="B150" t="str">
-        <v>Student Conduct &amp; Community Standards</v>
+        <v>Alpha Phi Omega</v>
       </c>
       <c r="C150" t="str">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="D150" t="str">
-        <v>group-menu-student-conduct-commu</v>
+        <v>group-menu-alpha-phi-omega</v>
       </c>
       <c r="E150" t="str">
-        <v>conduct</v>
+        <v>apo</v>
       </c>
       <c r="F150" t="str">
         <v>Mismatch</v>
@@ -3412,19 +3412,19 @@
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>Student Handbook</v>
+        <v>Internal Control</v>
       </c>
       <c r="B151" t="str">
-        <v>Student Handbook</v>
+        <v>Internal Control</v>
       </c>
       <c r="C151" t="str">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="D151" t="str">
-        <v>group-menu-student-handbook</v>
+        <v>group-menu-internal-controls</v>
       </c>
       <c r="E151" t="str">
-        <v>handbook</v>
+        <v>internal_control</v>
       </c>
       <c r="F151" t="str">
         <v>Mismatch</v>
@@ -3432,79 +3432,79 @@
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>Accounting Society</v>
+        <v>Alpha Kappa Psi</v>
       </c>
       <c r="B152" t="str">
-        <v>Accounting Society</v>
+        <v>Alpha Kappa Psi</v>
       </c>
       <c r="C152" t="str">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="D152" t="str">
-        <v>group-menu-accounting-society</v>
+        <v>group-menu-alpha-kappa-psi</v>
       </c>
       <c r="E152" t="str">
-        <v>accounting_society</v>
+        <v>akpsi</v>
       </c>
       <c r="F152" t="str">
-        <v>Match</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>Venture Works</v>
+        <v>Geneseo Insomnia Film Festival</v>
       </c>
       <c r="B153" t="str">
-        <v>Venture Works</v>
+        <v>Geneseo Insomnia Film Festival</v>
       </c>
       <c r="C153" t="str">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="D153" t="str">
-        <v>group-menu-ventureworks</v>
+        <v>group-menu-insomnia-film-festiva</v>
       </c>
       <c r="E153" t="str">
-        <v>ventureworks</v>
+        <v>insomnia</v>
       </c>
       <c r="F153" t="str">
-        <v>Match</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>Enrollment Management</v>
+        <v>Army ROTC</v>
       </c>
       <c r="B154" t="str">
-        <v>Enrollment Management</v>
+        <v>Army ROTC</v>
       </c>
       <c r="C154" t="str">
-        <v>316</v>
+        <v>471</v>
       </c>
       <c r="D154" t="str">
-        <v>enrollment-management</v>
+        <v>group-471-menu</v>
       </c>
       <c r="E154" t="str">
-        <v>enrollment-management</v>
+        <v>rotc</v>
       </c>
       <c r="F154" t="str">
-        <v>Match</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>Alpha Phi Omega</v>
+        <v>EIT Accessibility</v>
       </c>
       <c r="B155" t="str">
-        <v>Alpha Phi Omega</v>
+        <v>EIT Accessibility</v>
       </c>
       <c r="C155" t="str">
-        <v>47</v>
+        <v>321</v>
       </c>
       <c r="D155" t="str">
-        <v>group-menu-alpha-phi-omega</v>
+        <v>web-accessibility</v>
       </c>
       <c r="E155" t="str">
-        <v>apo</v>
+        <v>eit-accessibility</v>
       </c>
       <c r="F155" t="str">
         <v>Mismatch</v>
@@ -3512,19 +3512,19 @@
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>Internal Control</v>
+        <v>Office of Accessibility</v>
       </c>
       <c r="B156" t="str">
-        <v>Internal Control</v>
+        <v>Office of Accessibility</v>
       </c>
       <c r="C156" t="str">
-        <v>85</v>
+        <v>320</v>
       </c>
       <c r="D156" t="str">
-        <v>group-menu-internal-controls</v>
+        <v>office-of-accessibility</v>
       </c>
       <c r="E156" t="str">
-        <v>internal_control</v>
+        <v>accessibility-office</v>
       </c>
       <c r="F156" t="str">
         <v>Mismatch</v>
@@ -3532,39 +3532,39 @@
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>Alpha Kappa Psi</v>
+        <v>McNair</v>
       </c>
       <c r="B157" t="str">
-        <v>Alpha Kappa Psi</v>
+        <v>McNair</v>
       </c>
       <c r="C157" t="str">
-        <v>22</v>
+        <v>297</v>
       </c>
       <c r="D157" t="str">
-        <v>group-menu-alpha-kappa-psi</v>
+        <v>mcnair</v>
       </c>
       <c r="E157" t="str">
-        <v>akpsi</v>
+        <v>mcnair</v>
       </c>
       <c r="F157" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>Geneseo Insomnia Film Festival</v>
+        <v>Red Cross Club</v>
       </c>
       <c r="B158" t="str">
-        <v>Geneseo Insomnia Film Festival</v>
+        <v>Red Cross Club</v>
       </c>
       <c r="C158" t="str">
-        <v>259</v>
+        <v>69</v>
       </c>
       <c r="D158" t="str">
-        <v>group-menu-insomnia-film-festiva</v>
+        <v>group-menu-red-cross-club</v>
       </c>
       <c r="E158" t="str">
-        <v>insomnia</v>
+        <v>redcross</v>
       </c>
       <c r="F158" t="str">
         <v>Mismatch</v>
@@ -3572,19 +3572,19 @@
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>Army ROTC</v>
+        <v>Yoga Club</v>
       </c>
       <c r="B159" t="str">
-        <v>Army ROTC</v>
+        <v>Yoga Club</v>
       </c>
       <c r="C159" t="str">
-        <v>471</v>
+        <v>38</v>
       </c>
       <c r="D159" t="str">
-        <v>group-471-menu</v>
+        <v>group-menu-yoga-club</v>
       </c>
       <c r="E159" t="str">
-        <v>rotc</v>
+        <v>yoga</v>
       </c>
       <c r="F159" t="str">
         <v>Mismatch</v>
@@ -3592,19 +3592,19 @@
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>EIT Accessibility</v>
+        <v>Kappa Delta Pi</v>
       </c>
       <c r="B160" t="str">
-        <v>EIT Accessibility</v>
+        <v>Kappa Delta Pi</v>
       </c>
       <c r="C160" t="str">
-        <v>321</v>
+        <v>362</v>
       </c>
       <c r="D160" t="str">
-        <v>web-accessibility</v>
+        <v>group-362-menu</v>
       </c>
       <c r="E160" t="str">
-        <v>eit-accessibility</v>
+        <v>kdp</v>
       </c>
       <c r="F160" t="str">
         <v>Mismatch</v>
@@ -3612,19 +3612,19 @@
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>Office of Accessibility</v>
+        <v>The L I V E S Program</v>
       </c>
       <c r="B161" t="str">
-        <v>Office of Accessibility</v>
+        <v>The L I V E S Program</v>
       </c>
       <c r="C161" t="str">
-        <v>320</v>
+        <v>87</v>
       </c>
       <c r="D161" t="str">
-        <v>office-of-accessibility</v>
+        <v>group-menu-the-l-i-v-e-s-program</v>
       </c>
       <c r="E161" t="str">
-        <v>accessibility-office</v>
+        <v>lives</v>
       </c>
       <c r="F161" t="str">
         <v>Mismatch</v>
@@ -3632,19 +3632,19 @@
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>McNair</v>
+        <v>Tri-Beta</v>
       </c>
       <c r="B162" t="str">
-        <v>McNair</v>
+        <v>Tri-Beta</v>
       </c>
       <c r="C162" t="str">
-        <v>297</v>
+        <v>39</v>
       </c>
       <c r="D162" t="str">
-        <v>mcnair</v>
+        <v>group-menu-tri-beta</v>
       </c>
       <c r="E162" t="str">
-        <v>mcnair</v>
+        <v>tribeta</v>
       </c>
       <c r="F162" t="str">
         <v>Match</v>
@@ -3652,19 +3652,19 @@
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>Red Cross Club</v>
+        <v>Behavioral Toxicology Lab</v>
       </c>
       <c r="B163" t="str">
-        <v>Red Cross Club</v>
+        <v>Behavioral Toxicology Lab</v>
       </c>
       <c r="C163" t="str">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="D163" t="str">
-        <v>group-menu-red-cross-club</v>
+        <v>group-menu-behavioral-toxicology</v>
       </c>
       <c r="E163" t="str">
-        <v>redcross</v>
+        <v>behavtox</v>
       </c>
       <c r="F163" t="str">
         <v>Mismatch</v>
@@ -3672,19 +3672,19 @@
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>Yoga Club</v>
+        <v>Greek Affairs</v>
       </c>
       <c r="B164" t="str">
-        <v>Yoga Club</v>
+        <v>Greek Affairs</v>
       </c>
       <c r="C164" t="str">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="D164" t="str">
-        <v>group-menu-yoga-club</v>
+        <v>group-menu-greek-affairs</v>
       </c>
       <c r="E164" t="str">
-        <v>yoga</v>
+        <v>greek</v>
       </c>
       <c r="F164" t="str">
         <v>Mismatch</v>
@@ -3692,39 +3692,39 @@
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>Kappa Delta Pi</v>
+        <v>Inter Greek Council</v>
       </c>
       <c r="B165" t="str">
-        <v>Kappa Delta Pi</v>
+        <v>Inter Greek Council</v>
       </c>
       <c r="C165" t="str">
-        <v>362</v>
+        <v>116</v>
       </c>
       <c r="D165" t="str">
-        <v>group-362-menu</v>
+        <v>group-menu-inter-greek-council</v>
       </c>
       <c r="E165" t="str">
-        <v>kdp</v>
+        <v>inter_greek_council</v>
       </c>
       <c r="F165" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>The L I V E S Program</v>
+        <v>Off-Campus Living</v>
       </c>
       <c r="B166" t="str">
-        <v>The L I V E S Program</v>
+        <v>Off-Campus Living</v>
       </c>
       <c r="C166" t="str">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D166" t="str">
-        <v>group-menu-the-l-i-v-e-s-program</v>
+        <v>group-menu-off-campus-living</v>
       </c>
       <c r="E166" t="str">
-        <v>lives</v>
+        <v>off_campus</v>
       </c>
       <c r="F166" t="str">
         <v>Mismatch</v>
@@ -3732,119 +3732,119 @@
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>Tri-Beta</v>
+        <v>Writing Program</v>
       </c>
       <c r="B167" t="str">
-        <v>Tri-Beta</v>
+        <v>Writing Program</v>
       </c>
       <c r="C167" t="str">
-        <v>39</v>
+        <v>475</v>
       </c>
       <c r="D167" t="str">
-        <v>group-menu-tri-beta</v>
+        <v>group-475-menu</v>
       </c>
       <c r="E167" t="str">
-        <v>tribeta</v>
+        <v>writing-program</v>
       </c>
       <c r="F167" t="str">
-        <v>Match</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>Behavioral Toxicology Lab</v>
+        <v>Student Volunteerism and Community Engagement</v>
       </c>
       <c r="B168" t="str">
-        <v>Behavioral Toxicology Lab</v>
+        <v>Student Volunteerism and Community Engagement</v>
       </c>
       <c r="C168" t="str">
-        <v>36</v>
+        <v>135</v>
       </c>
       <c r="D168" t="str">
-        <v>group-menu-behavioral-toxicology</v>
+        <v>group-menu-volunteer-center</v>
       </c>
       <c r="E168" t="str">
-        <v>behavtox</v>
+        <v>volunteer_center</v>
       </c>
       <c r="F168" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>Greek Affairs</v>
+        <v>Pre-Med/Pre-Health</v>
       </c>
       <c r="B169" t="str">
-        <v>Greek Affairs</v>
+        <v>Pre-Med/Pre-Health</v>
       </c>
       <c r="C169" t="str">
-        <v>77</v>
+        <v>182</v>
       </c>
       <c r="D169" t="str">
-        <v>group-menu-greek-affairs</v>
+        <v>group-menu-premed</v>
       </c>
       <c r="E169" t="str">
-        <v>greek</v>
+        <v>premed</v>
       </c>
       <c r="F169" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>Inter Greek Council</v>
+        <v>Academic Affairs Committee</v>
       </c>
       <c r="B170" t="str">
-        <v>Inter Greek Council</v>
+        <v>Academic Affairs Committee</v>
       </c>
       <c r="C170" t="str">
-        <v>116</v>
+        <v>272</v>
       </c>
       <c r="D170" t="str">
-        <v>group-menu-inter-greek-council</v>
+        <v>group-menu-academic-affairs-comm</v>
       </c>
       <c r="E170" t="str">
-        <v>inter_greek_council</v>
+        <v>aac</v>
       </c>
       <c r="F170" t="str">
-        <v>Match</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>Off-Campus Living</v>
+        <v>Crew</v>
       </c>
       <c r="B171" t="str">
-        <v>Off-Campus Living</v>
+        <v>Crew</v>
       </c>
       <c r="C171" t="str">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="D171" t="str">
-        <v>group-menu-off-campus-living</v>
+        <v>group-menu-crew</v>
       </c>
       <c r="E171" t="str">
-        <v>off_campus</v>
+        <v>crew</v>
       </c>
       <c r="F171" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>Make Your Mark</v>
+        <v>Dr. Shuo Chen</v>
       </c>
       <c r="B172" t="str">
-        <v>Make Your Mark</v>
+        <v>Dr. Shuo Chen</v>
       </c>
       <c r="C172" t="str">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="D172" t="str">
         <v>— None —</v>
       </c>
       <c r="E172" t="str">
-        <v>makeyourmark</v>
+        <v>chens</v>
       </c>
       <c r="F172" t="str">
         <v>Mismatch</v>
@@ -3852,19 +3852,19 @@
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>Writing Program</v>
+        <v>Sponsored Programs Administration</v>
       </c>
       <c r="B173" t="str">
-        <v>Writing Program</v>
+        <v>Sponsored Programs Administration</v>
       </c>
       <c r="C173" t="str">
-        <v>475</v>
+        <v>110</v>
       </c>
       <c r="D173" t="str">
-        <v>group-475-menu</v>
+        <v>— None —</v>
       </c>
       <c r="E173" t="str">
-        <v>writing-program</v>
+        <v>grants</v>
       </c>
       <c r="F173" t="str">
         <v>Mismatch</v>
@@ -3872,39 +3872,39 @@
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>Student Volunteerism and Community Engagement</v>
+        <v>David Geiger</v>
       </c>
       <c r="B174" t="str">
-        <v>Student Volunteerism and Community Engagement</v>
+        <v>David Geiger</v>
       </c>
       <c r="C174" t="str">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="D174" t="str">
-        <v>group-menu-volunteer-center</v>
+        <v>group-menu-david-geiger</v>
       </c>
       <c r="E174" t="str">
-        <v>volunteer_center</v>
+        <v>geiger</v>
       </c>
       <c r="F174" t="str">
-        <v>Match</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>Pre-Med/Pre-Health</v>
+        <v>WGSU</v>
       </c>
       <c r="B175" t="str">
-        <v>Pre-Med/Pre-Health</v>
+        <v>WGSU</v>
       </c>
       <c r="C175" t="str">
-        <v>182</v>
+        <v>288</v>
       </c>
       <c r="D175" t="str">
-        <v>group-menu-premed</v>
+        <v>wgsu</v>
       </c>
       <c r="E175" t="str">
-        <v>premed</v>
+        <v>wgsu</v>
       </c>
       <c r="F175" t="str">
         <v>Match</v>
@@ -3912,19 +3912,19 @@
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>Academic Affairs Committee</v>
+        <v>Black Studies/Africana Studies</v>
       </c>
       <c r="B176" t="str">
-        <v>Academic Affairs Committee</v>
+        <v>Black Studies/Africana Studies</v>
       </c>
       <c r="C176" t="str">
-        <v>272</v>
+        <v>237</v>
       </c>
       <c r="D176" t="str">
-        <v>group-menu-academic-affairs-comm</v>
+        <v>group-menu-black-studies</v>
       </c>
       <c r="E176" t="str">
-        <v>aac</v>
+        <v>abs</v>
       </c>
       <c r="F176" t="str">
         <v>Mismatch</v>
@@ -3932,59 +3932,59 @@
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>Crew</v>
+        <v>Maria H. Lima</v>
       </c>
       <c r="B177" t="str">
-        <v>Crew</v>
+        <v>Maria H. Lima</v>
       </c>
       <c r="C177" t="str">
-        <v>45</v>
+        <v>162</v>
       </c>
       <c r="D177" t="str">
-        <v>group-menu-crew</v>
+        <v>— None —</v>
       </c>
       <c r="E177" t="str">
-        <v>crew</v>
+        <v>lima</v>
       </c>
       <c r="F177" t="str">
-        <v>Match</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>Dr. Shuo Chen</v>
+        <v>Biophysics</v>
       </c>
       <c r="B178" t="str">
-        <v>Dr. Shuo Chen</v>
+        <v>Biophysics</v>
       </c>
       <c r="C178" t="str">
-        <v>154</v>
+        <v>203</v>
       </c>
       <c r="D178" t="str">
-        <v>— None —</v>
+        <v>group-menu-biophysics</v>
       </c>
       <c r="E178" t="str">
-        <v>chens</v>
+        <v>biophysics</v>
       </c>
       <c r="F178" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>Sponsored Programs Administration</v>
+        <v>George A Marcus</v>
       </c>
       <c r="B179" t="str">
-        <v>Sponsored Programs Administration</v>
+        <v>George A Marcus</v>
       </c>
       <c r="C179" t="str">
-        <v>110</v>
+        <v>163</v>
       </c>
       <c r="D179" t="str">
-        <v>— None —</v>
+        <v>group-menu-george-a-marcus</v>
       </c>
       <c r="E179" t="str">
-        <v>grants</v>
+        <v>marcus</v>
       </c>
       <c r="F179" t="str">
         <v>Mismatch</v>
@@ -3992,139 +3992,139 @@
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>David Geiger</v>
+        <v>Wadsworth Auditorium</v>
       </c>
       <c r="B180" t="str">
-        <v>David Geiger</v>
+        <v>Wadsworth Auditorium</v>
       </c>
       <c r="C180" t="str">
-        <v>159</v>
+        <v>98</v>
       </c>
       <c r="D180" t="str">
-        <v>group-menu-david-geiger</v>
+        <v>group-menu-wadsworth-auditorium</v>
       </c>
       <c r="E180" t="str">
-        <v>geiger</v>
+        <v>wadsworth_auditorium</v>
       </c>
       <c r="F180" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>WGSU</v>
+        <v>Fulbright Program</v>
       </c>
       <c r="B181" t="str">
-        <v>WGSU</v>
+        <v>Fulbright Program</v>
       </c>
       <c r="C181" t="str">
-        <v>288</v>
+        <v>334</v>
       </c>
       <c r="D181" t="str">
-        <v>wgsu</v>
+        <v>group-334-menu</v>
       </c>
       <c r="E181" t="str">
-        <v>wgsu</v>
+        <v>fulbright</v>
       </c>
       <c r="F181" t="str">
-        <v>Match</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>Black Studies/Africana Studies</v>
+        <v>Duplicating Center</v>
       </c>
       <c r="B182" t="str">
-        <v>Black Studies/Africana Studies</v>
+        <v>Duplicating Center</v>
       </c>
       <c r="C182" t="str">
-        <v>237</v>
+        <v>63</v>
       </c>
       <c r="D182" t="str">
-        <v>group-menu-black-studies</v>
+        <v>group-menu-duplicating-center</v>
       </c>
       <c r="E182" t="str">
-        <v>abs</v>
+        <v>duplicating_center</v>
       </c>
       <c r="F182" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>Maria H. Lima</v>
+        <v>Mail Services</v>
       </c>
       <c r="B183" t="str">
-        <v>Maria H. Lima</v>
+        <v>Mail Services</v>
       </c>
       <c r="C183" t="str">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="D183" t="str">
-        <v>— None —</v>
+        <v>group-menu-mail-services</v>
       </c>
       <c r="E183" t="str">
-        <v>lima</v>
+        <v>mail_services</v>
       </c>
       <c r="F183" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>Biophysics</v>
+        <v>Annmarie Urso</v>
       </c>
       <c r="B184" t="str">
-        <v>Biophysics</v>
+        <v>Annmarie Urso</v>
       </c>
       <c r="C184" t="str">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="D184" t="str">
-        <v>group-menu-biophysics</v>
+        <v>group-menu-annmarie-urso</v>
       </c>
       <c r="E184" t="str">
-        <v>biophysics</v>
+        <v>urso</v>
       </c>
       <c r="F184" t="str">
-        <v>Match</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>George A Marcus</v>
+        <v>SoaringStars</v>
       </c>
       <c r="B185" t="str">
-        <v>George A Marcus</v>
+        <v>SoaringStars</v>
       </c>
       <c r="C185" t="str">
-        <v>163</v>
+        <v>245</v>
       </c>
       <c r="D185" t="str">
-        <v>group-menu-george-a-marcus</v>
+        <v>group-menu-soaringstars</v>
       </c>
       <c r="E185" t="str">
-        <v>marcus</v>
+        <v>soaringstars</v>
       </c>
       <c r="F185" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>Wadsworth Auditorium</v>
+        <v>American Studies</v>
       </c>
       <c r="B186" t="str">
-        <v>Wadsworth Auditorium</v>
+        <v>American Studies</v>
       </c>
       <c r="C186" t="str">
-        <v>98</v>
+        <v>209</v>
       </c>
       <c r="D186" t="str">
-        <v>group-menu-wadsworth-auditorium</v>
+        <v>group-menu-american-studies</v>
       </c>
       <c r="E186" t="str">
-        <v>wadsworth_auditorium</v>
+        <v>american_studies</v>
       </c>
       <c r="F186" t="str">
         <v>Match</v>
@@ -4132,19 +4132,19 @@
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>Fulbright Program</v>
+        <v>Center for Social Justice Studies</v>
       </c>
       <c r="B187" t="str">
-        <v>Fulbright Program</v>
+        <v>Center for Social Justice Studies</v>
       </c>
       <c r="C187" t="str">
-        <v>334</v>
+        <v>358</v>
       </c>
       <c r="D187" t="str">
-        <v>group-334-menu</v>
+        <v>— None —</v>
       </c>
       <c r="E187" t="str">
-        <v>fulbright</v>
+        <v>csjs</v>
       </c>
       <c r="F187" t="str">
         <v>Mismatch</v>
@@ -4152,59 +4152,59 @@
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>Duplicating Center</v>
+        <v>Native American Studies</v>
       </c>
       <c r="B188" t="str">
-        <v>Duplicating Center</v>
+        <v>Native American Studies</v>
       </c>
       <c r="C188" t="str">
-        <v>63</v>
+        <v>190</v>
       </c>
       <c r="D188" t="str">
-        <v>group-menu-duplicating-center</v>
+        <v>group-menu-native-american-studi</v>
       </c>
       <c r="E188" t="str">
-        <v>duplicating_center</v>
+        <v>native_american_studies</v>
       </c>
       <c r="F188" t="str">
-        <v>Match</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>Mail Services</v>
+        <v>Actuarial Science Club</v>
       </c>
       <c r="B189" t="str">
-        <v>Mail Services</v>
+        <v>Actuarial Science Club</v>
       </c>
       <c r="C189" t="str">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D189" t="str">
-        <v>group-menu-mail-services</v>
+        <v>group-menu-actuarial-science-clu</v>
       </c>
       <c r="E189" t="str">
-        <v>mail_services</v>
+        <v>actuarial</v>
       </c>
       <c r="F189" t="str">
-        <v>Match</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>Annmarie Urso</v>
+        <v>School of Arts and Sciences</v>
       </c>
       <c r="B190" t="str">
-        <v>Annmarie Urso</v>
+        <v>School of Arts and Sciences</v>
       </c>
       <c r="C190" t="str">
-        <v>171</v>
+        <v>470</v>
       </c>
       <c r="D190" t="str">
-        <v>group-menu-annmarie-urso</v>
+        <v>group-470-menu</v>
       </c>
       <c r="E190" t="str">
-        <v>urso</v>
+        <v>sas</v>
       </c>
       <c r="F190" t="str">
         <v>Mismatch</v>
@@ -4212,79 +4212,79 @@
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>SoaringStars</v>
+        <v>Geneseo First Response</v>
       </c>
       <c r="B191" t="str">
-        <v>SoaringStars</v>
+        <v>Geneseo First Response</v>
       </c>
       <c r="C191" t="str">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="D191" t="str">
-        <v>group-menu-soaringstars</v>
+        <v>group-menu-geneseo-first-respons</v>
       </c>
       <c r="E191" t="str">
-        <v>soaringstars</v>
+        <v>gfr</v>
       </c>
       <c r="F191" t="str">
-        <v>Match</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>American Studies</v>
+        <v>Knightline</v>
       </c>
       <c r="B192" t="str">
-        <v>American Studies</v>
+        <v>Knightline</v>
       </c>
       <c r="C192" t="str">
-        <v>209</v>
+        <v>19</v>
       </c>
       <c r="D192" t="str">
-        <v>group-menu-american-studies</v>
+        <v>group-menu-knighline</v>
       </c>
       <c r="E192" t="str">
-        <v>american_studies</v>
+        <v>knightln</v>
       </c>
       <c r="F192" t="str">
-        <v>Match</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>Center for Social Justice Studies</v>
+        <v>Asian / Asian American Studies</v>
       </c>
       <c r="B193" t="str">
-        <v>Center for Social Justice Studies</v>
+        <v>Asian / Asian American Studies</v>
       </c>
       <c r="C193" t="str">
-        <v>358</v>
+        <v>206</v>
       </c>
       <c r="D193" t="str">
-        <v>— None —</v>
+        <v>group-menu-asian-studies</v>
       </c>
       <c r="E193" t="str">
-        <v>csjs</v>
+        <v>asian_studies</v>
       </c>
       <c r="F193" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>Native American Studies</v>
+        <v>Alliance for Community Enrichment</v>
       </c>
       <c r="B194" t="str">
-        <v>Native American Studies</v>
+        <v>Alliance for Community Enrichment</v>
       </c>
       <c r="C194" t="str">
-        <v>190</v>
+        <v>324</v>
       </c>
       <c r="D194" t="str">
-        <v>group-menu-native-american-studi</v>
+        <v>alliance-for-community-enri</v>
       </c>
       <c r="E194" t="str">
-        <v>native_american_studies</v>
+        <v>ace</v>
       </c>
       <c r="F194" t="str">
         <v>Mismatch</v>
@@ -4292,59 +4292,59 @@
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>Actuarial Science Club</v>
+        <v>Accounting</v>
       </c>
       <c r="B195" t="str">
-        <v>Actuarial Science Club</v>
+        <v>Accounting</v>
       </c>
       <c r="C195" t="str">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="D195" t="str">
-        <v>group-menu-actuarial-science-clu</v>
+        <v>group-menu-accounting</v>
       </c>
       <c r="E195" t="str">
-        <v>actuarial</v>
+        <v>accounting</v>
       </c>
       <c r="F195" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>School of Arts and Sciences</v>
+        <v>Women's Rugby</v>
       </c>
       <c r="B196" t="str">
-        <v>School of Arts and Sciences</v>
+        <v>Women's Rugby</v>
       </c>
       <c r="C196" t="str">
-        <v>470</v>
+        <v>37</v>
       </c>
       <c r="D196" t="str">
-        <v>group-470-menu</v>
+        <v>group-menu-women-s-rugby</v>
       </c>
       <c r="E196" t="str">
-        <v>sas</v>
+        <v>womens_rugby</v>
       </c>
       <c r="F196" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>Geneseo First Response</v>
+        <v>SHRM</v>
       </c>
       <c r="B197" t="str">
-        <v>Geneseo First Response</v>
+        <v>SHRM</v>
       </c>
       <c r="C197" t="str">
-        <v>232</v>
+        <v>132</v>
       </c>
       <c r="D197" t="str">
-        <v>group-menu-geneseo-first-respons</v>
+        <v>group-menu-society-for-human-res</v>
       </c>
       <c r="E197" t="str">
-        <v>gfr</v>
+        <v>shrm</v>
       </c>
       <c r="F197" t="str">
         <v>Mismatch</v>
@@ -4352,19 +4352,19 @@
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>Knightline</v>
+        <v>Club Sports Association</v>
       </c>
       <c r="B198" t="str">
-        <v>Knightline</v>
+        <v>Club Sports Association</v>
       </c>
       <c r="C198" t="str">
-        <v>19</v>
+        <v>476</v>
       </c>
       <c r="D198" t="str">
-        <v>group-menu-knighline</v>
+        <v>group-476-menu</v>
       </c>
       <c r="E198" t="str">
-        <v>knightln</v>
+        <v>clubsportsassociation</v>
       </c>
       <c r="F198" t="str">
         <v>Mismatch</v>
@@ -4372,19 +4372,19 @@
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>Asian / Asian American Studies</v>
+        <v>Hillel</v>
       </c>
       <c r="B199" t="str">
-        <v>Asian / Asian American Studies</v>
+        <v>Hillel</v>
       </c>
       <c r="C199" t="str">
-        <v>206</v>
+        <v>274</v>
       </c>
       <c r="D199" t="str">
-        <v>group-menu-asian-studies</v>
+        <v>group-menu-hillel-</v>
       </c>
       <c r="E199" t="str">
-        <v>asian_studies</v>
+        <v>hillel</v>
       </c>
       <c r="F199" t="str">
         <v>Match</v>
@@ -4392,39 +4392,39 @@
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>Alliance for Community Enrichment</v>
+        <v>Scott Giorgis</v>
       </c>
       <c r="B200" t="str">
-        <v>Alliance for Community Enrichment</v>
+        <v>Scott Giorgis</v>
       </c>
       <c r="C200" t="str">
-        <v>324</v>
+        <v>166</v>
       </c>
       <c r="D200" t="str">
-        <v>alliance-for-community-enri</v>
+        <v>group-menu-scott-giorgis</v>
       </c>
       <c r="E200" t="str">
-        <v>ace</v>
+        <v>scott_giorgis</v>
       </c>
       <c r="F200" t="str">
-        <v>Mismatch</v>
+        <v>Match</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>Accounting</v>
+        <v>Master Teacher</v>
       </c>
       <c r="B201" t="str">
-        <v>Accounting</v>
+        <v>Master Teacher</v>
       </c>
       <c r="C201" t="str">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D201" t="str">
-        <v>group-menu-accounting</v>
+        <v>group-menu-master-teacher</v>
       </c>
       <c r="E201" t="str">
-        <v>accounting</v>
+        <v>masterteacher</v>
       </c>
       <c r="F201" t="str">
         <v>Match</v>
@@ -4432,142 +4432,142 @@
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>Women's Rugby</v>
+        <v>Ed Pogozelski</v>
       </c>
       <c r="B202" t="str">
-        <v>Women's Rugby</v>
+        <v>Ed Pogozelski</v>
       </c>
       <c r="C202" t="str">
-        <v>37</v>
+        <v>165</v>
       </c>
       <c r="D202" t="str">
-        <v>group-menu-women-s-rugby</v>
+        <v>— None —</v>
       </c>
       <c r="E202" t="str">
-        <v>womens_rugby</v>
+        <v>pogo</v>
       </c>
       <c r="F202" t="str">
-        <v>Match</v>
+        <v>Mismatch</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>SHRM</v>
+        <v>-</v>
       </c>
       <c r="B203" t="str">
-        <v>SHRM</v>
+        <v>404 Page</v>
       </c>
       <c r="C203" t="str">
-        <v>132</v>
+        <v>309</v>
       </c>
       <c r="D203" t="str">
-        <v>group-menu-society-for-human-res</v>
+        <v>-</v>
       </c>
       <c r="E203" t="str">
-        <v>shrm</v>
+        <v>404 Page</v>
       </c>
       <c r="F203" t="str">
-        <v>Mismatch</v>
+        <v>Not Found in WP</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>Club Sports Association</v>
+        <v>-</v>
       </c>
       <c r="B204" t="str">
-        <v>Club Sports Association</v>
+        <v>Academic Program Finder</v>
       </c>
       <c r="C204" t="str">
-        <v>476</v>
+        <v>359</v>
       </c>
       <c r="D204" t="str">
-        <v>group-476-menu</v>
+        <v>-</v>
       </c>
       <c r="E204" t="str">
-        <v>clubsportsassociation</v>
+        <v>academic-program-finder</v>
       </c>
       <c r="F204" t="str">
-        <v>Mismatch</v>
+        <v>Not Found in WP</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>Hillel</v>
+        <v>-</v>
       </c>
       <c r="B205" t="str">
-        <v>Hillel</v>
+        <v>Beekeeping</v>
       </c>
       <c r="C205" t="str">
-        <v>274</v>
+        <v>317</v>
       </c>
       <c r="D205" t="str">
-        <v>group-menu-hillel-</v>
+        <v>-</v>
       </c>
       <c r="E205" t="str">
-        <v>hillel</v>
+        <v>beekeeping</v>
       </c>
       <c r="F205" t="str">
-        <v>Match</v>
+        <v>Not Found in WP</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>Scott Giorgis</v>
+        <v>-</v>
       </c>
       <c r="B206" t="str">
-        <v>Scott Giorgis</v>
+        <v>Biology Club</v>
       </c>
       <c r="C206" t="str">
-        <v>166</v>
+        <v>46</v>
       </c>
       <c r="D206" t="str">
-        <v>group-menu-scott-giorgis</v>
+        <v>-</v>
       </c>
       <c r="E206" t="str">
-        <v>scott_giorgis</v>
+        <v>biology_club</v>
       </c>
       <c r="F206" t="str">
-        <v>Match</v>
+        <v>Not Found in WP</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>Master Teacher</v>
+        <v>-</v>
       </c>
       <c r="B207" t="str">
-        <v>Master Teacher</v>
+        <v>Cesar Aguilar</v>
       </c>
       <c r="C207" t="str">
-        <v>122</v>
+        <v>261</v>
       </c>
       <c r="D207" t="str">
-        <v>group-menu-master-teacher</v>
+        <v>-</v>
       </c>
       <c r="E207" t="str">
-        <v>masterteacher</v>
+        <v>aguilar</v>
       </c>
       <c r="F207" t="str">
-        <v>Match</v>
+        <v>Not Found in WP</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>Ed Pogozelski</v>
+        <v>-</v>
       </c>
       <c r="B208" t="str">
-        <v>Ed Pogozelski</v>
+        <v>College Communications &amp; Marketing</v>
       </c>
       <c r="C208" t="str">
-        <v>165</v>
+        <v>225</v>
       </c>
       <c r="D208" t="str">
-        <v>— None —</v>
+        <v>-</v>
       </c>
       <c r="E208" t="str">
-        <v>pogo</v>
+        <v>comm_mark</v>
       </c>
       <c r="F208" t="str">
-        <v>Mismatch</v>
+        <v>Not Found in WP</v>
       </c>
     </row>
     <row r="209">
@@ -4575,16 +4575,16 @@
         <v>-</v>
       </c>
       <c r="B209" t="str">
-        <v>404 Page</v>
+        <v>Consumer Information</v>
       </c>
       <c r="C209" t="str">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="D209" t="str">
         <v>-</v>
       </c>
       <c r="E209" t="str">
-        <v>404 Page</v>
+        <v>geneseo-consumer-information</v>
       </c>
       <c r="F209" t="str">
         <v>Not Found in WP</v>
@@ -4595,16 +4595,16 @@
         <v>-</v>
       </c>
       <c r="B210" t="str">
-        <v>Beekeeping</v>
+        <v>CSTEP</v>
       </c>
       <c r="C210" t="str">
-        <v>317</v>
+        <v>478</v>
       </c>
       <c r="D210" t="str">
         <v>-</v>
       </c>
       <c r="E210" t="str">
-        <v>beekeeping</v>
+        <v>CSTEP</v>
       </c>
       <c r="F210" t="str">
         <v>Not Found in WP</v>
@@ -4615,16 +4615,16 @@
         <v>-</v>
       </c>
       <c r="B211" t="str">
-        <v>Biology Club</v>
+        <v>Dennis Showers</v>
       </c>
       <c r="C211" t="str">
-        <v>46</v>
+        <v>167</v>
       </c>
       <c r="D211" t="str">
         <v>-</v>
       </c>
       <c r="E211" t="str">
-        <v>biology_club</v>
+        <v>showers</v>
       </c>
       <c r="F211" t="str">
         <v>Not Found in WP</v>
@@ -4635,16 +4635,16 @@
         <v>-</v>
       </c>
       <c r="B212" t="str">
-        <v>Cesar Aguilar</v>
+        <v>Employee Resources</v>
       </c>
       <c r="C212" t="str">
-        <v>261</v>
+        <v>221</v>
       </c>
       <c r="D212" t="str">
         <v>-</v>
       </c>
       <c r="E212" t="str">
-        <v>aguilar</v>
+        <v>employee-resources</v>
       </c>
       <c r="F212" t="str">
         <v>Not Found in WP</v>
@@ -4655,16 +4655,16 @@
         <v>-</v>
       </c>
       <c r="B213" t="str">
-        <v>Consumer Information</v>
+        <v>Geneseo Marketing Assocation</v>
       </c>
       <c r="C213" t="str">
-        <v>295</v>
+        <v>79</v>
       </c>
       <c r="D213" t="str">
         <v>-</v>
       </c>
       <c r="E213" t="str">
-        <v>geneseo-consumer-information</v>
+        <v>gma</v>
       </c>
       <c r="F213" t="str">
         <v>Not Found in WP</v>
@@ -4675,16 +4675,16 @@
         <v>-</v>
       </c>
       <c r="B214" t="str">
-        <v>CSTEP</v>
+        <v>Human Cognition and Memory Lab</v>
       </c>
       <c r="C214" t="str">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="D214" t="str">
         <v>-</v>
       </c>
       <c r="E214" t="str">
-        <v>CSTEP</v>
+        <v>hcml</v>
       </c>
       <c r="F214" t="str">
         <v>Not Found in WP</v>
@@ -4695,16 +4695,16 @@
         <v>-</v>
       </c>
       <c r="B215" t="str">
-        <v>Dennis Showers</v>
+        <v>Linda Ware Ph.D.</v>
       </c>
       <c r="C215" t="str">
-        <v>167</v>
+        <v>33</v>
       </c>
       <c r="D215" t="str">
         <v>-</v>
       </c>
       <c r="E215" t="str">
-        <v>showers</v>
+        <v>ware</v>
       </c>
       <c r="F215" t="str">
         <v>Not Found in WP</v>
@@ -4715,16 +4715,16 @@
         <v>-</v>
       </c>
       <c r="B216" t="str">
-        <v>Geneseo Marketing Assocation</v>
+        <v>Make Your Mark</v>
       </c>
       <c r="C216" t="str">
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="D216" t="str">
         <v>-</v>
       </c>
       <c r="E216" t="str">
-        <v>gma</v>
+        <v>makeyourmark</v>
       </c>
       <c r="F216" t="str">
         <v>Not Found in WP</v>
@@ -4735,16 +4735,16 @@
         <v>-</v>
       </c>
       <c r="B217" t="str">
-        <v>Human Cognition and Memory Lab</v>
+        <v>Ming-Mei Chang</v>
       </c>
       <c r="C217" t="str">
-        <v>465</v>
+        <v>153</v>
       </c>
       <c r="D217" t="str">
         <v>-</v>
       </c>
       <c r="E217" t="str">
-        <v>hcml</v>
+        <v>chang</v>
       </c>
       <c r="F217" t="str">
         <v>Not Found in WP</v>
@@ -4755,16 +4755,16 @@
         <v>-</v>
       </c>
       <c r="B218" t="str">
-        <v>Linda Ware Ph.D.</v>
+        <v>Minority Association for PreHealth</v>
       </c>
       <c r="C218" t="str">
-        <v>33</v>
+        <v>180</v>
       </c>
       <c r="D218" t="str">
         <v>-</v>
       </c>
       <c r="E218" t="str">
-        <v>ware</v>
+        <v>minority-assoc-prehealth</v>
       </c>
       <c r="F218" t="str">
         <v>Not Found in WP</v>
@@ -4775,16 +4775,16 @@
         <v>-</v>
       </c>
       <c r="B219" t="str">
-        <v>Ming-Mei Chang</v>
+        <v>Newman</v>
       </c>
       <c r="C219" t="str">
-        <v>153</v>
+        <v>307</v>
       </c>
       <c r="D219" t="str">
         <v>-</v>
       </c>
       <c r="E219" t="str">
-        <v>chang</v>
+        <v>newman</v>
       </c>
       <c r="F219" t="str">
         <v>Not Found in WP</v>
@@ -4795,16 +4795,16 @@
         <v>-</v>
       </c>
       <c r="B220" t="str">
-        <v>Minority Association for PreHealth</v>
+        <v>News Center</v>
       </c>
       <c r="C220" t="str">
-        <v>180</v>
+        <v>290</v>
       </c>
       <c r="D220" t="str">
         <v>-</v>
       </c>
       <c r="E220" t="str">
-        <v>minority-assoc-prehealth</v>
+        <v>news</v>
       </c>
       <c r="F220" t="str">
         <v>Not Found in WP</v>
@@ -4815,16 +4815,16 @@
         <v>-</v>
       </c>
       <c r="B221" t="str">
-        <v>Newman</v>
+        <v>Office of Government and Community Relations</v>
       </c>
       <c r="C221" t="str">
-        <v>307</v>
+        <v>477</v>
       </c>
       <c r="D221" t="str">
         <v>-</v>
       </c>
       <c r="E221" t="str">
-        <v>newman</v>
+        <v>government-and-community-relations</v>
       </c>
       <c r="F221" t="str">
         <v>Not Found in WP</v>
@@ -4835,16 +4835,16 @@
         <v>-</v>
       </c>
       <c r="B222" t="str">
-        <v>Office of Government and Community Relations</v>
+        <v>Peace Action Geneseo</v>
       </c>
       <c r="C222" t="str">
-        <v>477</v>
+        <v>280</v>
       </c>
       <c r="D222" t="str">
         <v>-</v>
       </c>
       <c r="E222" t="str">
-        <v>government-and-community-relations</v>
+        <v>peace_action</v>
       </c>
       <c r="F222" t="str">
         <v>Not Found in WP</v>
@@ -4855,16 +4855,16 @@
         <v>-</v>
       </c>
       <c r="B223" t="str">
-        <v>Peace Action Geneseo</v>
+        <v>Pep Band</v>
       </c>
       <c r="C223" t="str">
-        <v>280</v>
+        <v>226</v>
       </c>
       <c r="D223" t="str">
         <v>-</v>
       </c>
       <c r="E223" t="str">
-        <v>peace_action</v>
+        <v>pepband</v>
       </c>
       <c r="F223" t="str">
         <v>Not Found in WP</v>
@@ -4875,16 +4875,16 @@
         <v>-</v>
       </c>
       <c r="B224" t="str">
-        <v>Pep Band</v>
+        <v>Performance As Social Change</v>
       </c>
       <c r="C224" t="str">
-        <v>226</v>
+        <v>463</v>
       </c>
       <c r="D224" t="str">
         <v>-</v>
       </c>
       <c r="E224" t="str">
-        <v>pepband</v>
+        <v>performance-social-change</v>
       </c>
       <c r="F224" t="str">
         <v>Not Found in WP</v>
@@ -4895,16 +4895,16 @@
         <v>-</v>
       </c>
       <c r="B225" t="str">
-        <v>Performance As Social Change</v>
+        <v>Phi Beta Lambda</v>
       </c>
       <c r="C225" t="str">
-        <v>463</v>
+        <v>43</v>
       </c>
       <c r="D225" t="str">
         <v>-</v>
       </c>
       <c r="E225" t="str">
-        <v>performance-social-change</v>
+        <v>phibetalambda</v>
       </c>
       <c r="F225" t="str">
         <v>Not Found in WP</v>
@@ -4915,16 +4915,16 @@
         <v>-</v>
       </c>
       <c r="B226" t="str">
-        <v>Phi Beta Lambda</v>
+        <v>Pride Alliance</v>
       </c>
       <c r="C226" t="str">
-        <v>43</v>
+        <v>301</v>
       </c>
       <c r="D226" t="str">
         <v>-</v>
       </c>
       <c r="E226" t="str">
-        <v>phibetalambda</v>
+        <v>pride-alliance</v>
       </c>
       <c r="F226" t="str">
         <v>Not Found in WP</v>
@@ -4935,16 +4935,16 @@
         <v>-</v>
       </c>
       <c r="B227" t="str">
-        <v>Pride Alliance</v>
+        <v>Prof Gu</v>
       </c>
       <c r="C227" t="str">
-        <v>301</v>
+        <v>160</v>
       </c>
       <c r="D227" t="str">
         <v>-</v>
       </c>
       <c r="E227" t="str">
-        <v>pride-alliance</v>
+        <v>gu</v>
       </c>
       <c r="F227" t="str">
         <v>Not Found in WP</v>
@@ -4955,16 +4955,16 @@
         <v>-</v>
       </c>
       <c r="B228" t="str">
-        <v>Prof Gu</v>
+        <v>Rose McEwen</v>
       </c>
       <c r="C228" t="str">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D228" t="str">
         <v>-</v>
       </c>
       <c r="E228" t="str">
-        <v>gu</v>
+        <v>mcewen</v>
       </c>
       <c r="F228" t="str">
         <v>Not Found in WP</v>
@@ -4975,16 +4975,16 @@
         <v>-</v>
       </c>
       <c r="B229" t="str">
-        <v>Rose McEwen</v>
+        <v>Safe Party</v>
       </c>
       <c r="C229" t="str">
-        <v>164</v>
+        <v>74</v>
       </c>
       <c r="D229" t="str">
         <v>-</v>
       </c>
       <c r="E229" t="str">
-        <v>mcewen</v>
+        <v>safeparty</v>
       </c>
       <c r="F229" t="str">
         <v>Not Found in WP</v>
@@ -4995,16 +4995,16 @@
         <v>-</v>
       </c>
       <c r="B230" t="str">
-        <v>Safe Party</v>
+        <v>Sam Bean</v>
       </c>
       <c r="C230" t="str">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="D230" t="str">
         <v>-</v>
       </c>
       <c r="E230" t="str">
-        <v>safeparty</v>
+        <v>bean</v>
       </c>
       <c r="F230" t="str">
         <v>Not Found in WP</v>
@@ -5015,16 +5015,16 @@
         <v>-</v>
       </c>
       <c r="B231" t="str">
-        <v>Sam Bean</v>
+        <v>Scene</v>
       </c>
       <c r="C231" t="str">
-        <v>12</v>
+        <v>258</v>
       </c>
       <c r="D231" t="str">
         <v>-</v>
       </c>
       <c r="E231" t="str">
-        <v>bean</v>
+        <v>geneseo_scene</v>
       </c>
       <c r="F231" t="str">
         <v>Not Found in WP</v>
